--- a/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
+++ b/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="0" windowWidth="18312" windowHeight="7224"/>
+    <workbookView xWindow="3552" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -51,6 +52,27 @@
   </si>
   <si>
     <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>min_samples_leaf</t>
+  </si>
+  <si>
+    <t>min_samples_split</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>Train Accuracy</t>
+  </si>
+  <si>
+    <t>Train AUC</t>
+  </si>
+  <si>
+    <t>test AUC</t>
   </si>
 </sst>
 </file>
@@ -404,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1348,4 +1370,2862 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G2">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H2">
+        <v>0.93153202712100003</v>
+      </c>
+      <c r="I2">
+        <v>0.93188534110099996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G3">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H3">
+        <v>0.93153218103500002</v>
+      </c>
+      <c r="I3">
+        <v>0.93188517312499997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G4">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H4">
+        <v>0.93153217326000004</v>
+      </c>
+      <c r="I4">
+        <v>0.93187862488499995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G5">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H5">
+        <v>0.93153247776199999</v>
+      </c>
+      <c r="I5">
+        <v>0.931878232616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G6">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H6">
+        <v>0.93153217901700003</v>
+      </c>
+      <c r="I6">
+        <v>0.93187806464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G7">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H7">
+        <v>0.93153248482899997</v>
+      </c>
+      <c r="I7">
+        <v>0.93187806464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>120</v>
+      </c>
+      <c r="F8">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G8">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H8">
+        <v>0.93153216692899998</v>
+      </c>
+      <c r="I8">
+        <v>0.93187767237100005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G9">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H9">
+        <v>0.93153247638100001</v>
+      </c>
+      <c r="I9">
+        <v>0.93186331712000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G10">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H10">
+        <v>0.93153248762200003</v>
+      </c>
+      <c r="I10">
+        <v>0.93186292485099997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G11">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H11">
+        <v>0.93153247907199999</v>
+      </c>
+      <c r="I11">
+        <v>0.93186292485099997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G12">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H12">
+        <v>0.931532024091</v>
+      </c>
+      <c r="I12">
+        <v>0.93186275687499998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G13">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H13">
+        <v>0.93153248858000004</v>
+      </c>
+      <c r="I13">
+        <v>0.93186275687499998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G14">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H14">
+        <v>0.93153240914199997</v>
+      </c>
+      <c r="I14">
+        <v>0.93186275687499998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G15">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H15">
+        <v>0.93153248424400004</v>
+      </c>
+      <c r="I15">
+        <v>0.93186275687499998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G16">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H16">
+        <v>0.93153247577099996</v>
+      </c>
+      <c r="I16">
+        <v>0.931862511861</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G17">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H17">
+        <v>0.93153248858000004</v>
+      </c>
+      <c r="I17">
+        <v>0.93186236460600003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G18">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H18">
+        <v>0.93153248858000004</v>
+      </c>
+      <c r="I18">
+        <v>0.93186236460600003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G19">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H19">
+        <v>0.93153248376099995</v>
+      </c>
+      <c r="I19">
+        <v>0.93186236460600003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G20">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H20">
+        <v>0.931531708771</v>
+      </c>
+      <c r="I20">
+        <v>0.93186236460600003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G21">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H21">
+        <v>0.93153248964099999</v>
+      </c>
+      <c r="I21">
+        <v>0.93186236460600003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G22">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H22">
+        <v>0.93153203289099995</v>
+      </c>
+      <c r="I22">
+        <v>0.93185620863600005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G23">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H23">
+        <v>0.93153247403100004</v>
+      </c>
+      <c r="I23">
+        <v>0.93185620863600005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G24">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H24">
+        <v>0.931532485631</v>
+      </c>
+      <c r="I24">
+        <v>0.93185620863600005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G25">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H25">
+        <v>0.93153247274100004</v>
+      </c>
+      <c r="I25">
+        <v>0.93185620863600005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G26">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H26">
+        <v>0.93153202136400004</v>
+      </c>
+      <c r="I26">
+        <v>0.93185620863600005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G27">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H27">
+        <v>0.93153247977999998</v>
+      </c>
+      <c r="I27">
+        <v>0.93185620863600005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G28">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H28">
+        <v>0.93153248656200005</v>
+      </c>
+      <c r="I28">
+        <v>0.93185620863600005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G29">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H29">
+        <v>0.93153246825400005</v>
+      </c>
+      <c r="I29">
+        <v>0.93185596362099998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G30">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H30">
+        <v>0.93153172909699999</v>
+      </c>
+      <c r="I30">
+        <v>0.93185581636699999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G31">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H31">
+        <v>0.93153210125700003</v>
+      </c>
+      <c r="I31">
+        <v>0.93185581636699999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G32">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H32">
+        <v>0.93153242792500002</v>
+      </c>
+      <c r="I32">
+        <v>0.93185581636699999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>120</v>
+      </c>
+      <c r="F33">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G33">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H33">
+        <v>0.93153218009700001</v>
+      </c>
+      <c r="I33">
+        <v>0.93185581636699999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>120</v>
+      </c>
+      <c r="F34">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G34">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H34">
+        <v>0.93153202338300001</v>
+      </c>
+      <c r="I34">
+        <v>0.93185581636699999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G35">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H35">
+        <v>0.93153218153299999</v>
+      </c>
+      <c r="I35">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>500</v>
+      </c>
+      <c r="F36">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G36">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H36">
+        <v>0.93153218103500002</v>
+      </c>
+      <c r="I36">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G37">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H37">
+        <v>0.93153248084100004</v>
+      </c>
+      <c r="I37">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
+      </c>
+      <c r="F38">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G38">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H38">
+        <v>0.93153248222600005</v>
+      </c>
+      <c r="I38">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>120</v>
+      </c>
+      <c r="F39">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G39">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H39">
+        <v>0.93153247498799996</v>
+      </c>
+      <c r="I39">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G40">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H40">
+        <v>0.93153248174299996</v>
+      </c>
+      <c r="I40">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>120</v>
+      </c>
+      <c r="F41">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G41">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H41">
+        <v>0.93153217528499999</v>
+      </c>
+      <c r="I41">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>500</v>
+      </c>
+      <c r="F42">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G42">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H42">
+        <v>0.93153217152599999</v>
+      </c>
+      <c r="I42">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="F43">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G43">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H43">
+        <v>0.93153240778000002</v>
+      </c>
+      <c r="I43">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G44">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H44">
+        <v>0.93153248858000004</v>
+      </c>
+      <c r="I44">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>120</v>
+      </c>
+      <c r="F45">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G45">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H45">
+        <v>0.93153247776199999</v>
+      </c>
+      <c r="I45">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="F46">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G46">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H46">
+        <v>0.93153247907199999</v>
+      </c>
+      <c r="I46">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>300</v>
+      </c>
+      <c r="F47">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G47">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H47">
+        <v>0.93153248482899997</v>
+      </c>
+      <c r="I47">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G48">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H48">
+        <v>0.93153247534000005</v>
+      </c>
+      <c r="I48">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>300</v>
+      </c>
+      <c r="F49">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G49">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H49">
+        <v>0.93153248049299997</v>
+      </c>
+      <c r="I49">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G50">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H50">
+        <v>0.93153248762200003</v>
+      </c>
+      <c r="I50">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>500</v>
+      </c>
+      <c r="F51">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G51">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H51">
+        <v>0.93153247907199999</v>
+      </c>
+      <c r="I51">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+      <c r="F52">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G52">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H52">
+        <v>0.93153217704699998</v>
+      </c>
+      <c r="I52">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>500</v>
+      </c>
+      <c r="F53">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G53">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H53">
+        <v>0.93153248281000001</v>
+      </c>
+      <c r="I53">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>500</v>
+      </c>
+      <c r="F54">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G54">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H54">
+        <v>0.93153248482899997</v>
+      </c>
+      <c r="I54">
+        <v>0.93185564839099999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>500</v>
+      </c>
+      <c r="F55">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G55">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H55">
+        <v>0.93153248858000004</v>
+      </c>
+      <c r="I55">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>500</v>
+      </c>
+      <c r="F56">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G56">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H56">
+        <v>0.93153248482899997</v>
+      </c>
+      <c r="I56">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+      <c r="F57">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G57">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H57">
+        <v>0.93153247223400004</v>
+      </c>
+      <c r="I57">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>500</v>
+      </c>
+      <c r="F58">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G58">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H58">
+        <v>0.93153248482899997</v>
+      </c>
+      <c r="I58">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>300</v>
+      </c>
+      <c r="F59">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G59">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H59">
+        <v>0.93153248656200005</v>
+      </c>
+      <c r="I59">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G60">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H60">
+        <v>0.931532169508</v>
+      </c>
+      <c r="I60">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>300</v>
+      </c>
+      <c r="F61">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G61">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H61">
+        <v>0.93153247532000005</v>
+      </c>
+      <c r="I61">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+      <c r="F62">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G62">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H62">
+        <v>0.93153248281000001</v>
+      </c>
+      <c r="I62">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>300</v>
+      </c>
+      <c r="F63">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G63">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H63">
+        <v>0.93153248482899997</v>
+      </c>
+      <c r="I63">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>300</v>
+      </c>
+      <c r="F64">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G64">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H64">
+        <v>0.93153248762200003</v>
+      </c>
+      <c r="I64">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>500</v>
+      </c>
+      <c r="F65">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G65">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H65">
+        <v>0.93153247425300001</v>
+      </c>
+      <c r="I65">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>500</v>
+      </c>
+      <c r="F66">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G66">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H66">
+        <v>0.93153246896599995</v>
+      </c>
+      <c r="I66">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>120</v>
+      </c>
+      <c r="F67">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G67">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H67">
+        <v>0.93153216799000005</v>
+      </c>
+      <c r="I67">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>300</v>
+      </c>
+      <c r="F68">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G68">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H68">
+        <v>0.93153247776199999</v>
+      </c>
+      <c r="I68">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>500</v>
+      </c>
+      <c r="F69">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G69">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H69">
+        <v>0.93153247977999998</v>
+      </c>
+      <c r="I69">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>120</v>
+      </c>
+      <c r="F70">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G70">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H70">
+        <v>0.93153248656200005</v>
+      </c>
+      <c r="I70">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>300</v>
+      </c>
+      <c r="F71">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G71">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H71">
+        <v>0.93153248858000004</v>
+      </c>
+      <c r="I71">
+        <v>0.93185525612200004</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>300</v>
+      </c>
+      <c r="F72">
+        <v>0.86554108336299995</v>
+      </c>
+      <c r="G72">
+        <v>0.88967614421399999</v>
+      </c>
+      <c r="H72">
+        <v>0.93153248013900003</v>
+      </c>
+      <c r="I72">
+        <v>0.93185501110699998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>500</v>
+      </c>
+      <c r="F73">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G73">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H73">
+        <v>0.92900770716100001</v>
+      </c>
+      <c r="I73">
+        <v>0.93025367027700001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>300</v>
+      </c>
+      <c r="F74">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G74">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H74">
+        <v>0.93003664187500001</v>
+      </c>
+      <c r="I74">
+        <v>0.92998466427500004</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>300</v>
+      </c>
+      <c r="F75">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G75">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H75">
+        <v>0.92894042278099997</v>
+      </c>
+      <c r="I75">
+        <v>0.92979897197899997</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>500</v>
+      </c>
+      <c r="F76">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G76">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H76">
+        <v>0.92912026768400002</v>
+      </c>
+      <c r="I76">
+        <v>0.92976526045899999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>300</v>
+      </c>
+      <c r="F77">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G77">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H77">
+        <v>0.92915098599599999</v>
+      </c>
+      <c r="I77">
+        <v>0.92955728366699997</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>500</v>
+      </c>
+      <c r="F78">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G78">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H78">
+        <v>0.92913372857499998</v>
+      </c>
+      <c r="I78">
+        <v>0.92944099197999996</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>120</v>
+      </c>
+      <c r="F79">
+        <v>0.86553775969699998</v>
+      </c>
+      <c r="G79">
+        <v>0.89230429542099998</v>
+      </c>
+      <c r="H79">
+        <v>0.93153246825400005</v>
+      </c>
+      <c r="I79">
+        <v>0.92943387800300004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>300</v>
+      </c>
+      <c r="F80">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G80">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H80">
+        <v>0.92908470800200005</v>
+      </c>
+      <c r="I80">
+        <v>0.92939218252300004</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>120</v>
+      </c>
+      <c r="F81">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G81">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H81">
+        <v>0.92909437725900001</v>
+      </c>
+      <c r="I81">
+        <v>0.92937451115400005</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>500</v>
+      </c>
+      <c r="F82">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G82">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H82">
+        <v>0.92909539281300002</v>
+      </c>
+      <c r="I82">
+        <v>0.929372154078</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+      <c r="F83">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G83">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H83">
+        <v>0.92850478055499996</v>
+      </c>
+      <c r="I83">
+        <v>0.92936659508399999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+      <c r="F84">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G84">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H84">
+        <v>0.92917194434499994</v>
+      </c>
+      <c r="I84">
+        <v>0.929363736642</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+      <c r="F85">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G85">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H85">
+        <v>0.92888441968699997</v>
+      </c>
+      <c r="I85">
+        <v>0.92935826356100004</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>300</v>
+      </c>
+      <c r="F86">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G86">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H86">
+        <v>0.92914964370999997</v>
+      </c>
+      <c r="I86">
+        <v>0.92935516894000003</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>500</v>
+      </c>
+      <c r="F87">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G87">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H87">
+        <v>0.92873273733299999</v>
+      </c>
+      <c r="I87">
+        <v>0.92935213636500003</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>300</v>
+      </c>
+      <c r="F88">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G88">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H88">
+        <v>0.92848731018099995</v>
+      </c>
+      <c r="I88">
+        <v>0.92934281205900005</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>120</v>
+      </c>
+      <c r="F89">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G89">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H89">
+        <v>0.92910065286800003</v>
+      </c>
+      <c r="I89">
+        <v>0.92932004762099996</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>120</v>
+      </c>
+      <c r="F90">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G90">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H90">
+        <v>0.92909549502099997</v>
+      </c>
+      <c r="I90">
+        <v>0.92931772264400003</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>120</v>
+      </c>
+      <c r="F91">
+        <v>0.86393575258199995</v>
+      </c>
+      <c r="G91">
+        <v>0.88509624059000003</v>
+      </c>
+      <c r="H91">
+        <v>0.92969958527800001</v>
+      </c>
+      <c r="I91">
+        <v>0.92931502416300005</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>300</v>
+      </c>
+      <c r="F92">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G92">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H92">
+        <v>0.92848946188199999</v>
+      </c>
+      <c r="I92">
+        <v>0.92928859918999995</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>120</v>
+      </c>
+      <c r="F93">
+        <v>0.86393575258199995</v>
+      </c>
+      <c r="G93">
+        <v>0.88509624059000003</v>
+      </c>
+      <c r="H93">
+        <v>0.929045099391</v>
+      </c>
+      <c r="I93">
+        <v>0.92928366385399996</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>300</v>
+      </c>
+      <c r="F94">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G94">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H94">
+        <v>0.92922496684199996</v>
+      </c>
+      <c r="I94">
+        <v>0.92926611380000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>300</v>
+      </c>
+      <c r="F95">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G95">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H95">
+        <v>0.92916393124499996</v>
+      </c>
+      <c r="I95">
+        <v>0.92924573358899998</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>120</v>
+      </c>
+      <c r="F96">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G96">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H96">
+        <v>0.92914479212500001</v>
+      </c>
+      <c r="I96">
+        <v>0.92924371054900001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>120</v>
+      </c>
+      <c r="F97">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G97">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H97">
+        <v>0.92887060841500002</v>
+      </c>
+      <c r="I97">
+        <v>0.92924297144000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>300</v>
+      </c>
+      <c r="F98">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G98">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H98">
+        <v>0.92893454916499996</v>
+      </c>
+      <c r="I98">
+        <v>0.92924137315900002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>500</v>
+      </c>
+      <c r="F99">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G99">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H99">
+        <v>0.92857467407399996</v>
+      </c>
+      <c r="I99">
+        <v>0.92924052757200004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>500</v>
+      </c>
+      <c r="F100">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G100">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H100">
+        <v>0.929057356344</v>
+      </c>
+      <c r="I100">
+        <v>0.92917619444300004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>500</v>
+      </c>
+      <c r="F101">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G101">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H101">
+        <v>0.929111183906</v>
+      </c>
+      <c r="I101">
+        <v>0.92917562764899997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>120</v>
+      </c>
+      <c r="F102">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G102">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H102">
+        <v>0.92917270940300001</v>
+      </c>
+      <c r="I102">
+        <v>0.92917270940300001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>300</v>
+      </c>
+      <c r="F103">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G103">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H103">
+        <v>0.92952239208499998</v>
+      </c>
+      <c r="I103">
+        <v>0.92909302408299999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>300</v>
+      </c>
+      <c r="F104">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G104">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H104">
+        <v>0.92919076856799998</v>
+      </c>
+      <c r="I104">
+        <v>0.92908477902099995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>120</v>
+      </c>
+      <c r="F105">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G105">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H105">
+        <v>0.92958925272899995</v>
+      </c>
+      <c r="I105">
+        <v>0.92901824670499999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>120</v>
+      </c>
+      <c r="F106">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G106">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H106">
+        <v>0.92929388192399998</v>
+      </c>
+      <c r="I106">
+        <v>0.92877001253799996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>500</v>
+      </c>
+      <c r="F107">
+        <v>0.86416888402699998</v>
+      </c>
+      <c r="G107">
+        <v>0.89140957059000003</v>
+      </c>
+      <c r="H107">
+        <v>0.92904803338800002</v>
+      </c>
+      <c r="I107">
+        <v>0.92869254133199997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>500</v>
+      </c>
+      <c r="F108">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G108">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H108">
+        <v>0.92908779161499999</v>
+      </c>
+      <c r="I108">
+        <v>0.92868441605999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>120</v>
+      </c>
+      <c r="F109">
+        <v>0.86428996043899997</v>
+      </c>
+      <c r="G109">
+        <v>0.88770709048800001</v>
+      </c>
+      <c r="H109">
+        <v>0.92900177906199999</v>
+      </c>
+      <c r="I109">
+        <v>0.928595919228</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I109">
+    <sortCondition descending="1" ref="I2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
+++ b/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="1"/>
+    <workbookView xWindow="6216" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$W$4:$Y$220</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -73,6 +77,27 @@
   </si>
   <si>
     <t>test AUC</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Test AUC</t>
+  </si>
+  <si>
+    <t>min_child_weight</t>
+  </si>
+  <si>
+    <t>subsample</t>
+  </si>
+  <si>
+    <t>colsample_bytree</t>
+  </si>
+  <si>
+    <t>200k data points, features like num_0, num_1, count_rows, click_rate added, top 19 features used</t>
+  </si>
+  <si>
+    <t>200k data points, features like num_0, num_1, count_rows, click_rate added, top 15 features used</t>
   </si>
 </sst>
 </file>
@@ -424,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,9 +461,12 @@
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +488,35 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -483,8 +538,32 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0.05</v>
+      </c>
+      <c r="L2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>200</v>
+      </c>
+      <c r="O2">
+        <v>0.98748592189999995</v>
+      </c>
+      <c r="P2">
+        <v>0.97723889235399997</v>
+      </c>
+      <c r="Q2">
+        <v>0.99866591630000001</v>
+      </c>
+      <c r="R2">
+        <v>0.964453300224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.05</v>
       </c>
@@ -503,8 +582,32 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>200</v>
+      </c>
+      <c r="O3">
+        <v>0.98748687151799996</v>
+      </c>
+      <c r="P3">
+        <v>0.977269375612</v>
+      </c>
+      <c r="Q3">
+        <v>0.99866373527200003</v>
+      </c>
+      <c r="R3">
+        <v>0.96444733111299996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.05</v>
       </c>
@@ -526,8 +629,32 @@
       <c r="J4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0.05</v>
+      </c>
+      <c r="L4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>200</v>
+      </c>
+      <c r="O4">
+        <v>0.98650591517599995</v>
+      </c>
+      <c r="P4">
+        <v>0.97668689821300003</v>
+      </c>
+      <c r="Q4">
+        <v>0.998388064593</v>
+      </c>
+      <c r="R4">
+        <v>0.96254313189899998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0.05</v>
       </c>
@@ -546,8 +673,32 @@
       <c r="J5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <v>0.98651446174699997</v>
+      </c>
+      <c r="P5">
+        <v>0.97667865949499999</v>
+      </c>
+      <c r="Q5">
+        <v>0.99838721134099995</v>
+      </c>
+      <c r="R5">
+        <v>0.96253602332599997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.05</v>
       </c>
@@ -566,8 +717,32 @@
       <c r="J6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>0.99571579425199996</v>
+      </c>
+      <c r="P6">
+        <v>0.97627001905599997</v>
+      </c>
+      <c r="Q6">
+        <v>0.99934666827100005</v>
+      </c>
+      <c r="R6">
+        <v>0.96228649782999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.05</v>
       </c>
@@ -586,8 +761,32 @@
       <c r="J7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+      <c r="L7">
+        <v>0.01</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>200</v>
+      </c>
+      <c r="O7">
+        <v>0.99513510228299995</v>
+      </c>
+      <c r="P7">
+        <v>0.976072289812</v>
+      </c>
+      <c r="Q7">
+        <v>0.99924514022199995</v>
+      </c>
+      <c r="R7">
+        <v>0.96224959126300003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.05</v>
       </c>
@@ -606,8 +805,32 @@
       <c r="J8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0.05</v>
+      </c>
+      <c r="L8">
+        <v>0.01</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>200</v>
+      </c>
+      <c r="O8">
+        <v>0.99514602290099996</v>
+      </c>
+      <c r="P8">
+        <v>0.97612336986699999</v>
+      </c>
+      <c r="Q8">
+        <v>0.99924631225500005</v>
+      </c>
+      <c r="R8">
+        <v>0.96223812247600005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0.05</v>
       </c>
@@ -626,8 +849,32 @@
       <c r="J9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+      <c r="L9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>0.996216718231</v>
+      </c>
+      <c r="P9">
+        <v>0.97637794626899999</v>
+      </c>
+      <c r="Q9">
+        <v>0.99941569960499999</v>
+      </c>
+      <c r="R9">
+        <v>0.96222436167799996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.05</v>
       </c>
@@ -646,8 +893,32 @@
       <c r="J10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0.05</v>
+      </c>
+      <c r="L10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>0.99573003853599995</v>
+      </c>
+      <c r="P10">
+        <v>0.97628237713400001</v>
+      </c>
+      <c r="Q10">
+        <v>0.99934565767399997</v>
+      </c>
+      <c r="R10">
+        <v>0.96222146726799995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.05</v>
       </c>
@@ -666,8 +937,32 @@
       <c r="J11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0.05</v>
+      </c>
+      <c r="L11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>200</v>
+      </c>
+      <c r="O11">
+        <v>0.99622573961100003</v>
+      </c>
+      <c r="P11">
+        <v>0.97639030434700003</v>
+      </c>
+      <c r="Q11">
+        <v>0.99941619751400002</v>
+      </c>
+      <c r="R11">
+        <v>0.96217498581899996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0.05</v>
       </c>
@@ -686,8 +981,32 @@
       <c r="J12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0.1</v>
+      </c>
+      <c r="L12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>200</v>
+      </c>
+      <c r="O12">
+        <v>0.99775652530600001</v>
+      </c>
+      <c r="P12">
+        <v>0.976705023394</v>
+      </c>
+      <c r="Q12">
+        <v>0.99978276632899998</v>
+      </c>
+      <c r="R12">
+        <v>0.96204004967400003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0.05</v>
       </c>
@@ -706,8 +1025,32 @@
       <c r="J13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0.05</v>
+      </c>
+      <c r="L13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <v>0.99778691311199996</v>
+      </c>
+      <c r="P13">
+        <v>0.97672479631800002</v>
+      </c>
+      <c r="Q13">
+        <v>0.99978354041899997</v>
+      </c>
+      <c r="R13">
+        <v>0.96193489383399999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>0.05</v>
       </c>
@@ -726,8 +1069,32 @@
       <c r="J14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>0.99448508813400005</v>
+      </c>
+      <c r="P14">
+        <v>0.97585478764300004</v>
+      </c>
+      <c r="Q14">
+        <v>0.99909453335599996</v>
+      </c>
+      <c r="R14">
+        <v>0.96191635478799997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0.05</v>
       </c>
@@ -746,8 +1113,32 @@
       <c r="J15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0.05</v>
+      </c>
+      <c r="L15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>0.99449268508499999</v>
+      </c>
+      <c r="P15">
+        <v>0.97583007148699996</v>
+      </c>
+      <c r="Q15">
+        <v>0.99909760662199998</v>
+      </c>
+      <c r="R15">
+        <v>0.96189939543400005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0.05</v>
       </c>
@@ -766,8 +1157,32 @@
       <c r="J16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>200</v>
+      </c>
+      <c r="O16">
+        <v>0.98184803438400003</v>
+      </c>
+      <c r="P16">
+        <v>0.97052104127500005</v>
+      </c>
+      <c r="Q16">
+        <v>0.99799339845900004</v>
+      </c>
+      <c r="R16">
+        <v>0.96142076799099996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -786,8 +1201,32 @@
       <c r="J17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0.05</v>
+      </c>
+      <c r="L17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>200</v>
+      </c>
+      <c r="O17">
+        <v>0.98184803438400003</v>
+      </c>
+      <c r="P17">
+        <v>0.97052104127500005</v>
+      </c>
+      <c r="Q17">
+        <v>0.99799340892599997</v>
+      </c>
+      <c r="R17">
+        <v>0.96142076300599999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -806,8 +1245,32 @@
       <c r="J18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>0.05</v>
+      </c>
+      <c r="L18">
+        <v>0.01</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>0.99369927847999995</v>
+      </c>
+      <c r="P18">
+        <v>0.97548569305300004</v>
+      </c>
+      <c r="Q18">
+        <v>0.99888832628299995</v>
+      </c>
+      <c r="R18">
+        <v>0.96119589288200002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -826,8 +1289,32 @@
       <c r="J19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>0.99367458838800005</v>
+      </c>
+      <c r="P19">
+        <v>0.97548651692499999</v>
+      </c>
+      <c r="Q19">
+        <v>0.99888673274999995</v>
+      </c>
+      <c r="R19">
+        <v>0.961195754101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -846,8 +1333,32 @@
       <c r="J20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>0.98621913026300001</v>
+      </c>
+      <c r="P20">
+        <v>0.97652212384299997</v>
+      </c>
+      <c r="Q20">
+        <v>0.99821342892999998</v>
+      </c>
+      <c r="R20">
+        <v>0.96038319249600002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -866,8 +1377,32 @@
       <c r="J21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>0.1</v>
+      </c>
+      <c r="L21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>0.98622197911999998</v>
+      </c>
+      <c r="P21">
+        <v>0.97652706707400005</v>
+      </c>
+      <c r="Q21">
+        <v>0.99821270380500005</v>
+      </c>
+      <c r="R21">
+        <v>0.96035397909300002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -886,8 +1421,32 @@
       <c r="J22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0.1</v>
+      </c>
+      <c r="L22">
+        <v>0.01</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>200</v>
+      </c>
+      <c r="O22">
+        <v>0.98591667663799998</v>
+      </c>
+      <c r="P22">
+        <v>0.97644467988899997</v>
+      </c>
+      <c r="Q22">
+        <v>0.99809791011799998</v>
+      </c>
+      <c r="R22">
+        <v>0.95964553340600001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -906,8 +1465,32 @@
       <c r="J23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>0.05</v>
+      </c>
+      <c r="L23">
+        <v>0.01</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>200</v>
+      </c>
+      <c r="O23">
+        <v>0.98592189954200005</v>
+      </c>
+      <c r="P23">
+        <v>0.97644550376100003</v>
+      </c>
+      <c r="Q23">
+        <v>0.99809798404500005</v>
+      </c>
+      <c r="R23">
+        <v>0.95964301264499996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -926,8 +1509,32 @@
       <c r="J24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>0.05</v>
+      </c>
+      <c r="L24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>0.98521205940099998</v>
+      </c>
+      <c r="P24">
+        <v>0.97633263331700004</v>
+      </c>
+      <c r="Q24">
+        <v>0.99796155711300005</v>
+      </c>
+      <c r="R24">
+        <v>0.95896418521899995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1</v>
       </c>
@@ -946,8 +1553,32 @@
       <c r="J25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25">
+        <v>0.98521633268599995</v>
+      </c>
+      <c r="P25">
+        <v>0.97633428106099995</v>
+      </c>
+      <c r="Q25">
+        <v>0.99796148338500001</v>
+      </c>
+      <c r="R25">
+        <v>0.95895811043199997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
@@ -966,8 +1597,32 @@
       <c r="J26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>0.05</v>
+      </c>
+      <c r="L26">
+        <v>0.01</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>0.98487779354100002</v>
+      </c>
+      <c r="P26">
+        <v>0.97627743390300004</v>
+      </c>
+      <c r="Q26">
+        <v>0.99779919015100005</v>
+      </c>
+      <c r="R26">
+        <v>0.95818763830599996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
@@ -986,8 +1641,32 @@
       <c r="J27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+      <c r="L27">
+        <v>0.01</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>0.98487779354100002</v>
+      </c>
+      <c r="P27">
+        <v>0.97627825777499999</v>
+      </c>
+      <c r="Q27">
+        <v>0.99779917834999998</v>
+      </c>
+      <c r="R27">
+        <v>0.95818691176600002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1</v>
       </c>
@@ -1006,8 +1685,32 @@
       <c r="J28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>0.05</v>
+      </c>
+      <c r="L28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>200</v>
+      </c>
+      <c r="O28">
+        <v>0.97545662425699997</v>
+      </c>
+      <c r="P28">
+        <v>0.96706984208799995</v>
+      </c>
+      <c r="Q28">
+        <v>0.99713765861699999</v>
+      </c>
+      <c r="R28">
+        <v>0.95769644569699997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1026,8 +1729,32 @@
       <c r="J29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>200</v>
+      </c>
+      <c r="O29">
+        <v>0.97545662425699997</v>
+      </c>
+      <c r="P29">
+        <v>0.96706984208799995</v>
+      </c>
+      <c r="Q29">
+        <v>0.99713765861699999</v>
+      </c>
+      <c r="R29">
+        <v>0.95769644569699997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1046,8 +1773,32 @@
       <c r="J30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>0.05</v>
+      </c>
+      <c r="L30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30">
+        <v>0.97475865435200004</v>
+      </c>
+      <c r="P30">
+        <v>0.96697427295399996</v>
+      </c>
+      <c r="Q30">
+        <v>0.99686452729099995</v>
+      </c>
+      <c r="R30">
+        <v>0.95665882620999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -1066,8 +1817,32 @@
       <c r="J31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>0.1</v>
+      </c>
+      <c r="L31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31">
+        <v>0.97475865435200004</v>
+      </c>
+      <c r="P31">
+        <v>0.96697427295399996</v>
+      </c>
+      <c r="Q31">
+        <v>0.996864411427</v>
+      </c>
+      <c r="R31">
+        <v>0.95665882620999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1086,8 +1861,32 @@
       <c r="J32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>0.05</v>
+      </c>
+      <c r="L32">
+        <v>0.01</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>200</v>
+      </c>
+      <c r="O32">
+        <v>0.97424586013600001</v>
+      </c>
+      <c r="P32">
+        <v>0.96612156558700002</v>
+      </c>
+      <c r="Q32">
+        <v>0.99651122903</v>
+      </c>
+      <c r="R32">
+        <v>0.95557076242100003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>3</v>
       </c>
@@ -1106,8 +1905,32 @@
       <c r="J33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+      <c r="L33">
+        <v>0.01</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>200</v>
+      </c>
+      <c r="O33">
+        <v>0.97424586013600001</v>
+      </c>
+      <c r="P33">
+        <v>0.96612156558700002</v>
+      </c>
+      <c r="Q33">
+        <v>0.99651122903</v>
+      </c>
+      <c r="R33">
+        <v>0.95557076242100003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3</v>
       </c>
@@ -1126,8 +1949,32 @@
       <c r="J34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>0.05</v>
+      </c>
+      <c r="L34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34">
+        <v>0.97404311649700004</v>
+      </c>
+      <c r="P34">
+        <v>0.965885114366</v>
+      </c>
+      <c r="Q34">
+        <v>0.99422597781800004</v>
+      </c>
+      <c r="R34">
+        <v>0.94403947291500001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>3</v>
       </c>
@@ -1146,8 +1993,32 @@
       <c r="J35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>0.1</v>
+      </c>
+      <c r="L35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35">
+        <v>0.97404311649700004</v>
+      </c>
+      <c r="P35">
+        <v>0.965885114366</v>
+      </c>
+      <c r="Q35">
+        <v>0.99422597781800004</v>
+      </c>
+      <c r="R35">
+        <v>0.94403947291500001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>3</v>
       </c>
@@ -1164,10 +2035,34 @@
         <v>0.58190142977799997</v>
       </c>
       <c r="J36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.05</v>
+      </c>
+      <c r="L36">
+        <v>0.01</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="O36">
+        <v>0.97381093467199997</v>
+      </c>
+      <c r="P36">
+        <v>0.96565937347800002</v>
+      </c>
+      <c r="Q36">
+        <v>0.99309587449100001</v>
+      </c>
+      <c r="R36">
+        <v>0.94284400859100004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>3</v>
       </c>
@@ -1186,8 +2081,32 @@
       <c r="J37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>0.1</v>
+      </c>
+      <c r="L37">
+        <v>0.01</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+      <c r="O37">
+        <v>0.97381093467199997</v>
+      </c>
+      <c r="P37">
+        <v>0.96565937347800002</v>
+      </c>
+      <c r="Q37">
+        <v>0.99309587449100001</v>
+      </c>
+      <c r="R37">
+        <v>0.94284400859100004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
@@ -1207,7 +2126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>3</v>
       </c>
@@ -1227,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>3</v>
       </c>
@@ -1247,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>3</v>
       </c>
@@ -1267,7 +2186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>3</v>
       </c>
@@ -1287,7 +2206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>3</v>
       </c>
@@ -1307,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>3</v>
       </c>
@@ -1327,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>3</v>
       </c>
@@ -1347,7 +2266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>3</v>
       </c>
@@ -1368,6 +2287,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="J2:R46">
+    <sortCondition descending="1" ref="R2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1376,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4228,4 +5150,5492 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.98953995755199997</v>
+      </c>
+      <c r="G3">
+        <v>0.97979371896599998</v>
+      </c>
+      <c r="H3">
+        <v>0.99942946264200005</v>
+      </c>
+      <c r="I3">
+        <v>0.961616164459</v>
+      </c>
+      <c r="J3">
+        <v>0.64388000000000001</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>120</v>
+      </c>
+      <c r="Q3">
+        <v>0.98143971587400003</v>
+      </c>
+      <c r="R3">
+        <v>0.96653597312899997</v>
+      </c>
+      <c r="S3">
+        <v>0.99782655191799996</v>
+      </c>
+      <c r="T3">
+        <v>0.97199837091600005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.98948298047100003</v>
+      </c>
+      <c r="G4">
+        <v>0.97979289509400003</v>
+      </c>
+      <c r="H4">
+        <v>0.99942218778500003</v>
+      </c>
+      <c r="I4">
+        <v>0.96159285249199999</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>120</v>
+      </c>
+      <c r="Q4">
+        <v>0.98077498326300006</v>
+      </c>
+      <c r="R4">
+        <v>0.96498297468799998</v>
+      </c>
+      <c r="S4">
+        <v>0.99781633635099998</v>
+      </c>
+      <c r="T4">
+        <v>0.97185384023400001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0.98942125530000002</v>
+      </c>
+      <c r="G5">
+        <v>0.97973275244900004</v>
+      </c>
+      <c r="H5">
+        <v>0.99941973169200005</v>
+      </c>
+      <c r="I5">
+        <v>0.96110339522599997</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>300</v>
+      </c>
+      <c r="Q5">
+        <v>0.98842890447300003</v>
+      </c>
+      <c r="R5">
+        <v>0.97704528246900002</v>
+      </c>
+      <c r="S5">
+        <v>0.99930736820400001</v>
+      </c>
+      <c r="T5">
+        <v>0.97123145820300005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.98931204922799998</v>
+      </c>
+      <c r="G6">
+        <v>0.97963800718600003</v>
+      </c>
+      <c r="H6">
+        <v>0.99941579820899995</v>
+      </c>
+      <c r="I6">
+        <v>0.96015447461799996</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>500</v>
+      </c>
+      <c r="Q6">
+        <v>0.98843365256299998</v>
+      </c>
+      <c r="R6">
+        <v>0.97698184433599999</v>
+      </c>
+      <c r="S6">
+        <v>0.99931030237700003</v>
+      </c>
+      <c r="T6">
+        <v>0.97112827439100002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>0.98945449193099999</v>
+      </c>
+      <c r="G7">
+        <v>0.97974511052699997</v>
+      </c>
+      <c r="H7">
+        <v>0.99941822206399999</v>
+      </c>
+      <c r="I7">
+        <v>0.95907654501700002</v>
+      </c>
+      <c r="M7">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>120</v>
+      </c>
+      <c r="Q7">
+        <v>0.98842890447300003</v>
+      </c>
+      <c r="R7">
+        <v>0.97690934361299997</v>
+      </c>
+      <c r="S7">
+        <v>0.99937769674400001</v>
+      </c>
+      <c r="T7">
+        <v>0.97108105682400003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <v>0.98943549956999999</v>
+      </c>
+      <c r="G8">
+        <v>0.97979948606900003</v>
+      </c>
+      <c r="H8">
+        <v>0.99942775101400005</v>
+      </c>
+      <c r="I8">
+        <v>0.95693337747399998</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>300</v>
+      </c>
+      <c r="Q8">
+        <v>0.98835768312200001</v>
+      </c>
+      <c r="R8">
+        <v>0.97688627520100002</v>
+      </c>
+      <c r="S8">
+        <v>0.99930432252500001</v>
+      </c>
+      <c r="T8">
+        <v>0.97096684316500004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>0.98956844609299999</v>
+      </c>
+      <c r="G9">
+        <v>0.979881873254</v>
+      </c>
+      <c r="H9">
+        <v>0.999431863501</v>
+      </c>
+      <c r="I9">
+        <v>0.95641788147399998</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>120</v>
+      </c>
+      <c r="Q9">
+        <v>0.98099339540700004</v>
+      </c>
+      <c r="R9">
+        <v>0.966259152186</v>
+      </c>
+      <c r="S9">
+        <v>0.99773665466200001</v>
+      </c>
+      <c r="T9">
+        <v>0.97094075967600002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>0.98948772856099998</v>
+      </c>
+      <c r="G10">
+        <v>0.97979866219699996</v>
+      </c>
+      <c r="H10">
+        <v>0.99942090161899999</v>
+      </c>
+      <c r="I10">
+        <v>0.95638508118300003</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>300</v>
+      </c>
+      <c r="Q10">
+        <v>0.98105986866799999</v>
+      </c>
+      <c r="R10">
+        <v>0.96636048842400002</v>
+      </c>
+      <c r="S10">
+        <v>0.99786345513999997</v>
+      </c>
+      <c r="T10">
+        <v>0.97091647519699997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>0.98941650720999996</v>
+      </c>
+      <c r="G11">
+        <v>0.97958857487499995</v>
+      </c>
+      <c r="H11">
+        <v>0.99941688156399999</v>
+      </c>
+      <c r="I11">
+        <v>0.95501392913799998</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>500</v>
+      </c>
+      <c r="Q11">
+        <v>0.988647316617</v>
+      </c>
+      <c r="R11">
+        <v>0.97725454591899996</v>
+      </c>
+      <c r="S11">
+        <v>0.99937287405899999</v>
+      </c>
+      <c r="T11">
+        <v>0.97086860690700005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.98943549956999999</v>
+      </c>
+      <c r="G12">
+        <v>0.97955232451300001</v>
+      </c>
+      <c r="H12">
+        <v>0.99942353595</v>
+      </c>
+      <c r="I12">
+        <v>0.95466850729700004</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>120</v>
+      </c>
+      <c r="Q12">
+        <v>0.98137799070300002</v>
+      </c>
+      <c r="R12">
+        <v>0.96607954812300001</v>
+      </c>
+      <c r="S12">
+        <v>0.99790475883300001</v>
+      </c>
+      <c r="T12">
+        <v>0.97086707271299999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <v>0.989463988111</v>
+      </c>
+      <c r="G13">
+        <v>0.979574569053</v>
+      </c>
+      <c r="H13">
+        <v>0.99942408021999996</v>
+      </c>
+      <c r="I13">
+        <v>0.95466737542000002</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>120</v>
+      </c>
+      <c r="Q13">
+        <v>0.98850012582400004</v>
+      </c>
+      <c r="R13">
+        <v>0.97690440038199999</v>
+      </c>
+      <c r="S13">
+        <v>0.99930690085499996</v>
+      </c>
+      <c r="T13">
+        <v>0.97070775033300005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <v>0.98926456832700005</v>
+      </c>
+      <c r="G14">
+        <v>0.97939331724599998</v>
+      </c>
+      <c r="H14">
+        <v>0.99939654092300001</v>
+      </c>
+      <c r="I14">
+        <v>0.95454357674400003</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>120</v>
+      </c>
+      <c r="Q14">
+        <v>0.98846688919400005</v>
+      </c>
+      <c r="R14">
+        <v>0.97722900589200001</v>
+      </c>
+      <c r="S14">
+        <v>0.99930374461799998</v>
+      </c>
+      <c r="T14">
+        <v>0.97068314116200005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>0.98934053776899999</v>
+      </c>
+      <c r="G15">
+        <v>0.97956715420700002</v>
+      </c>
+      <c r="H15">
+        <v>0.99941413230099996</v>
+      </c>
+      <c r="I15">
+        <v>0.95399193014499994</v>
+      </c>
+      <c r="M15">
+        <v>18</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>300</v>
+      </c>
+      <c r="Q15">
+        <v>0.98858084335600005</v>
+      </c>
+      <c r="R15">
+        <v>0.97712849352599995</v>
+      </c>
+      <c r="S15">
+        <v>0.99937039889199997</v>
+      </c>
+      <c r="T15">
+        <v>0.97068121415200004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>0.98937852248900005</v>
+      </c>
+      <c r="G16">
+        <v>0.97951277866399999</v>
+      </c>
+      <c r="H16">
+        <v>0.99942284365199996</v>
+      </c>
+      <c r="I16">
+        <v>0.95381826523900004</v>
+      </c>
+      <c r="M16">
+        <v>18</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>300</v>
+      </c>
+      <c r="Q16">
+        <v>0.98860933189599998</v>
+      </c>
+      <c r="R16">
+        <v>0.978145151391</v>
+      </c>
+      <c r="S16">
+        <v>0.99937180905400003</v>
+      </c>
+      <c r="T16">
+        <v>0.97064748512700005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.98944024766000005</v>
+      </c>
+      <c r="G17">
+        <v>0.97956633033499996</v>
+      </c>
+      <c r="H17">
+        <v>0.99942290443199999</v>
+      </c>
+      <c r="I17">
+        <v>0.95354823050600002</v>
+      </c>
+      <c r="M17">
+        <v>18</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>500</v>
+      </c>
+      <c r="Q17">
+        <v>0.98854285863500002</v>
+      </c>
+      <c r="R17">
+        <v>0.97751077006499998</v>
+      </c>
+      <c r="S17">
+        <v>0.99936935278000005</v>
+      </c>
+      <c r="T17">
+        <v>0.97063386521200001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0.6</v>
+      </c>
+      <c r="F18">
+        <v>0.98936902630900003</v>
+      </c>
+      <c r="G18">
+        <v>0.979335646216</v>
+      </c>
+      <c r="H18">
+        <v>0.99939928770599995</v>
+      </c>
+      <c r="I18">
+        <v>0.95284590373599998</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>300</v>
+      </c>
+      <c r="Q18">
+        <v>0.98077498326300006</v>
+      </c>
+      <c r="R18">
+        <v>0.96685481153499997</v>
+      </c>
+      <c r="S18">
+        <v>0.99777286414199995</v>
+      </c>
+      <c r="T18">
+        <v>0.97059404388500004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>0.98937377439899998</v>
+      </c>
+      <c r="G19">
+        <v>0.97906459237700005</v>
+      </c>
+      <c r="H19">
+        <v>0.99940186130200004</v>
+      </c>
+      <c r="I19">
+        <v>0.95244460234499995</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>300</v>
+      </c>
+      <c r="Q19">
+        <v>0.98145396014499997</v>
+      </c>
+      <c r="R19">
+        <v>0.96651208084499995</v>
+      </c>
+      <c r="S19">
+        <v>0.99783128235100005</v>
+      </c>
+      <c r="T19">
+        <v>0.97046411307799996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.98942600338999998</v>
+      </c>
+      <c r="G20">
+        <v>0.97954573353800001</v>
+      </c>
+      <c r="H20">
+        <v>0.99941513012299998</v>
+      </c>
+      <c r="I20">
+        <v>0.95138301729499997</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>120</v>
+      </c>
+      <c r="Q20">
+        <v>0.98850487391399999</v>
+      </c>
+      <c r="R20">
+        <v>0.97754290106700004</v>
+      </c>
+      <c r="S20">
+        <v>0.99937451742100003</v>
+      </c>
+      <c r="T20">
+        <v>0.97044199108399998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0.6</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.98946873620099995</v>
+      </c>
+      <c r="G21">
+        <v>0.97971545114000003</v>
+      </c>
+      <c r="H21">
+        <v>0.99942640605099997</v>
+      </c>
+      <c r="I21">
+        <v>0.951083793417</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>120</v>
+      </c>
+      <c r="Q21">
+        <v>0.98827696559099998</v>
+      </c>
+      <c r="R21">
+        <v>0.97689039456000004</v>
+      </c>
+      <c r="S21">
+        <v>0.999299193729</v>
+      </c>
+      <c r="T21">
+        <v>0.97039739115599999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>0.98940701102999995</v>
+      </c>
+      <c r="G22">
+        <v>0.97947735217499998</v>
+      </c>
+      <c r="H22">
+        <v>0.99940965991300001</v>
+      </c>
+      <c r="I22">
+        <v>0.95094925564999999</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>500</v>
+      </c>
+      <c r="Q22">
+        <v>0.988409912113</v>
+      </c>
+      <c r="R22">
+        <v>0.97699832177299994</v>
+      </c>
+      <c r="S22">
+        <v>0.99930897188800005</v>
+      </c>
+      <c r="T22">
+        <v>0.97039479839099996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.98947823238099997</v>
+      </c>
+      <c r="G23">
+        <v>0.979667666572</v>
+      </c>
+      <c r="H23">
+        <v>0.99941957288799999</v>
+      </c>
+      <c r="I23">
+        <v>0.95044592648600001</v>
+      </c>
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>500</v>
+      </c>
+      <c r="Q23">
+        <v>0.988409912113</v>
+      </c>
+      <c r="R23">
+        <v>0.97680306414399998</v>
+      </c>
+      <c r="S23">
+        <v>0.99930246435799996</v>
+      </c>
+      <c r="T23">
+        <v>0.97027023567299997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0.8</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0.8</v>
+      </c>
+      <c r="F24">
+        <v>0.98940226294</v>
+      </c>
+      <c r="G24">
+        <v>0.97956221097499996</v>
+      </c>
+      <c r="H24">
+        <v>0.999424835688</v>
+      </c>
+      <c r="I24">
+        <v>0.94905747869599999</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>500</v>
+      </c>
+      <c r="Q24">
+        <v>0.98156791430599999</v>
+      </c>
+      <c r="R24">
+        <v>0.96630199352299995</v>
+      </c>
+      <c r="S24">
+        <v>0.99795134142200004</v>
+      </c>
+      <c r="T24">
+        <v>0.97024995147199999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0.8</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0.8</v>
+      </c>
+      <c r="F25">
+        <v>0.98936427821899997</v>
+      </c>
+      <c r="G25">
+        <v>0.97924502031299998</v>
+      </c>
+      <c r="H25">
+        <v>0.99942295200099995</v>
+      </c>
+      <c r="I25">
+        <v>0.948446277138</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>300</v>
+      </c>
+      <c r="Q25">
+        <v>0.98859983571599996</v>
+      </c>
+      <c r="R25">
+        <v>0.97755361140100006</v>
+      </c>
+      <c r="S25">
+        <v>0.99937445010299997</v>
+      </c>
+      <c r="T25">
+        <v>0.97024811451000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0.8</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>0.8</v>
+      </c>
+      <c r="F26">
+        <v>0.989269316417</v>
+      </c>
+      <c r="G26">
+        <v>0.97955232451300001</v>
+      </c>
+      <c r="H26">
+        <v>0.99941628728999998</v>
+      </c>
+      <c r="I26">
+        <v>0.94831439453400002</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <v>500</v>
+      </c>
+      <c r="Q26">
+        <v>0.98866156088699997</v>
+      </c>
+      <c r="R26">
+        <v>0.977275966587</v>
+      </c>
+      <c r="S26">
+        <v>0.99937531987200001</v>
+      </c>
+      <c r="T26">
+        <v>0.97013158834500002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <v>0.98935953012900002</v>
+      </c>
+      <c r="G27">
+        <v>0.97929857198299997</v>
+      </c>
+      <c r="H27">
+        <v>0.99940406417500005</v>
+      </c>
+      <c r="I27">
+        <v>0.94797142096800002</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>500</v>
+      </c>
+      <c r="Q27">
+        <v>0.98111684574900004</v>
+      </c>
+      <c r="R27">
+        <v>0.96619653792600002</v>
+      </c>
+      <c r="S27">
+        <v>0.997831832483</v>
+      </c>
+      <c r="T27">
+        <v>0.97011725992300002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0.8</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.8</v>
+      </c>
+      <c r="F28">
+        <v>0.98937852248900005</v>
+      </c>
+      <c r="G28">
+        <v>0.97950289220200004</v>
+      </c>
+      <c r="H28">
+        <v>0.999432929272</v>
+      </c>
+      <c r="I28">
+        <v>0.94766594474900001</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>500</v>
+      </c>
+      <c r="Q28">
+        <v>0.98152518149599999</v>
+      </c>
+      <c r="R28">
+        <v>0.96622949280000003</v>
+      </c>
+      <c r="S28">
+        <v>0.99791342103500003</v>
+      </c>
+      <c r="T28">
+        <v>0.96997013218499994</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.98937852248900005</v>
+      </c>
+      <c r="G29">
+        <v>0.97957539292499995</v>
+      </c>
+      <c r="H29">
+        <v>0.99941962591300004</v>
+      </c>
+      <c r="I29">
+        <v>0.94751606137199995</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>500</v>
+      </c>
+      <c r="Q29">
+        <v>0.98146820441500005</v>
+      </c>
+      <c r="R29">
+        <v>0.96642886978800002</v>
+      </c>
+      <c r="S29">
+        <v>0.99790410346199998</v>
+      </c>
+      <c r="T29">
+        <v>0.96993595237499997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.8</v>
+      </c>
+      <c r="F30">
+        <v>0.98940701102999995</v>
+      </c>
+      <c r="G30">
+        <v>0.97939990822099998</v>
+      </c>
+      <c r="H30">
+        <v>0.99940603853700005</v>
+      </c>
+      <c r="I30">
+        <v>0.94717721333799998</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>300</v>
+      </c>
+      <c r="Q30">
+        <v>0.98099339540700004</v>
+      </c>
+      <c r="R30">
+        <v>0.96573599356100004</v>
+      </c>
+      <c r="S30">
+        <v>0.99771577849699999</v>
+      </c>
+      <c r="T30">
+        <v>0.96984580918399999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0.8</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.989383270579</v>
+      </c>
+      <c r="G31">
+        <v>0.97959022261799999</v>
+      </c>
+      <c r="H31">
+        <v>0.99941883157800004</v>
+      </c>
+      <c r="I31">
+        <v>0.94695898118900002</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>500</v>
+      </c>
+      <c r="Q31">
+        <v>0.98115008237900003</v>
+      </c>
+      <c r="R31">
+        <v>0.96615040110200001</v>
+      </c>
+      <c r="S31">
+        <v>0.99784091248200002</v>
+      </c>
+      <c r="T31">
+        <v>0.96981017624499999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0.8</v>
+      </c>
+      <c r="F32">
+        <v>0.98929780495800002</v>
+      </c>
+      <c r="G32">
+        <v>0.97944274955699995</v>
+      </c>
+      <c r="H32">
+        <v>0.99941002414299995</v>
+      </c>
+      <c r="I32">
+        <v>0.94684108948099999</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>300</v>
+      </c>
+      <c r="Q32">
+        <v>0.98136374643299995</v>
+      </c>
+      <c r="R32">
+        <v>0.96609767330399998</v>
+      </c>
+      <c r="S32">
+        <v>0.99783939960699997</v>
+      </c>
+      <c r="T32">
+        <v>0.96972193711499999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.98951146901200004</v>
+      </c>
+      <c r="G33">
+        <v>0.97957127356600004</v>
+      </c>
+      <c r="H33">
+        <v>0.99942740748000003</v>
+      </c>
+      <c r="I33">
+        <v>0.94684032474500002</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>300</v>
+      </c>
+      <c r="Q33">
+        <v>0.98099339540700004</v>
+      </c>
+      <c r="R33">
+        <v>0.96595102411400002</v>
+      </c>
+      <c r="S33">
+        <v>0.99788863302999997</v>
+      </c>
+      <c r="T33">
+        <v>0.96970450496299998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.98935953012900002</v>
+      </c>
+      <c r="G34">
+        <v>0.97938178304000001</v>
+      </c>
+      <c r="H34">
+        <v>0.99941122324300002</v>
+      </c>
+      <c r="I34">
+        <v>0.94596934168900004</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>500</v>
+      </c>
+      <c r="Q34">
+        <v>0.98106461675800005</v>
+      </c>
+      <c r="R34">
+        <v>0.96585133562000003</v>
+      </c>
+      <c r="S34">
+        <v>0.99788198243299997</v>
+      </c>
+      <c r="T34">
+        <v>0.96968657089800003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.98929780495800002</v>
+      </c>
+      <c r="G35">
+        <v>0.97926396936500004</v>
+      </c>
+      <c r="H35">
+        <v>0.99939991101799996</v>
+      </c>
+      <c r="I35">
+        <v>0.94506814832300001</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>500</v>
+      </c>
+      <c r="Q35">
+        <v>0.98118806709999995</v>
+      </c>
+      <c r="R35">
+        <v>0.96613721915200002</v>
+      </c>
+      <c r="S35">
+        <v>0.997880120343</v>
+      </c>
+      <c r="T35">
+        <v>0.96957231187799997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0.6</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>0.6</v>
+      </c>
+      <c r="F36">
+        <v>0.99149617066499995</v>
+      </c>
+      <c r="G36">
+        <v>0.98014963160599999</v>
+      </c>
+      <c r="H36">
+        <v>0.99964442205600001</v>
+      </c>
+      <c r="I36">
+        <v>0.94502878622700004</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>300</v>
+      </c>
+      <c r="Q36">
+        <v>0.98840041593299999</v>
+      </c>
+      <c r="R36">
+        <v>0.97700820823500001</v>
+      </c>
+      <c r="S36">
+        <v>0.99930313127100001</v>
+      </c>
+      <c r="T36">
+        <v>0.96950027022999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0.98932154540799999</v>
+      </c>
+      <c r="G37">
+        <v>0.97898055744800005</v>
+      </c>
+      <c r="H37">
+        <v>0.99940182847699999</v>
+      </c>
+      <c r="I37">
+        <v>0.94465421555899998</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="P37">
+        <v>500</v>
+      </c>
+      <c r="Q37">
+        <v>0.981245044181</v>
+      </c>
+      <c r="R37">
+        <v>0.96601446224599996</v>
+      </c>
+      <c r="S37">
+        <v>0.99781971641</v>
+      </c>
+      <c r="T37">
+        <v>0.96938077950699997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.98924557596700002</v>
+      </c>
+      <c r="G38">
+        <v>0.97933399847299996</v>
+      </c>
+      <c r="H38">
+        <v>0.99940136013699998</v>
+      </c>
+      <c r="I38">
+        <v>0.94461478107600005</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>300</v>
+      </c>
+      <c r="Q38">
+        <v>0.98093167023600003</v>
+      </c>
+      <c r="R38">
+        <v>0.96611662235600004</v>
+      </c>
+      <c r="S38">
+        <v>0.99788216481799996</v>
+      </c>
+      <c r="T38">
+        <v>0.96935049337000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0.6</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>0.6</v>
+      </c>
+      <c r="F39">
+        <v>0.991895010232</v>
+      </c>
+      <c r="G39">
+        <v>0.98017599550500001</v>
+      </c>
+      <c r="H39">
+        <v>0.99968428077799998</v>
+      </c>
+      <c r="I39">
+        <v>0.94414632312500002</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>300</v>
+      </c>
+      <c r="Q39">
+        <v>0.98167712037800003</v>
+      </c>
+      <c r="R39">
+        <v>0.96625503282699998</v>
+      </c>
+      <c r="S39">
+        <v>0.99787557418899997</v>
+      </c>
+      <c r="T39">
+        <v>0.96933302185900005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0.6</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>0.6</v>
+      </c>
+      <c r="F40">
+        <v>0.99134897987299997</v>
+      </c>
+      <c r="G40">
+        <v>0.98020235940400002</v>
+      </c>
+      <c r="H40">
+        <v>0.99963561759700004</v>
+      </c>
+      <c r="I40">
+        <v>0.94394202216300005</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>120</v>
+      </c>
+      <c r="Q40">
+        <v>0.98067052528099996</v>
+      </c>
+      <c r="R40">
+        <v>0.966889414153</v>
+      </c>
+      <c r="S40">
+        <v>0.99775441670200005</v>
+      </c>
+      <c r="T40">
+        <v>0.969319029281</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0.6</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0.6</v>
+      </c>
+      <c r="F41">
+        <v>0.99172882707900001</v>
+      </c>
+      <c r="G41">
+        <v>0.98017270001800005</v>
+      </c>
+      <c r="H41">
+        <v>0.99967334635500005</v>
+      </c>
+      <c r="I41">
+        <v>0.94389130726699999</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>300</v>
+      </c>
+      <c r="Q41">
+        <v>0.98123554800099999</v>
+      </c>
+      <c r="R41">
+        <v>0.96561241278300003</v>
+      </c>
+      <c r="S41">
+        <v>0.99787460274399997</v>
+      </c>
+      <c r="T41">
+        <v>0.96930254645799996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0.6</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0.6</v>
+      </c>
+      <c r="F42">
+        <v>0.99260247565399995</v>
+      </c>
+      <c r="G42">
+        <v>0.98006230118899995</v>
+      </c>
+      <c r="H42">
+        <v>0.99973758002099999</v>
+      </c>
+      <c r="I42">
+        <v>0.94306777361799998</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>300</v>
+      </c>
+      <c r="Q42">
+        <v>0.98123554800099999</v>
+      </c>
+      <c r="R42">
+        <v>0.96624102700600001</v>
+      </c>
+      <c r="S42">
+        <v>0.99788703858899996</v>
+      </c>
+      <c r="T42">
+        <v>0.96927520615100005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0.98933578967900004</v>
+      </c>
+      <c r="G43">
+        <v>0.97945840312200005</v>
+      </c>
+      <c r="H43">
+        <v>0.999409285584</v>
+      </c>
+      <c r="I43">
+        <v>0.94271720360199995</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>500</v>
+      </c>
+      <c r="Q43">
+        <v>0.98128777699199998</v>
+      </c>
+      <c r="R43">
+        <v>0.96630281739500001</v>
+      </c>
+      <c r="S43">
+        <v>0.99787097018600002</v>
+      </c>
+      <c r="T43">
+        <v>0.96921637215099998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0.6</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0.8</v>
+      </c>
+      <c r="F44">
+        <v>0.99192824686299996</v>
+      </c>
+      <c r="G44">
+        <v>0.98017929099199996</v>
+      </c>
+      <c r="H44">
+        <v>0.99968212646599997</v>
+      </c>
+      <c r="I44">
+        <v>0.94218480870999999</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>500</v>
+      </c>
+      <c r="Q44">
+        <v>0.98132576171200003</v>
+      </c>
+      <c r="R44">
+        <v>0.96605647971099995</v>
+      </c>
+      <c r="S44">
+        <v>0.99790320154500001</v>
+      </c>
+      <c r="T44">
+        <v>0.96888774440400005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0.6</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>0.8</v>
+      </c>
+      <c r="F45">
+        <v>0.99174307134999995</v>
+      </c>
+      <c r="G45">
+        <v>0.98013562578400004</v>
+      </c>
+      <c r="H45">
+        <v>0.99966721946699999</v>
+      </c>
+      <c r="I45">
+        <v>0.94196406855500003</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>120</v>
+      </c>
+      <c r="Q45">
+        <v>0.98098389922700002</v>
+      </c>
+      <c r="R45">
+        <v>0.96629457867599999</v>
+      </c>
+      <c r="S45">
+        <v>0.99776062601299997</v>
+      </c>
+      <c r="T45">
+        <v>0.96866819949100003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0.6</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0.6</v>
+      </c>
+      <c r="F46">
+        <v>0.99400791031799995</v>
+      </c>
+      <c r="G46">
+        <v>0.98001039726299999</v>
+      </c>
+      <c r="H46">
+        <v>0.99981929617499998</v>
+      </c>
+      <c r="I46">
+        <v>0.94164361783499995</v>
+      </c>
+      <c r="M46">
+        <v>18</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>120</v>
+      </c>
+      <c r="Q46">
+        <v>0.98859033953599995</v>
+      </c>
+      <c r="R46">
+        <v>0.97714249934700004</v>
+      </c>
+      <c r="S46">
+        <v>0.99936193426999997</v>
+      </c>
+      <c r="T46">
+        <v>0.96865189354799996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0.6</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0.6</v>
+      </c>
+      <c r="F47">
+        <v>0.99237456732999996</v>
+      </c>
+      <c r="G47">
+        <v>0.98005488634299998</v>
+      </c>
+      <c r="H47">
+        <v>0.99971897301099999</v>
+      </c>
+      <c r="I47">
+        <v>0.94130290341900003</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>300</v>
+      </c>
+      <c r="Q47">
+        <v>0.98128777699199998</v>
+      </c>
+      <c r="R47">
+        <v>0.96582414784899995</v>
+      </c>
+      <c r="S47">
+        <v>0.99792334861900001</v>
+      </c>
+      <c r="T47">
+        <v>0.96863541280599996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0.6</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0.6</v>
+      </c>
+      <c r="F48">
+        <v>0.99353310131000006</v>
+      </c>
+      <c r="G48">
+        <v>0.98011255737199998</v>
+      </c>
+      <c r="H48">
+        <v>0.99979703545999998</v>
+      </c>
+      <c r="I48">
+        <v>0.94060649031200005</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>300</v>
+      </c>
+      <c r="Q48">
+        <v>0.98125928845099997</v>
+      </c>
+      <c r="R48">
+        <v>0.96600292804099996</v>
+      </c>
+      <c r="S48">
+        <v>0.99788405057999996</v>
+      </c>
+      <c r="T48">
+        <v>0.96848417152900002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0.6</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>0.99244578868199995</v>
+      </c>
+      <c r="G49">
+        <v>0.98013562578400004</v>
+      </c>
+      <c r="H49">
+        <v>0.99971969227199997</v>
+      </c>
+      <c r="I49">
+        <v>0.94046905813500004</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>500</v>
+      </c>
+      <c r="Q49">
+        <v>0.98132101362199997</v>
+      </c>
+      <c r="R49">
+        <v>0.96599798480900001</v>
+      </c>
+      <c r="S49">
+        <v>0.99787458754900005</v>
+      </c>
+      <c r="T49">
+        <v>0.96841962599200004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0.6</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>0.8</v>
+      </c>
+      <c r="F50">
+        <v>0.99220838417699997</v>
+      </c>
+      <c r="G50">
+        <v>0.98019576842900003</v>
+      </c>
+      <c r="H50">
+        <v>0.99970277051199996</v>
+      </c>
+      <c r="I50">
+        <v>0.940146315688</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>120</v>
+      </c>
+      <c r="Q50">
+        <v>0.98058980775000004</v>
+      </c>
+      <c r="R50">
+        <v>0.96484374034499998</v>
+      </c>
+      <c r="S50">
+        <v>0.99783537355600005</v>
+      </c>
+      <c r="T50">
+        <v>0.96816857331999995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0.6</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>0.99275916262700004</v>
+      </c>
+      <c r="G51">
+        <v>0.98013727352799995</v>
+      </c>
+      <c r="H51">
+        <v>0.99975045665700002</v>
+      </c>
+      <c r="I51">
+        <v>0.93872547059800004</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>500</v>
+      </c>
+      <c r="Q51">
+        <v>0.98091742596499998</v>
+      </c>
+      <c r="R51">
+        <v>0.96518564716400002</v>
+      </c>
+      <c r="S51">
+        <v>0.99781801014799998</v>
+      </c>
+      <c r="T51">
+        <v>0.96812083792600001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0.6</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.8</v>
+      </c>
+      <c r="F52">
+        <v>0.99459192539800001</v>
+      </c>
+      <c r="G52">
+        <v>0.97992141910300001</v>
+      </c>
+      <c r="H52">
+        <v>0.99984616612499999</v>
+      </c>
+      <c r="I52">
+        <v>0.93834897922399996</v>
+      </c>
+      <c r="M52">
+        <v>18</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>300</v>
+      </c>
+      <c r="Q52">
+        <v>0.98972513306499998</v>
+      </c>
+      <c r="R52">
+        <v>0.97753136686099995</v>
+      </c>
+      <c r="S52">
+        <v>0.99951584105400004</v>
+      </c>
+      <c r="T52">
+        <v>0.96802893909300003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0.6</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0.8</v>
+      </c>
+      <c r="F53">
+        <v>0.99320073500399997</v>
+      </c>
+      <c r="G53">
+        <v>0.98001369275000005</v>
+      </c>
+      <c r="H53">
+        <v>0.99977222170900004</v>
+      </c>
+      <c r="I53">
+        <v>0.93722374923100005</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>300</v>
+      </c>
+      <c r="Q53">
+        <v>0.98939751485000005</v>
+      </c>
+      <c r="R53">
+        <v>0.97715403355300001</v>
+      </c>
+      <c r="S53">
+        <v>0.99942523459099997</v>
+      </c>
+      <c r="T53">
+        <v>0.96794294921099999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0.6</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>0.99400791031799995</v>
+      </c>
+      <c r="G54">
+        <v>0.98006230118899995</v>
+      </c>
+      <c r="H54">
+        <v>0.99982136964299995</v>
+      </c>
+      <c r="I54">
+        <v>0.93721208000800005</v>
+      </c>
+      <c r="M54">
+        <v>18</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>300</v>
+      </c>
+      <c r="Q54">
+        <v>0.98978211014600004</v>
+      </c>
+      <c r="R54">
+        <v>0.97749346875599996</v>
+      </c>
+      <c r="S54">
+        <v>0.99951419485100002</v>
+      </c>
+      <c r="T54">
+        <v>0.96793231472200003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0.6</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0.99217514754699998</v>
+      </c>
+      <c r="G55">
+        <v>0.98002605082799998</v>
+      </c>
+      <c r="H55">
+        <v>0.99970827647799998</v>
+      </c>
+      <c r="I55">
+        <v>0.93582934714599997</v>
+      </c>
+      <c r="M55">
+        <v>18</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>500</v>
+      </c>
+      <c r="Q55">
+        <v>0.98971563688499997</v>
+      </c>
+      <c r="R55">
+        <v>0.97754866816999997</v>
+      </c>
+      <c r="S55">
+        <v>0.99951342085200001</v>
+      </c>
+      <c r="T55">
+        <v>0.96787937351700004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0.6</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0.99195198731300005</v>
+      </c>
+      <c r="G56">
+        <v>0.98011667673199998</v>
+      </c>
+      <c r="H56">
+        <v>0.99969452150600002</v>
+      </c>
+      <c r="I56">
+        <v>0.93415937541799998</v>
+      </c>
+      <c r="M56">
+        <v>18</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56">
+        <v>500</v>
+      </c>
+      <c r="Q56">
+        <v>0.98971563688499997</v>
+      </c>
+      <c r="R56">
+        <v>0.97749841198700005</v>
+      </c>
+      <c r="S56">
+        <v>0.99951570560699998</v>
+      </c>
+      <c r="T56">
+        <v>0.96775631728300004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0.6</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0.99494803215399996</v>
+      </c>
+      <c r="G57">
+        <v>0.97987363453499998</v>
+      </c>
+      <c r="H57">
+        <v>0.99985908433299997</v>
+      </c>
+      <c r="I57">
+        <v>0.934006065173</v>
+      </c>
+      <c r="M57">
+        <v>18</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>500</v>
+      </c>
+      <c r="Q57">
+        <v>0.98974887351600005</v>
+      </c>
+      <c r="R57">
+        <v>0.97753219073300002</v>
+      </c>
+      <c r="S57">
+        <v>0.99951716937900004</v>
+      </c>
+      <c r="T57">
+        <v>0.967668380853</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0.6</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0.99243629250099996</v>
+      </c>
+      <c r="G58">
+        <v>0.980036761162</v>
+      </c>
+      <c r="H58">
+        <v>0.99972767286300002</v>
+      </c>
+      <c r="I58">
+        <v>0.933247911027</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>120</v>
+      </c>
+      <c r="Q58">
+        <v>0.98074174663199998</v>
+      </c>
+      <c r="R58">
+        <v>0.96571374902100005</v>
+      </c>
+      <c r="S58">
+        <v>0.99784773279500005</v>
+      </c>
+      <c r="T58">
+        <v>0.96727404514899995</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0.6</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0.99273542217599997</v>
+      </c>
+      <c r="G59">
+        <v>0.98001698823799999</v>
+      </c>
+      <c r="H59">
+        <v>0.99974399723700003</v>
+      </c>
+      <c r="I59">
+        <v>0.93286875220499998</v>
+      </c>
+      <c r="M59">
+        <v>15</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>500</v>
+      </c>
+      <c r="Q59">
+        <v>0.98938801866899995</v>
+      </c>
+      <c r="R59">
+        <v>0.97729821112699999</v>
+      </c>
+      <c r="S59">
+        <v>0.99943196143500002</v>
+      </c>
+      <c r="T59">
+        <v>0.967090677038</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0.6</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0.99425006291200002</v>
+      </c>
+      <c r="G60">
+        <v>0.97996014107999996</v>
+      </c>
+      <c r="H60">
+        <v>0.99983128938099997</v>
+      </c>
+      <c r="I60">
+        <v>0.93176415136599999</v>
+      </c>
+      <c r="M60">
+        <v>18</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60">
+        <v>120</v>
+      </c>
+      <c r="Q60">
+        <v>0.98967290407399999</v>
+      </c>
+      <c r="R60">
+        <v>0.97754537268300001</v>
+      </c>
+      <c r="S60">
+        <v>0.99950948678200002</v>
+      </c>
+      <c r="T60">
+        <v>0.96702359438800001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0.6</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0.99356158984999998</v>
+      </c>
+      <c r="G61">
+        <v>0.97995025461800001</v>
+      </c>
+      <c r="H61">
+        <v>0.99979332782800001</v>
+      </c>
+      <c r="I61">
+        <v>0.93109621316799995</v>
+      </c>
+      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+      <c r="P61">
+        <v>300</v>
+      </c>
+      <c r="Q61">
+        <v>0.98942600338999998</v>
+      </c>
+      <c r="R61">
+        <v>0.97721500006999995</v>
+      </c>
+      <c r="S61">
+        <v>0.99942798200600003</v>
+      </c>
+      <c r="T61">
+        <v>0.96700729466099999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0.8</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>0.6</v>
+      </c>
+      <c r="F62">
+        <v>0.99146768212500003</v>
+      </c>
+      <c r="G62">
+        <v>0.97993624879600005</v>
+      </c>
+      <c r="H62">
+        <v>0.99964951414900005</v>
+      </c>
+      <c r="I62">
+        <v>0.93052609839599998</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62">
+        <v>120</v>
+      </c>
+      <c r="Q62">
+        <v>0.98125454036100002</v>
+      </c>
+      <c r="R62">
+        <v>0.96604165001800002</v>
+      </c>
+      <c r="S62">
+        <v>0.998051416011</v>
+      </c>
+      <c r="T62">
+        <v>0.96696156229999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0.6</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0.99305354421199998</v>
+      </c>
+      <c r="G63">
+        <v>0.979968379798</v>
+      </c>
+      <c r="H63">
+        <v>0.99976907665299997</v>
+      </c>
+      <c r="I63">
+        <v>0.93022136147099999</v>
+      </c>
+      <c r="M63">
+        <v>18</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>300</v>
+      </c>
+      <c r="Q63">
+        <v>0.98978211014600004</v>
+      </c>
+      <c r="R63">
+        <v>0.97765659538299998</v>
+      </c>
+      <c r="S63">
+        <v>0.99951638897700001</v>
+      </c>
+      <c r="T63">
+        <v>0.96672607030500002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0.8</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>0.6</v>
+      </c>
+      <c r="F64">
+        <v>0.99183328506099999</v>
+      </c>
+      <c r="G64">
+        <v>0.98001451662200001</v>
+      </c>
+      <c r="H64">
+        <v>0.999685381042</v>
+      </c>
+      <c r="I64">
+        <v>0.929469353512</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>500</v>
+      </c>
+      <c r="Q64">
+        <v>0.98943075148000004</v>
+      </c>
+      <c r="R64">
+        <v>0.97717792583700003</v>
+      </c>
+      <c r="S64">
+        <v>0.99943069885000002</v>
+      </c>
+      <c r="T64">
+        <v>0.96667652456399999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0.8</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>0.6</v>
+      </c>
+      <c r="F65">
+        <v>0.99198997203399997</v>
+      </c>
+      <c r="G65">
+        <v>0.98006230118899995</v>
+      </c>
+      <c r="H65">
+        <v>0.99969534803399995</v>
+      </c>
+      <c r="I65">
+        <v>0.929466088159</v>
+      </c>
+      <c r="M65">
+        <v>15</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>10</v>
+      </c>
+      <c r="P65">
+        <v>120</v>
+      </c>
+      <c r="Q65">
+        <v>0.98933578967900004</v>
+      </c>
+      <c r="R65">
+        <v>0.97717792583700003</v>
+      </c>
+      <c r="S65">
+        <v>0.99942083439100005</v>
+      </c>
+      <c r="T65">
+        <v>0.96657414476100001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>0.6</v>
+      </c>
+      <c r="F66">
+        <v>0.99145818594500001</v>
+      </c>
+      <c r="G66">
+        <v>0.97986457194499998</v>
+      </c>
+      <c r="H66">
+        <v>0.99964986751200002</v>
+      </c>
+      <c r="I66">
+        <v>0.92920591759799998</v>
+      </c>
+      <c r="M66">
+        <v>15</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66">
+        <v>10</v>
+      </c>
+      <c r="P66">
+        <v>500</v>
+      </c>
+      <c r="Q66">
+        <v>0.98942125530000002</v>
+      </c>
+      <c r="R66">
+        <v>0.97731056920500003</v>
+      </c>
+      <c r="S66">
+        <v>0.99942963988699995</v>
+      </c>
+      <c r="T66">
+        <v>0.96656289570200005</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>0.6</v>
+      </c>
+      <c r="F67">
+        <v>0.99151991111600002</v>
+      </c>
+      <c r="G67">
+        <v>0.97981925899300004</v>
+      </c>
+      <c r="H67">
+        <v>0.99965772631700001</v>
+      </c>
+      <c r="I67">
+        <v>0.92873243594400001</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>10</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67">
+        <v>120</v>
+      </c>
+      <c r="Q67">
+        <v>0.980252693354</v>
+      </c>
+      <c r="R67">
+        <v>0.96369361523999997</v>
+      </c>
+      <c r="S67">
+        <v>0.99777884836800002</v>
+      </c>
+      <c r="T67">
+        <v>0.96651555683000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0.8</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0.6</v>
+      </c>
+      <c r="F68">
+        <v>0.99377050581399995</v>
+      </c>
+      <c r="G68">
+        <v>0.97981184414699996</v>
+      </c>
+      <c r="H68">
+        <v>0.99981744964099994</v>
+      </c>
+      <c r="I68">
+        <v>0.92688416192400003</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68">
+        <v>120</v>
+      </c>
+      <c r="Q68">
+        <v>0.97953098366199998</v>
+      </c>
+      <c r="R68">
+        <v>0.96248169974599995</v>
+      </c>
+      <c r="S68">
+        <v>0.99770283147700001</v>
+      </c>
+      <c r="T68">
+        <v>0.966478314389</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0.8</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0.6</v>
+      </c>
+      <c r="F69">
+        <v>0.99263571228500003</v>
+      </c>
+      <c r="G69">
+        <v>0.97993954428399999</v>
+      </c>
+      <c r="H69">
+        <v>0.99975068832500003</v>
+      </c>
+      <c r="I69">
+        <v>0.92614012059499995</v>
+      </c>
+      <c r="M69">
+        <v>18</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>120</v>
+      </c>
+      <c r="Q69">
+        <v>0.98970139261500001</v>
+      </c>
+      <c r="R69">
+        <v>0.97749511649999998</v>
+      </c>
+      <c r="S69">
+        <v>0.99951385844100005</v>
+      </c>
+      <c r="T69">
+        <v>0.96636885028300001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0.8</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>0.6</v>
+      </c>
+      <c r="F70">
+        <v>0.99154839965599995</v>
+      </c>
+      <c r="G70">
+        <v>0.97996755592600004</v>
+      </c>
+      <c r="H70">
+        <v>0.99965549102499995</v>
+      </c>
+      <c r="I70">
+        <v>0.92610485299800005</v>
+      </c>
+      <c r="M70">
+        <v>15</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70">
+        <v>300</v>
+      </c>
+      <c r="Q70">
+        <v>0.98949247665100004</v>
+      </c>
+      <c r="R70">
+        <v>0.97726855174000005</v>
+      </c>
+      <c r="S70">
+        <v>0.99942824501000005</v>
+      </c>
+      <c r="T70">
+        <v>0.96634853691599998</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>0.6</v>
+      </c>
+      <c r="F71">
+        <v>0.99276391071699999</v>
+      </c>
+      <c r="G71">
+        <v>0.97973192857699998</v>
+      </c>
+      <c r="H71">
+        <v>0.99975804474800001</v>
+      </c>
+      <c r="I71">
+        <v>0.92576039626899997</v>
+      </c>
+      <c r="M71">
+        <v>18</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71">
+        <v>120</v>
+      </c>
+      <c r="Q71">
+        <v>0.98968714834500005</v>
+      </c>
+      <c r="R71">
+        <v>0.97755773075999997</v>
+      </c>
+      <c r="S71">
+        <v>0.99951093869600005</v>
+      </c>
+      <c r="T71">
+        <v>0.96630206799700002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0.8</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0.6</v>
+      </c>
+      <c r="F72">
+        <v>0.99423581864199995</v>
+      </c>
+      <c r="G72">
+        <v>0.97965695623799998</v>
+      </c>
+      <c r="H72">
+        <v>0.99983724055599998</v>
+      </c>
+      <c r="I72">
+        <v>0.925394293275</v>
+      </c>
+      <c r="M72">
+        <v>15</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72">
+        <v>5</v>
+      </c>
+      <c r="P72">
+        <v>120</v>
+      </c>
+      <c r="Q72">
+        <v>0.98931204922799998</v>
+      </c>
+      <c r="R72">
+        <v>0.97711860706300002</v>
+      </c>
+      <c r="S72">
+        <v>0.99941778091199995</v>
+      </c>
+      <c r="T72">
+        <v>0.96489737634799999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0.8</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>0.8</v>
+      </c>
+      <c r="F73">
+        <v>0.99247902531200005</v>
+      </c>
+      <c r="G73">
+        <v>0.98000874951899997</v>
+      </c>
+      <c r="H73">
+        <v>0.99973139050500004</v>
+      </c>
+      <c r="I73">
+        <v>0.92533140225900001</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73">
+        <v>120</v>
+      </c>
+      <c r="Q73">
+        <v>0.98088418933499999</v>
+      </c>
+      <c r="R73">
+        <v>0.96584804013199999</v>
+      </c>
+      <c r="S73">
+        <v>0.99781693152700002</v>
+      </c>
+      <c r="T73">
+        <v>0.96472401037900002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>0.6</v>
+      </c>
+      <c r="F74">
+        <v>0.99203270484399997</v>
+      </c>
+      <c r="G74">
+        <v>0.97971874662699998</v>
+      </c>
+      <c r="H74">
+        <v>0.99970135200900001</v>
+      </c>
+      <c r="I74">
+        <v>0.92532852033000002</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
+      <c r="P74">
+        <v>120</v>
+      </c>
+      <c r="Q74">
+        <v>0.99022368252399995</v>
+      </c>
+      <c r="R74">
+        <v>0.97743003062300005</v>
+      </c>
+      <c r="S74">
+        <v>0.99951170507599996</v>
+      </c>
+      <c r="T74">
+        <v>0.96256018271800003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0.6</v>
+      </c>
+      <c r="F75">
+        <v>0.99243154441100001</v>
+      </c>
+      <c r="G75">
+        <v>0.97975170150099999</v>
+      </c>
+      <c r="H75">
+        <v>0.99973623370599995</v>
+      </c>
+      <c r="I75">
+        <v>0.92513222527100003</v>
+      </c>
+      <c r="M75">
+        <v>15</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>120</v>
+      </c>
+      <c r="Q75">
+        <v>0.98928356068800005</v>
+      </c>
+      <c r="R75">
+        <v>0.97688709907299998</v>
+      </c>
+      <c r="S75">
+        <v>0.99941245516699995</v>
+      </c>
+      <c r="T75">
+        <v>0.96228224494400005</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0.8</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>0.8</v>
+      </c>
+      <c r="F76">
+        <v>0.99236981924000001</v>
+      </c>
+      <c r="G76">
+        <v>0.97996178882399998</v>
+      </c>
+      <c r="H76">
+        <v>0.99971720276700005</v>
+      </c>
+      <c r="I76">
+        <v>0.925119027338</v>
+      </c>
+      <c r="M76">
+        <v>18</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>500</v>
+      </c>
+      <c r="Q76">
+        <v>0.99079345333299995</v>
+      </c>
+      <c r="R76">
+        <v>0.97836265355899998</v>
+      </c>
+      <c r="S76">
+        <v>0.99961976765000005</v>
+      </c>
+      <c r="T76">
+        <v>0.96139212574999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0.8</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>0.8</v>
+      </c>
+      <c r="F77">
+        <v>0.99202795675400002</v>
+      </c>
+      <c r="G77">
+        <v>0.97998320949200002</v>
+      </c>
+      <c r="H77">
+        <v>0.99969335405799997</v>
+      </c>
+      <c r="I77">
+        <v>0.92449663840600005</v>
+      </c>
+      <c r="M77">
+        <v>18</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>120</v>
+      </c>
+      <c r="Q77">
+        <v>0.99148192639499999</v>
+      </c>
+      <c r="R77">
+        <v>0.97816162882799995</v>
+      </c>
+      <c r="S77">
+        <v>0.99966285975699998</v>
+      </c>
+      <c r="T77">
+        <v>0.96130080369899995</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0.8</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>0.6</v>
+      </c>
+      <c r="F78">
+        <v>0.99240780396100003</v>
+      </c>
+      <c r="G78">
+        <v>0.97992553846200003</v>
+      </c>
+      <c r="H78">
+        <v>0.99973487553200002</v>
+      </c>
+      <c r="I78">
+        <v>0.92408583046299997</v>
+      </c>
+      <c r="M78">
+        <v>15</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>500</v>
+      </c>
+      <c r="Q78">
+        <v>0.99067000299100005</v>
+      </c>
+      <c r="R78">
+        <v>0.97736988797799995</v>
+      </c>
+      <c r="S78">
+        <v>0.99955492681400004</v>
+      </c>
+      <c r="T78">
+        <v>0.96112215687400004</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>0.8</v>
+      </c>
+      <c r="F79">
+        <v>0.991800048431</v>
+      </c>
+      <c r="G79">
+        <v>0.97981266801800004</v>
+      </c>
+      <c r="H79">
+        <v>0.99968327425400005</v>
+      </c>
+      <c r="I79">
+        <v>0.92405388142800005</v>
+      </c>
+      <c r="M79">
+        <v>18</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <v>500</v>
+      </c>
+      <c r="Q79">
+        <v>0.99138221650299996</v>
+      </c>
+      <c r="R79">
+        <v>0.97761457791799999</v>
+      </c>
+      <c r="S79">
+        <v>0.99966384883100001</v>
+      </c>
+      <c r="T79">
+        <v>0.96084717210399995</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>0.6</v>
+      </c>
+      <c r="F80">
+        <v>0.99190925450199996</v>
+      </c>
+      <c r="G80">
+        <v>0.97983903191800004</v>
+      </c>
+      <c r="H80">
+        <v>0.99968837820500001</v>
+      </c>
+      <c r="I80">
+        <v>0.92372911628400001</v>
+      </c>
+      <c r="M80">
+        <v>18</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>500</v>
+      </c>
+      <c r="Q80">
+        <v>0.99147243021499998</v>
+      </c>
+      <c r="R80">
+        <v>0.97760221983999995</v>
+      </c>
+      <c r="S80">
+        <v>0.99967294086900005</v>
+      </c>
+      <c r="T80">
+        <v>0.96083961592300005</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>0.8</v>
+      </c>
+      <c r="F81">
+        <v>0.99201371248400005</v>
+      </c>
+      <c r="G81">
+        <v>0.97979289509400003</v>
+      </c>
+      <c r="H81">
+        <v>0.99969921383799998</v>
+      </c>
+      <c r="I81">
+        <v>0.92357660885500004</v>
+      </c>
+      <c r="M81">
+        <v>18</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>300</v>
+      </c>
+      <c r="Q81">
+        <v>0.99146768212500003</v>
+      </c>
+      <c r="R81">
+        <v>0.97769778897500004</v>
+      </c>
+      <c r="S81">
+        <v>0.99967297721100001</v>
+      </c>
+      <c r="T81">
+        <v>0.96010714001700004</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0.8</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>0.8</v>
+      </c>
+      <c r="F82">
+        <v>0.99183803315100005</v>
+      </c>
+      <c r="G82">
+        <v>0.98009772767900005</v>
+      </c>
+      <c r="H82">
+        <v>0.99968134746100001</v>
+      </c>
+      <c r="I82">
+        <v>0.92292308353600006</v>
+      </c>
+      <c r="M82">
+        <v>15</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>10</v>
+      </c>
+      <c r="P82">
+        <v>300</v>
+      </c>
+      <c r="Q82">
+        <v>0.99020469016299995</v>
+      </c>
+      <c r="R82">
+        <v>0.97733528536000003</v>
+      </c>
+      <c r="S82">
+        <v>0.99951361094699998</v>
+      </c>
+      <c r="T82">
+        <v>0.95990196235699998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.6</v>
+      </c>
+      <c r="F83">
+        <v>0.99449221550599998</v>
+      </c>
+      <c r="G83">
+        <v>0.97938837401500001</v>
+      </c>
+      <c r="H83">
+        <v>0.99984709162399998</v>
+      </c>
+      <c r="I83">
+        <v>0.92258978416600002</v>
+      </c>
+      <c r="M83">
+        <v>15</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>10</v>
+      </c>
+      <c r="P83">
+        <v>500</v>
+      </c>
+      <c r="Q83">
+        <v>0.99019519398300004</v>
+      </c>
+      <c r="R83">
+        <v>0.97740284285199996</v>
+      </c>
+      <c r="S83">
+        <v>0.99951807080099997</v>
+      </c>
+      <c r="T83">
+        <v>0.95975219459700001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>18</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>0.8</v>
+      </c>
+      <c r="F84">
+        <v>0.992483773402</v>
+      </c>
+      <c r="G84">
+        <v>0.97973275244900004</v>
+      </c>
+      <c r="H84">
+        <v>0.99973594274599997</v>
+      </c>
+      <c r="I84">
+        <v>0.92203409221199994</v>
+      </c>
+      <c r="M84">
+        <v>15</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>500</v>
+      </c>
+      <c r="Q84">
+        <v>0.99057978928000001</v>
+      </c>
+      <c r="R84">
+        <v>0.97735011505400005</v>
+      </c>
+      <c r="S84">
+        <v>0.99954694550199996</v>
+      </c>
+      <c r="T84">
+        <v>0.95950879731299998</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0.8</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0.99221788035799996</v>
+      </c>
+      <c r="G85">
+        <v>0.97994201589899999</v>
+      </c>
+      <c r="H85">
+        <v>0.99971383812799997</v>
+      </c>
+      <c r="I85">
+        <v>0.92170695233</v>
+      </c>
+      <c r="M85">
+        <v>15</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="P85">
+        <v>300</v>
+      </c>
+      <c r="Q85">
+        <v>0.99062252209000001</v>
+      </c>
+      <c r="R85">
+        <v>0.97729326789600002</v>
+      </c>
+      <c r="S85">
+        <v>0.99954922574799998</v>
+      </c>
+      <c r="T85">
+        <v>0.95916439360799999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0.8</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>0.99287786487899998</v>
+      </c>
+      <c r="G86">
+        <v>0.97990329392200004</v>
+      </c>
+      <c r="H86">
+        <v>0.99976633591200004</v>
+      </c>
+      <c r="I86">
+        <v>0.92158781574899995</v>
+      </c>
+      <c r="M86">
+        <v>18</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>10</v>
+      </c>
+      <c r="P86">
+        <v>120</v>
+      </c>
+      <c r="Q86">
+        <v>0.99071748389199998</v>
+      </c>
+      <c r="R86">
+        <v>0.97832475545399999</v>
+      </c>
+      <c r="S86">
+        <v>0.99961868645800001</v>
+      </c>
+      <c r="T86">
+        <v>0.958258330509</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>0.8</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>0.8</v>
+      </c>
+      <c r="F87">
+        <v>0.99326720826500003</v>
+      </c>
+      <c r="G87">
+        <v>0.97978877573500001</v>
+      </c>
+      <c r="H87">
+        <v>0.99978432917000004</v>
+      </c>
+      <c r="I87">
+        <v>0.92124389530899997</v>
+      </c>
+      <c r="M87">
+        <v>18</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
+        <v>10</v>
+      </c>
+      <c r="P87">
+        <v>300</v>
+      </c>
+      <c r="Q87">
+        <v>0.99076971288299998</v>
+      </c>
+      <c r="R87">
+        <v>0.97771591415600001</v>
+      </c>
+      <c r="S87">
+        <v>0.99961901682599996</v>
+      </c>
+      <c r="T87">
+        <v>0.95810900149300005</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <v>0.992246368898</v>
+      </c>
+      <c r="G88">
+        <v>0.97976735506699997</v>
+      </c>
+      <c r="H88">
+        <v>0.99972077463599995</v>
+      </c>
+      <c r="I88">
+        <v>0.921225135684</v>
+      </c>
+      <c r="M88">
+        <v>18</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>5</v>
+      </c>
+      <c r="P88">
+        <v>300</v>
+      </c>
+      <c r="Q88">
+        <v>0.99138696459300002</v>
+      </c>
+      <c r="R88">
+        <v>0.97828438573400001</v>
+      </c>
+      <c r="S88">
+        <v>0.99966203196600001</v>
+      </c>
+      <c r="T88">
+        <v>0.95803771264600002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0.6</v>
+      </c>
+      <c r="F89">
+        <v>0.99397942177800003</v>
+      </c>
+      <c r="G89">
+        <v>0.97953419933200003</v>
+      </c>
+      <c r="H89">
+        <v>0.99982521317299999</v>
+      </c>
+      <c r="I89">
+        <v>0.92061815482700005</v>
+      </c>
+      <c r="M89">
+        <v>15</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+      <c r="P89">
+        <v>300</v>
+      </c>
+      <c r="Q89">
+        <v>0.99059878164000004</v>
+      </c>
+      <c r="R89">
+        <v>0.97748687778099996</v>
+      </c>
+      <c r="S89">
+        <v>0.99954971149299998</v>
+      </c>
+      <c r="T89">
+        <v>0.95779178695900002</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0.99198522394400002</v>
+      </c>
+      <c r="G90">
+        <v>0.97975087762900004</v>
+      </c>
+      <c r="H90">
+        <v>0.99969540141900004</v>
+      </c>
+      <c r="I90">
+        <v>0.92055936773199998</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>5</v>
+      </c>
+      <c r="P90">
+        <v>120</v>
+      </c>
+      <c r="Q90">
+        <v>0.99137272032299995</v>
+      </c>
+      <c r="R90">
+        <v>0.97817563464900004</v>
+      </c>
+      <c r="S90">
+        <v>0.99966195066999997</v>
+      </c>
+      <c r="T90">
+        <v>0.95709878078999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0.8</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0.992070689565</v>
+      </c>
+      <c r="G91">
+        <v>0.97994036815499996</v>
+      </c>
+      <c r="H91">
+        <v>0.99969811925499996</v>
+      </c>
+      <c r="I91">
+        <v>0.92026485752599996</v>
+      </c>
+      <c r="M91">
+        <v>15</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>120</v>
+      </c>
+      <c r="Q91">
+        <v>0.99063676636099995</v>
+      </c>
+      <c r="R91">
+        <v>0.97746380936900001</v>
+      </c>
+      <c r="S91">
+        <v>0.99955574333300001</v>
+      </c>
+      <c r="T91">
+        <v>0.95572542945100003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0.8</v>
+      </c>
+      <c r="C92">
+        <v>18</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0.99276391071699999</v>
+      </c>
+      <c r="G92">
+        <v>0.97989011197200004</v>
+      </c>
+      <c r="H92">
+        <v>0.99974779594899998</v>
+      </c>
+      <c r="I92">
+        <v>0.91977846846099998</v>
+      </c>
+      <c r="M92">
+        <v>15</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>5</v>
+      </c>
+      <c r="P92">
+        <v>120</v>
+      </c>
+      <c r="Q92">
+        <v>0.99061302591</v>
+      </c>
+      <c r="R92">
+        <v>0.97741108157099998</v>
+      </c>
+      <c r="S92">
+        <v>0.99954724719300003</v>
+      </c>
+      <c r="T92">
+        <v>0.95267673903700001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0.8</v>
+      </c>
+      <c r="C93">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0.99424531482199996</v>
+      </c>
+      <c r="G93">
+        <v>0.97966931431600002</v>
+      </c>
+      <c r="H93">
+        <v>0.99983772291899997</v>
+      </c>
+      <c r="I93">
+        <v>0.91973325986900001</v>
+      </c>
+      <c r="M93">
+        <v>15</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>10</v>
+      </c>
+      <c r="P93">
+        <v>500</v>
+      </c>
+      <c r="Q93">
+        <v>0.99053705646900003</v>
+      </c>
+      <c r="R93">
+        <v>0.97734517182299996</v>
+      </c>
+      <c r="S93">
+        <v>0.99955033205400001</v>
+      </c>
+      <c r="T93">
+        <v>0.94903724965900005</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0.99223212462800003</v>
+      </c>
+      <c r="G94">
+        <v>0.97978465637500001</v>
+      </c>
+      <c r="H94">
+        <v>0.999710647713</v>
+      </c>
+      <c r="I94">
+        <v>0.91957680283999998</v>
+      </c>
+      <c r="M94">
+        <v>15</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>10</v>
+      </c>
+      <c r="P94">
+        <v>300</v>
+      </c>
+      <c r="Q94">
+        <v>0.99054655264900004</v>
+      </c>
+      <c r="R94">
+        <v>0.97737647895299995</v>
+      </c>
+      <c r="S94">
+        <v>0.99955215617899995</v>
+      </c>
+      <c r="T94">
+        <v>0.94876232703300001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>18</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0.99268319318599996</v>
+      </c>
+      <c r="G95">
+        <v>0.97961905813299999</v>
+      </c>
+      <c r="H95">
+        <v>0.99974930165499998</v>
+      </c>
+      <c r="I95">
+        <v>0.91949164109899995</v>
+      </c>
+      <c r="M95">
+        <v>15</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="P95">
+        <v>120</v>
+      </c>
+      <c r="Q95">
+        <v>0.99056079691900001</v>
+      </c>
+      <c r="R95">
+        <v>0.97738224605599999</v>
+      </c>
+      <c r="S95">
+        <v>0.999556705218</v>
+      </c>
+      <c r="T95">
+        <v>0.94673874535299996</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>0.8</v>
+      </c>
+      <c r="C96">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0.8</v>
+      </c>
+      <c r="F96">
+        <v>0.99484832226200004</v>
+      </c>
+      <c r="G96">
+        <v>0.97962482523600003</v>
+      </c>
+      <c r="H96">
+        <v>0.99985816875400002</v>
+      </c>
+      <c r="I96">
+        <v>0.91936479887099998</v>
+      </c>
+      <c r="M96">
+        <v>15</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <v>300</v>
+      </c>
+      <c r="Q96">
+        <v>0.99111632345900003</v>
+      </c>
+      <c r="R96">
+        <v>0.97737483120900004</v>
+      </c>
+      <c r="S96">
+        <v>0.99959640779699999</v>
+      </c>
+      <c r="T96">
+        <v>0.93998559608599996</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0.8</v>
+      </c>
+      <c r="C97">
+        <v>15</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0.8</v>
+      </c>
+      <c r="F97">
+        <v>0.99427380336299997</v>
+      </c>
+      <c r="G97">
+        <v>0.97973687180799995</v>
+      </c>
+      <c r="H97">
+        <v>0.99983622807999994</v>
+      </c>
+      <c r="I97">
+        <v>0.91929745111200001</v>
+      </c>
+      <c r="M97">
+        <v>18</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>10</v>
+      </c>
+      <c r="P97">
+        <v>300</v>
+      </c>
+      <c r="Q97">
+        <v>0.99124452189099999</v>
+      </c>
+      <c r="R97">
+        <v>0.97829509606800003</v>
+      </c>
+      <c r="S97">
+        <v>0.99966995885599996</v>
+      </c>
+      <c r="T97">
+        <v>0.93800992386399995</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0.8</v>
+      </c>
+      <c r="C98">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0.99244104059100002</v>
+      </c>
+      <c r="G98">
+        <v>0.97988516874099996</v>
+      </c>
+      <c r="H98">
+        <v>0.99972939454499998</v>
+      </c>
+      <c r="I98">
+        <v>0.91905850412000001</v>
+      </c>
+      <c r="M98">
+        <v>15</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98">
+        <v>500</v>
+      </c>
+      <c r="Q98">
+        <v>0.99174307134999995</v>
+      </c>
+      <c r="R98">
+        <v>0.977275966587</v>
+      </c>
+      <c r="S98">
+        <v>0.99962939029599995</v>
+      </c>
+      <c r="T98">
+        <v>0.93784792431999997</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0.8</v>
+      </c>
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0.99309152893200003</v>
+      </c>
+      <c r="G99">
+        <v>0.97984397514900001</v>
+      </c>
+      <c r="H99">
+        <v>0.99977598863299999</v>
+      </c>
+      <c r="I99">
+        <v>0.91896263233599995</v>
+      </c>
+      <c r="M99">
+        <v>18</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>10</v>
+      </c>
+      <c r="P99">
+        <v>500</v>
+      </c>
+      <c r="Q99">
+        <v>0.99131099515200005</v>
+      </c>
+      <c r="R99">
+        <v>0.97824895924400002</v>
+      </c>
+      <c r="S99">
+        <v>0.99966912993799995</v>
+      </c>
+      <c r="T99">
+        <v>0.93680130649000004</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0.8</v>
+      </c>
+      <c r="C100">
+        <v>18</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0.99502874968499999</v>
+      </c>
+      <c r="G100">
+        <v>0.979503716074</v>
+      </c>
+      <c r="H100">
+        <v>0.99986459728800003</v>
+      </c>
+      <c r="I100">
+        <v>0.91874334241699995</v>
+      </c>
+      <c r="M100">
+        <v>18</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>10</v>
+      </c>
+      <c r="P100">
+        <v>120</v>
+      </c>
+      <c r="Q100">
+        <v>0.99128725470199996</v>
+      </c>
+      <c r="R100">
+        <v>0.97818634498299994</v>
+      </c>
+      <c r="S100">
+        <v>0.99966328738200005</v>
+      </c>
+      <c r="T100">
+        <v>0.93662665995299998</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0.99231759024900001</v>
+      </c>
+      <c r="G101">
+        <v>0.97961658651799999</v>
+      </c>
+      <c r="H101">
+        <v>0.99972744628999999</v>
+      </c>
+      <c r="I101">
+        <v>0.91871198655499997</v>
+      </c>
+      <c r="M101">
+        <v>15</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>5</v>
+      </c>
+      <c r="P101">
+        <v>500</v>
+      </c>
+      <c r="Q101">
+        <v>0.99110682727900001</v>
+      </c>
+      <c r="R101">
+        <v>0.97730727371699999</v>
+      </c>
+      <c r="S101">
+        <v>0.999590748754</v>
+      </c>
+      <c r="T101">
+        <v>0.91998191469799995</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>0.8</v>
+      </c>
+      <c r="F102">
+        <v>0.99310577320299998</v>
+      </c>
+      <c r="G102">
+        <v>0.97967425754699999</v>
+      </c>
+      <c r="H102">
+        <v>0.99977046823799998</v>
+      </c>
+      <c r="I102">
+        <v>0.91815976819800005</v>
+      </c>
+      <c r="M102">
+        <v>15</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <v>300</v>
+      </c>
+      <c r="Q102">
+        <v>0.99171458280900004</v>
+      </c>
+      <c r="R102">
+        <v>0.97727349497100002</v>
+      </c>
+      <c r="S102">
+        <v>0.99963081903399997</v>
+      </c>
+      <c r="T102">
+        <v>0.91952133557799998</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>18</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>0.8</v>
+      </c>
+      <c r="F103">
+        <v>0.99340490287799998</v>
+      </c>
+      <c r="G103">
+        <v>0.97945593150700005</v>
+      </c>
+      <c r="H103">
+        <v>0.99979079760800005</v>
+      </c>
+      <c r="I103">
+        <v>0.917723615622</v>
+      </c>
+      <c r="M103">
+        <v>18</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>5</v>
+      </c>
+      <c r="P103">
+        <v>120</v>
+      </c>
+      <c r="Q103">
+        <v>0.99227960552899996</v>
+      </c>
+      <c r="R103">
+        <v>0.97815750946799995</v>
+      </c>
+      <c r="S103">
+        <v>0.99972448159100002</v>
+      </c>
+      <c r="T103">
+        <v>0.91342413332100003</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>0.8</v>
+      </c>
+      <c r="C104">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0.99360907075100002</v>
+      </c>
+      <c r="G104">
+        <v>0.97975252537299995</v>
+      </c>
+      <c r="H104">
+        <v>0.99979992066599999</v>
+      </c>
+      <c r="I104">
+        <v>0.91726357312200002</v>
+      </c>
+      <c r="M104">
+        <v>18</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>2</v>
+      </c>
+      <c r="P104">
+        <v>300</v>
+      </c>
+      <c r="Q104">
+        <v>0.99371827682299996</v>
+      </c>
+      <c r="R104">
+        <v>0.977822193625</v>
+      </c>
+      <c r="S104">
+        <v>0.99976566282199997</v>
+      </c>
+      <c r="T104">
+        <v>0.91287616390199999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0.99498126878500004</v>
+      </c>
+      <c r="G105">
+        <v>0.97897396647299995</v>
+      </c>
+      <c r="H105">
+        <v>0.99986785781599996</v>
+      </c>
+      <c r="I105">
+        <v>0.91679104687500002</v>
+      </c>
+      <c r="M105">
+        <v>15</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>2</v>
+      </c>
+      <c r="P105">
+        <v>120</v>
+      </c>
+      <c r="Q105">
+        <v>0.991719330899</v>
+      </c>
+      <c r="R105">
+        <v>0.97770767543699999</v>
+      </c>
+      <c r="S105">
+        <v>0.99962399407699998</v>
+      </c>
+      <c r="T105">
+        <v>0.91185447331699998</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0.8</v>
+      </c>
+      <c r="F106">
+        <v>0.99437351325400003</v>
+      </c>
+      <c r="G106">
+        <v>0.97946334635300003</v>
+      </c>
+      <c r="H106">
+        <v>0.99984030219700004</v>
+      </c>
+      <c r="I106">
+        <v>0.91672100717399996</v>
+      </c>
+      <c r="M106">
+        <v>18</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>2</v>
+      </c>
+      <c r="P106">
+        <v>120</v>
+      </c>
+      <c r="Q106">
+        <v>0.99358533030100005</v>
+      </c>
+      <c r="R106">
+        <v>0.97780901167500001</v>
+      </c>
+      <c r="S106">
+        <v>0.99976108222000004</v>
+      </c>
+      <c r="T106">
+        <v>0.91160210654200002</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0.99432128426300004</v>
+      </c>
+      <c r="G107">
+        <v>0.97930104359799997</v>
+      </c>
+      <c r="H107">
+        <v>0.99983905295800002</v>
+      </c>
+      <c r="I107">
+        <v>0.91653702823799998</v>
+      </c>
+      <c r="M107">
+        <v>18</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>5</v>
+      </c>
+      <c r="P107">
+        <v>300</v>
+      </c>
+      <c r="Q107">
+        <v>0.99223212462800003</v>
+      </c>
+      <c r="R107">
+        <v>0.97819128821400003</v>
+      </c>
+      <c r="S107">
+        <v>0.99972427156599997</v>
+      </c>
+      <c r="T107">
+        <v>0.910832199909</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>18</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0.8</v>
+      </c>
+      <c r="F108">
+        <v>0.99498601687499999</v>
+      </c>
+      <c r="G108">
+        <v>0.97921536092600003</v>
+      </c>
+      <c r="H108">
+        <v>0.99986526356899996</v>
+      </c>
+      <c r="I108">
+        <v>0.91649321041599996</v>
+      </c>
+      <c r="M108">
+        <v>18</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>2</v>
+      </c>
+      <c r="P108">
+        <v>500</v>
+      </c>
+      <c r="Q108">
+        <v>0.99366604783199997</v>
+      </c>
+      <c r="R108">
+        <v>0.97786256334499999</v>
+      </c>
+      <c r="S108">
+        <v>0.99976569222</v>
+      </c>
+      <c r="T108">
+        <v>0.90997254822899998</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0.99352835321999999</v>
+      </c>
+      <c r="G109">
+        <v>0.97942544824800004</v>
+      </c>
+      <c r="H109">
+        <v>0.99979774759700002</v>
+      </c>
+      <c r="I109">
+        <v>0.91571040447499996</v>
+      </c>
+      <c r="M109">
+        <v>18</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>5</v>
+      </c>
+      <c r="P109">
+        <v>500</v>
+      </c>
+      <c r="Q109">
+        <v>0.99229384979900004</v>
+      </c>
+      <c r="R109">
+        <v>0.97810313392600001</v>
+      </c>
+      <c r="S109">
+        <v>0.99972389597400002</v>
+      </c>
+      <c r="T109">
+        <v>0.90987937392899998</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0.99306778848199995</v>
+      </c>
+      <c r="G110">
+        <v>0.97951936963899999</v>
+      </c>
+      <c r="H110">
+        <v>0.99977069805800001</v>
+      </c>
+      <c r="I110">
+        <v>0.91516465101400002</v>
+      </c>
+      <c r="M110">
+        <v>15</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>5</v>
+      </c>
+      <c r="P110">
+        <v>120</v>
+      </c>
+      <c r="Q110">
+        <v>0.99095963648600005</v>
+      </c>
+      <c r="R110">
+        <v>0.97716721550300001</v>
+      </c>
+      <c r="S110">
+        <v>0.99958978299000001</v>
+      </c>
+      <c r="T110">
+        <v>0.90963487399300003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L3:T110">
+    <sortCondition descending="1" ref="T3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
+++ b/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6216" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="2"/>
+    <workbookView xWindow="7104" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$W$4:$Y$220</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
   <si>
     <t>Model</t>
   </si>
@@ -98,6 +99,177 @@
   </si>
   <si>
     <t>200k data points, features like num_0, num_1, count_rows, click_rate added, top 15 features used</t>
+  </si>
+  <si>
+    <t>0.66231 with all features</t>
+  </si>
+  <si>
+    <t>0.64388 with 15 features, 0.65082 with all features</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:25:34.848946 Training Random Forest classifier, [5, 2, 5, 120]</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:26:45.107463 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:27:10.012725 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.946772409143,[[280717, 14552], [16865, 278105]],0.987168984168</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:27:18.949925 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.946123702013,[[93353, 4871], [5729, 92794]],0.986979032061</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:28:32.729770 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:28:57.777968 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.946979105074,[[280587, 14725], [16570, 278357]],0.98737373989</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:29:06.625457 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.946240603415,[[93263, 4918], [5659, 92907]],0.987243008302</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:30:19.248778 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:30:44.300483 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.946553944158,[[280029, 14867], [16679, 278665]],0.987345656499</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:30:53.231548 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.947251786567,[[93724, 4873], [5505, 92644]],0.987606348865</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:32:05.876631 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:32:30.917370 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.946770805096,[[280581, 14421], [16997, 278241]],0.987195909896</t>
+  </si>
+  <si>
+    <t>2017-08-04 09:32:39.865750 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.94700273449,[[93613, 4878], [5549, 92706]],0.987080938699</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:13:34.796964 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:13:53.703949 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.961879848671,[[282815, 12454], [10046, 284924]],0.993794558444</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:14:00.366457 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.961447950922,[[94083, 4141], [3444, 95079]],0.993665645289</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:14:52.359778 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:15:12.756062 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.961842575635,[[282938, 12374], [10148, 284779]],0.993839455224</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:15:19.537915 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.961595348341,[[94050, 4131], [3425, 95141]],0.993599274494</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:16:10.275047 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:16:30.884012 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.961773177013,[[282402, 12494], [10069, 285275]],0.993760912458</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:16:37.557245 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.961269860632,[[94369, 4228], [3392, 94757]],0.993692358821</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:17:28.028609 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:17:48.449445 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.961834169152,[[282348, 12654], [9873, 285365]],0.993835736143</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:17:55.164115 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.961036056642,[[94160, 4331], [3335, 94920]],0.993568373451</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:12:50.654994 Training XGBoost classifier, [0.6, 5, 1, 0.6]</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:59:23.929414 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:59:42.940074 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:59:49.741235 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:00:42.941637 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:01:03.437199 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:01:10.150712 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:02:02.329446 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:02:22.911232 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:02:29.702509 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:03:22.223894 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:03:42.815590 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 11:03:49.540223 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2017-08-04 10:58:40.708023 Training XGBoost classifier, [0.6, 5, 1, 0.6]</t>
   </si>
 </sst>
 </file>
@@ -5154,10 +5326,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5165,7 +5337,7 @@
     <col min="5" max="5" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -5173,7 +5345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5229,7 +5401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.6</v>
       </c>
@@ -5254,8 +5426,8 @@
       <c r="I3">
         <v>0.961616164459</v>
       </c>
-      <c r="J3">
-        <v>0.64388000000000001</v>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -5281,8 +5453,11 @@
       <c r="T3">
         <v>0.97199837091600005</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.6</v>
       </c>
@@ -5332,7 +5507,7 @@
         <v>0.97185384023400001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0.6</v>
       </c>
@@ -5382,7 +5557,7 @@
         <v>0.97123145820300005</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.6</v>
       </c>
@@ -5432,7 +5607,7 @@
         <v>0.97112827439100002</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.6</v>
       </c>
@@ -5482,7 +5657,7 @@
         <v>0.97108105682400003</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.6</v>
       </c>
@@ -5532,7 +5707,7 @@
         <v>0.97096684316500004</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0.6</v>
       </c>
@@ -5582,7 +5757,7 @@
         <v>0.97094075967600002</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.6</v>
       </c>
@@ -5632,7 +5807,7 @@
         <v>0.97091647519699997</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.8</v>
       </c>
@@ -5682,7 +5857,7 @@
         <v>0.97086860690700005</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0.6</v>
       </c>
@@ -5732,7 +5907,7 @@
         <v>0.97086707271299999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0.8</v>
       </c>
@@ -5782,7 +5957,7 @@
         <v>0.97070775033300005</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -5832,7 +6007,7 @@
         <v>0.97068314116200005</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0.8</v>
       </c>
@@ -5882,7 +6057,7 @@
         <v>0.97068121415200004</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0.8</v>
       </c>
@@ -10638,4 +10813,296 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
+++ b/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7104" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="3"/>
+    <workbookView xWindow="7992" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
   <si>
     <t>Model</t>
   </si>
@@ -270,6 +270,282 @@
   </si>
   <si>
     <t>2017-08-04 10:58:40.708023 Training XGBoost classifier, [0.6, 5, 1, 0.6]</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:44:39.312890 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:51:41.992507 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:52:16.764041 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:52:29.360894 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.974210446955,[[285360, 9909], [5313, 289657]],0.996756869374</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:52:34.369438 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.973900491494,[[94894, 3330], [1805, 96718]],0.996664464957</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:52:45.904398 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.955227508092,[[1125304, 44756], [9588, 34133]],0.942214761848</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:53:24.251243 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:53:35.556162 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.974054577891,[[285401, 9911], [5403, 289524]],0.996734039175</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:53:40.160091 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.973717515388,[[94866, 3315], [1856, 96710]],0.996662036642</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:53:51.602596 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.955256343607,[[1125334, 44726], [9583, 34138]],0.943048285685</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:54:29.380907 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:54:40.777876 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.974159663866,[[284998, 9898], [5354, 289990]],0.996749526811</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:54:45.438674 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.974159576307,[[95300, 3297], [1787, 96362]],0.996645251134</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:54:57.006097 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.955323077227,[[1125438, 44622], [9606, 34115]],0.94306868085</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:55:33.341078 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:55:44.647532 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.974259623204,[[285232, 9770], [5423, 289815]],0.996761222941</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:55:49.201041 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.973285352688,[[95141, 3350], [1906, 96349]],0.996564106931</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:56:00.425605 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.955674870508,[[1125886, 44174], [9627, 34094]],0.941991886331</t>
+  </si>
+  <si>
+    <t>bivariate countrycode X [merchant, offer, site, category] added</t>
+  </si>
+  <si>
+    <t>2017-08-04 23:51:41.993496 Training XGBoost classifier, [0.6, 5, 1, 0.6]</t>
+  </si>
+  <si>
+    <t>&lt;type 'generator'&gt;</t>
+  </si>
+  <si>
+    <t>0,Train1,Train2,0.985681208872,0.970740966714,[[131930, 1068], [1047, 13663]],[[153458, 8919], [4029, 276124]],0.99785688573,0.995317911718,0.97447978612,[[285388, 9987], [5076, 289787]],0.99686906934</t>
+  </si>
+  <si>
+    <t>0,Test1,Test2,0.984544143632,0.970449661381,[[43907, 407], [354, 4569]],[[50774, 3030], [1329, 92378]],0.997371416735,0.99514034294,0.973976863805,[[94681, 3437], [1683, 96947]],0.996685112499</t>
+  </si>
+  <si>
+    <t>1,Train1,Train2,0.985478203766,0.97091729167,[[131884, 1106], [1039, 13680]],[[153478, 8770], [4100, 276183]],0.997797346119,0.995339483529,0.974561195446,[[285362, 9876], [5139, 289863]],0.996868536973</t>
+  </si>
+  <si>
+    <t>1,Test1,Test2,0.98466569177,0.969608840079,[[43926, 396], [359, 4555]],[[50908, 3025], [1458, 92119]],0.997512269471,0.994906581192,0.973376841206,[[94834, 3421], [1817, 96674]],0.996578824515</t>
+  </si>
+  <si>
+    <t>2,Train1,Train2,0.985803167038,0.970887915197,[[131938, 1066], [1031, 13674]],[[153403, 8754], [4129, 276245]],0.997904108766,0.995318463705,0.974620493359,[[285341, 9820], [5160, 289919]],0.996876220911</t>
+  </si>
+  <si>
+    <t>2,Test1,Test2,0.983629864327,0.970747745916,[[43912, 396], [410, 4518]],[[51136, 2888], [1427, 92059]],0.997205211853,0.99521315839,0.973971516575,[[95048, 3284], [1837, 96577]],0.996705586608</t>
+  </si>
+  <si>
+    <t>3,Train1,Train2,0.98527510172,0.970788487134,[[131847, 1097], [1078, 13687]],[[152941, 8820], [4107, 276663]],0.997755757937,0.99527652193,0.974413797777,[[284788, 9917], [5185, 290350]],0.996831616874</t>
+  </si>
+  <si>
+    <t>3,Test1,Test2,0.984889105533,0.970463019456,[[44002, 366], [378, 4490]],[[51455, 2965], [1392, 91698]],0.997614865574,0.995216639389,0.974073170484,[[95457, 3331], [1770, 96188]],0.996759522448</t>
+  </si>
+  <si>
+    <t>Using two models, one for counry b and one for others</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:34:57.424100 Training XGBoost classifier, [0.6, 5, 1, 0.6]</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:35:34.820163 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:35:46.036633 KF_Index,Train1,Train2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:35:50.561203 KF_Index,Test1,Test2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:36:02.535875 KF_Index,Unseen1,Unseen2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>0,Unseen1,Unseen2,0.987117265479,0.929412416302,[[520019, 5446], [1352, 866]],[[604386, 40209], [8221, 33282]],0.850048703052,0.939074674047,0.954499205376,[[1124405, 45655], [9573, 34148]],0.94510049037</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:36:41.600096 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:36:51.524299 KF_Index,Train1,Train2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:36:55.633960 KF_Index,Test1,Test2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:37:07.426286 KF_Index,Unseen1,Unseen2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>1,Unseen1,Unseen2,0.987100209785,0.929772423182,[[520018, 5447], [1360, 858]],[[604639, 39956], [8227, 33276]],0.852429185119,0.938243844459,0.954695286876,[[1124657, 45403], [9587, 34134]],0.944835934651</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:37:45.449663 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:37:55.368839 KF_Index,Train1,Train2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:37:59.471749 KF_Index,Test1,Test2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:38:11.242442 KF_Index,Unseen1,Unseen2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2,Unseen1,Unseen2,0.987094524554,0.930437051267,[[520008, 5457], [1353, 865]],[[605100, 39495], [8232, 33271]],0.853204505105,0.937976678464,0.955068500825,[[1125108, 44952], [9585, 34136]],0.944313517651</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:38:49.749662 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:38:59.588111 KF_Index,Train1,Train2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:39:05.471325 KF_Index,Test1,Test2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:39:18.012937 KF_Index,Unseen1,Unseen2,Accuracy1,Accuracy2,CM1,CM2,AUC1,AUC2,Accuracy12,CM12,AUC12</t>
+  </si>
+  <si>
+    <t>3,Unseen1,Unseen2,0.987263186421,0.929722867579,[[520100, 5365], [1356, 862]],[[604605, 39990], [8227, 33276]],0.853677957117,0.936925994516,0.954738128213,[[1124705, 45355], [9583, 34138]],0.94297465591</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:48:40.516418 Training Random Forest classifier, [5, 2, 5, 120]</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:49:56.816046 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:50:15.738101 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.964517763143,[[282377, 12892], [8051, 286919]],0.993280837568</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:50:22.746739 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.964055360438,[[93917, 4307], [2765, 95758]],0.993183844751</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:50:54.716999 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.94615420739,[[1111160, 58900], [6457, 37264]],0.975016533199</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:52:02.302387 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:52:20.081917 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.964417803635,[[282582, 12730], [8272, 286655]],0.993337909365</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:52:27.070110 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.964650032783,[[93999, 4182], [2773, 95793]],0.993277102165</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:52:58.910701 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.946959130189,[[1112116, 57944], [6436, 37285]],0.975065253311</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:54:24.010453 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:54:41.832144 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.965349688262,[[282496, 12400], [8052, 287292]],0.993411147791</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:54:48.835470 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.965666392201,[[94481, 4116], [2639, 95510]],0.993608764263</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:55:20.805254 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.947712149061,[[1113671, 56389], [7077, 36644]],0.973882304881</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:56:37.320759 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:56:55.156944 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.965024396856,[[282582, 12420], [8224, 287014]],0.993371558607</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:57:02.183943 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.964497372246,[[94259, 4232], [2753, 95502]],0.993192841218</t>
+  </si>
+  <si>
+    <t>2017-08-05 02:57:34.072687 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.947572914719,[[1112956, 57104], [6531, 37190]],0.975265871796</t>
   </si>
 </sst>
 </file>
@@ -10817,289 +11093,700 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A2:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J31" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J32" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J33" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J34" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J35" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J36" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J37" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J38" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J39" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J40" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J41" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J42" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J43" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J44" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="J52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
+++ b/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7992" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="3"/>
+    <workbookView xWindow="8880" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$W$4:$Y$220</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="477">
   <si>
     <t>Model</t>
   </si>
@@ -546,6 +547,921 @@
   </si>
   <si>
     <t>3,Unseen,0.947572914719,[[1112956, 57104], [6531, 37190]],0.975265871796</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:51:03.178049 Reading Data</t>
+  </si>
+  <si>
+    <t>((657532, 69), (657532,))</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:51:42.997456 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:51:42.997886 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:51:48.555768 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:51:49.843883 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.993281949269,[[244680, 1713], [1600, 245156]],0.999400044198</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:51:50.472889 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.992937225869,[[81778, 595], [566, 81444]],0.999381350922</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:51:55.213072 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.889535183354,[[2576355, 303343], [26742, 81706]],0.914083386045</t>
+  </si>
+  <si>
+    <t>day wise scores</t>
+  </si>
+  <si>
+    <t>(1041133, array([ 0.50998554]))</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:00.579069 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>5,Unseen,0.896306235611,[[903314, 98377], [9582, 29860]],0.919255452295</t>
+  </si>
+  <si>
+    <t>(696453, array([ 1.02805041]))</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:03.276621 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>4,Unseen,0.88496854777,[[592054, 72453], [7661, 24285]],0.915187115302</t>
+  </si>
+  <si>
+    <t>(1250560, array([ 1.54611528]))</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:07.063115 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>6,Unseen,0.886441274309,[[1080987, 132513], [9499, 27561]],0.90809917358</t>
+  </si>
+  <si>
+    <t>[  1.82878908e-03   1.50452271e-03   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.70635713e-04   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   8.53459247e-06   5.72022202e-05   4.64200583e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.09292064e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.29113973e-07   2.67161894e-03   0.00000000e+00   1.12398028e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.89041447e-03   2.95153469e-03   1.36223944e-03   4.08586916e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.07289814e-02   3.13490956e-04   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   2.16859603e-04   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   1.20629522e-08   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.75418844e-02   2.24519881e-03   0.00000000e+00   4.14876110e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.20325226e-01   1.28993224e-06   0.00000000e+00   5.18516147e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.56653123e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.06422359e-01   6.70291554e-03   6.07926844e-03   5.02164671e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.77728633e-02   7.48383994e-04   2.84602241e-02   4.89228332e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.18592490e-01   3.54802300e-07   0.00000000e+00   2.87864825e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.42245047e-03]</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:12.811246 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:14.100494 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.993137976555,[[244972, 1758], [1626, 244793]],0.999388585149</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:14.733151 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.993582061405,[[81468, 568], [487, 81860]],0.999408215419</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:19.496141 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.88959040154,[[2576504, 303194], [26726, 81722]],0.914365424048</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:24.844506 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>5,Unseen,0.896384995961,[[903389, 98302], [9575, 29867]],0.919487385447</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:27.560360 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>4,Unseen,0.885046083512,[[592102, 72405], [7655, 24291]],0.915608893959</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:31.328656 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>6,Unseen,0.88646446392,[[1081013, 132487], [9496, 27564]],0.908328397441</t>
+  </si>
+  <si>
+    <t>[  1.82044036e-03   1.49253937e-03   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.61419736e-04   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   2.15570454e-08   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   1.16727737e-05   1.02031440e-04   4.68137256e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.08193814e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   2.59880561e-03   0.00000000e+00   1.12419690e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.77925034e-03   2.88029838e-03   1.47973475e-03   3.96913064e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.13374918e-02   3.01679016e-04   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   1.68142167e-07   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.76304829e-02   2.17517599e-03   0.00000000e+00   4.17331028e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.20506927e-01   6.05026661e-06   0.00000000e+00   5.19319149e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.57636487e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.06628326e-01   6.95926973e-03   6.13467065e-03   5.60808153e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.79920573e-02   8.51917652e-04   2.82755328e-02   4.92065360e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.11183960e-01   1.25327612e-06   0.00000000e+00   2.89262310e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.45551671e-03]</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:37.410867 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:38.691866 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.993630728238,[[244850, 1629], [1512, 245158]],0.999395834255</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:39.324586 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.993235310221,[[81717, 570], [542, 81554]],0.999415227614</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:52:44.029177 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.904908260841,[[2616541, 263157], [20991, 87457]],0.924749895153</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:49.390436 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>5,Unseen,0.910318854556,[[915864, 85827], [7543, 31899]],0.92876838241</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:52.084688 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>4,Unseen,0.90195318277,[[602224, 62283], [6002, 25944]],0.926145593411</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:52:55.847821 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>6,Unseen,0.902049481832,[[1098453, 115047], [7446, 29614]],0.919712141082</t>
+  </si>
+  <si>
+    <t>[  0.00000000e+00   1.51230983e-03   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.18272603e-05   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   9.06158302e-06   7.90671301e-05   5.23343586e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.29125678e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   2.44852920e-04   0.00000000e+00   1.17192435e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.79096977e-03   1.49204813e-02   1.13326027e-03   1.92257724e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.68998473e-02   2.83034129e-04   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.75923736e-02   2.12081724e-03   1.06746626e-04   9.34191222e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.78884348e-02   0.00000000e+00   0.00000000e+00   9.49111714e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.76268608e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.17559104e-01   6.98476461e-03   7.87225517e-03   5.64964294e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.56444262e-02   8.01619714e-04   2.84028226e-02   4.53373316e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.10496715e-01   4.06200938e-07   0.00000000e+00   7.14536728e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.34517984e-03]</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:53:01.733282 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:53:03.014915 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.993334671671,[[244920, 1776], [1511, 244942]],0.999377708595</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:53:03.655392 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.993381310719,[[81490, 580], [508, 81805]],0.999365006176</t>
+  </si>
+  <si>
+    <t>2017-08-09 07:53:08.343163 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.904701108982,[[2615826, 263872], [20895, 87553]],0.921453749269</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:53:13.716391 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>5,Unseen,0.910333261937,[[915840, 85851], [7504, 31938]],0.92652364315</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:53:16.426828 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>4,Unseen,0.900900706868,[[601472, 63035], [5983, 25963]],0.922413663045</t>
+  </si>
+  <si>
+    <t>day_ind, 2017-08-09 07:53:20.199974 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>6,Unseen,0.902128646366,[[1098514, 114986], [7408, 29652]],0.915637752886</t>
+  </si>
+  <si>
+    <t>[  0.00000000e+00   1.47040059e-03   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.59615634e-04   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   2.36031012e-03   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   1.17371256e-05   1.09605726e-04   5.45705239e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.29208610e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   2.77956238e-03   0.00000000e+00   1.11925144e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.79008794e-03   2.96713724e-03   8.27028999e-03   1.95189161e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.45754276e-02   3.38730065e-04   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   0.00000000e+00   2.63906370e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.94967534e-02   2.34292559e-03   0.00000000e+00   7.24507428e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.96033817e-02   0.00000000e+00   7.53121651e-04   9.44537219e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.86712887e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.17910101e-01   6.97462611e-03   6.16662860e-03   5.63068806e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.54336428e-02   1.82184963e-06   2.86357460e-02   2.85306117e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.12829812e-01   1.52143723e-05   0.00000000e+00   8.76355178e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.23904345e-03]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:09:13.571934 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:09:54.237427 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:09:54.237862 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:09:57.309866 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:09:58.088182 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.910659861421,[[221501, 25322], [18736, 227590]],0.970778220619</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:09:58.708821 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.909437107243,[[73453, 8490], [6397, 76043]],0.969767926277</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:03.113654 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.815018409408,[[2334746, 544952], [7800, 100648]],0.953149548146</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:08.652025 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:09.418868 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.911256030125,[[220498, 25760], [18004, 228887]],0.970917516125</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:10.038382 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.911846115474,[[73934, 8574], [5917, 75958]],0.971283369126</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:14.429412 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.809941013592,[[2319041, 560657], [7267, 101181]],0.954307961732</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:19.781884 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:20.552136 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.912746451884,[[222855, 23847], [19182, 227265]],0.970706389309</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:21.173796 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.913014119465,[[74096, 7968], [6331, 75988]],0.970659372585</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:25.566971 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.819544292682,[[2348618, 531080], [8148, 100300]],0.950883041101</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:31.065188 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:31.819944 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.910787611858,[[221274, 25241], [18754, 227880]],0.970628531613</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:32.438441 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.910538194339,[[73790, 8461], [6245, 75887]],0.971031406815</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:10:36.823241 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.813676105518,[[2330768, 548930], [7833, 100615]],0.952844009926</t>
+  </si>
+  <si>
+    <t>using top 15 features</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:14:08.510168 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:14:48.720398 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:14:48.720496 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:10.823178 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:11.516580 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.991181164313,[[244907, 1888], [2461, 243893]],0.999618620691</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:12.019454 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.991306886965,[[81326, 645], [784, 81628]],0.999620724642</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:12.914056 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.934782637796,[[2696250, 183448], [11431, 97017]],0.973316901461</t>
+  </si>
+  <si>
+    <t>[[ 0.07775114 -0.19136231 -0.22865681 -0.03243216  0.05247428 -0.63576688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.56497218  0.07384101  0.13574958  1.40699364  2.00669804 -3.02432462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.00433628  0.10675632  0.1245253  -0.34311692  0.03312837  0.13561743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.14441512 -0.09966443 -0.10448414 -0.11253718 -0.06818241 -1.49524649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.14848858 -0.28146499 -0.21748883 -1.59008563  2.62602709  0.08092001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.07366693  0.0876597   0.00303042 -0.11680417 -0.12130578  0.11889963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.22322964 -0.14798334 -0.17839946  0.4334659  -0.07383389  0.06019933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.06336303 -0.05339258 -0.13069806 -0.12873397 -0.23777787  0.57674453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.10989583  0.10365986  0.10771426  0.0322538   0.71789298 -0.07789773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.0803055   0.06072258  0.15158549  0.03819252  0.14120147 -0.26789264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.25714353  0.34483774  0.34907961  0.27602307  2.26941384 -0.04885209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.01503    -0.11279363  0.88981449]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:41.962721 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:42.754699 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.991126414126,[[244733, 1919], [2457, 244040]],0.999614676969</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:43.247456 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.991312970319,[[81497, 617], [811, 81458]],0.999627975492</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:15:43.985827 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.933502245205,[[2692166, 187532], [11173, 97275]],0.973324220694</t>
+  </si>
+  <si>
+    <t>[[ 0.0443889  -0.17231995 -0.23489043 -0.01911882  0.05729109 -0.44208224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.4548424   0.01661562  0.19027545  1.40487809  1.98010701 -2.84779679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.14274415  0.10164719  0.11766167 -0.30380571  0.05900578  0.16764346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.17880258 -0.12934079 -0.1170026  -0.11778125 -0.07458974 -1.45180055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.06965158 -0.29332391 -0.2350098  -1.43396815  2.45284424  0.08884182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.07947637  0.11065126  0.02303446 -0.09147368 -0.09411878  0.05029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.23675482 -0.15773551 -0.18857384  0.43209084 -0.05852661  0.04314882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04520437 -0.03406454 -0.15695262 -0.08039407 -0.151592    0.38020489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15332551  0.08931108  0.09165262  0.04807173  0.69360189 -0.09971594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.10192208  0.05357689  0.19359191  0.03706328  0.14393429 -0.28022643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.26996844  0.33864004  0.34261074  0.27422435  2.22997311 -0.05717287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.03731731 -0.08692027  0.9111139 ]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:13.973692 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:14.763802 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.991428554048,[[244712, 1856], [2371, 244210]],0.999624946183</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:15.255958 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.990704634908,[[81511, 687], [841, 81344]],0.999596400096</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:15.993489 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.92964801586,[[2680095, 199603], [10619, 97829]],0.973219712098</t>
+  </si>
+  <si>
+    <t>[[ 0.06263099 -0.16607495 -0.2941042  -0.01778443  0.06148933 -0.55556643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.53380158  0.04479196  0.15686985  1.43887398  2.04773022 -3.06048473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.03075726  0.08232278  0.09697197 -0.28856366  0.04816046  0.14476547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15446165 -0.11298627 -0.11698708 -0.10404431 -0.06021713 -1.48115443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.12598712 -0.29951895 -0.2384781  -1.50416786  2.52257421  0.10387561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.09650608  0.09258047 -0.0187646  -0.10854271 -0.11209469  0.07978097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.2329846  -0.08654766 -0.10435655  0.25389189  0.00390413  0.04854577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.05089884 -0.03912665 -0.13410858 -0.23599465 -0.40468101  0.85563695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.11902165  0.10210297  0.10504906  0.05021629  0.69360398 -0.09124693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.09389753  0.06644714  0.15428988  0.0356421   0.1353028  -0.26035525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.27169185  0.34486017  0.34854989  0.28500284  2.27484431 -0.04481649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.00970621 -0.11280537  0.88897931]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:45.703444 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:46.496481 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.991144664189,[[244354, 1929], [2438, 244428]],0.999618703902</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:46.989371 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.99144680411,[[81885, 598], [808, 81092]],0.999618706645</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:16:47.731197 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.932337643475,[[2688592, 191106], [11079, 97369]],0.973376880557</t>
+  </si>
+  <si>
+    <t>[[  7.54586280e-02  -1.91336060e-01  -2.44654280e-01  -4.02087632e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.92603771e-02  -6.22311274e-01   6.12971027e-01   2.59326341e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.50061215e-01   1.45000509e+00   2.05814484e+00  -3.04457140e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -6.21465643e-02   1.20326658e-01   1.40754714e-01  -3.96868731e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.48788638e-02   1.32593604e-01   1.40845736e-01  -8.98836517e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.19263139e-01  -1.12654200e-01  -7.27679874e-02  -1.33869274e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.95780034e+00  -2.96767486e-01  -2.35333787e-01  -1.51580702e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.54642466e+00   9.11594415e-02   8.33641003e-02   9.48930524e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.80252958e-03  -1.00235527e-01  -1.03175021e-01   5.71033426e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.17444863e-01  -1.37223515e-01  -1.64735481e-01   3.88842404e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -5.95636827e-02   3.71942630e-02   3.93550174e-02  -3.70747078e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.18575010e-01  -1.64855264e-01  -2.92163397e-01   6.58899806e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.21569832e-01   1.02533997e-01   1.06186730e-01   3.82020165e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.82461552e-01  -7.28131892e-02  -7.47677144e-02   4.85954883e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.71192908e-01   4.18610139e-02   1.47275360e-01  -2.71665773e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.24441113e+00   3.46468052e-01   3.51203425e-01   2.69647337e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.29745428e+00  -4.99278769e-02  -1.85582477e-02  -1.07970410e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.95160001e-01]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:21:07.904845 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:21:48.741513 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:21:48.741897 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:21:51.144487 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:21:51.828755 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.991057469446,[[242530, 4236], [174, 246209]],0.999267932679</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:21:52.396498 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.990765468449,[[80548, 1452], [66, 82317]],0.999310565272</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:21:56.393663 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.744448229772,[[2136581, 743117], [20509, 87939]],0.884685683838</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:01.256972 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:01.948516 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.991197386591,[[242418, 4138], [203, 246390]],0.99925174681</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:02.515774 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.99155022113,[[80888, 1322], [67, 82106]],0.999256299106</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:06.489902 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.744591797054,[[2136821, 742877], [20320, 88128]],0.895565500988</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:11.299213 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:11.987823 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.991156830897,[[242252, 4127], [234, 246536]],0.999308734552</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:12.554537 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.991525887713,[[81055, 1332], [61, 81935]],0.999308707194</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:16.533489 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.744568036502,[[2137000, 742698], [20570, 87878]],0.892764853384</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:21.312074 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:21.999500 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.991095997356,[[242373, 4224], [167, 246385]],0.99918982903</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:22.566886 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.990643801366,[[80688, 1481], [57, 82157]],0.999155037397</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:22:26.554176 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.744444883215,[[2136464, 743234], [20402, 88046]],0.884646799715</t>
+  </si>
+  <si>
+    <t>using first 15 features</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:25:30.576462 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:10.936911 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:10.937320 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:14.405200 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:15.353852 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.947683154584,[[232836, 13521], [12279, 234513]],0.986658527115</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:15.994432 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.94767707123,[[77985, 4424], [4177, 77797]],0.98626938921</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:20.473605 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.901424495323,[[2608336, 271362], [23196, 85252]],0.952578686299</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:26.380031 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:27.321039 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.947967044443,[[233491, 13252], [12408, 233998]],0.986650047123</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:27.960814 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.947354653462,[[77539, 4484], [4170, 78190]],0.986634782079</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:32.642431 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.902466947733,[[2611547, 268151], [23292, 85156]],0.952626094147</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:38.746169 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:39.686552 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.947634487751,[[233035, 13433], [12391, 234290]],0.98658839346</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:40.309649 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.948619991118,[[77836, 4462], [3984, 78101]],0.986961939557</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:44.757092 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.901107241748,[[2607327, 272371], [23135, 85313]],0.952709314249</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:50.823754 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:51.765028 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.946657095523,[[233825, 12905], [13401, 233018]],0.986340830595</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:52.387748 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.946807151591,[[77775, 4261], [4483, 77864]],0.986254944515</t>
+  </si>
+  <si>
+    <t>2017-08-09 08:26:56.843038 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.906285034265,[[2623152, 256546], [23488, 84960]],0.954378012178</t>
+  </si>
+  <si>
+    <t>using first 33 features</t>
   </si>
 </sst>
 </file>
@@ -11095,7 +12011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -11792,4 +12708,1497 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="J46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>218</v>
+      </c>
+      <c r="J50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="J52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>220</v>
+      </c>
+      <c r="J53" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>223</v>
+      </c>
+      <c r="J57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="J58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="J59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J60" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>227</v>
+      </c>
+      <c r="J61" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>228</v>
+      </c>
+      <c r="J62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>229</v>
+      </c>
+      <c r="J63" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>230</v>
+      </c>
+      <c r="J64" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>231</v>
+      </c>
+      <c r="J65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="J66" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>232</v>
+      </c>
+      <c r="J68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>233</v>
+      </c>
+      <c r="J69" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="J70" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>235</v>
+      </c>
+      <c r="J71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>236</v>
+      </c>
+      <c r="J72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>237</v>
+      </c>
+      <c r="J73" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>238</v>
+      </c>
+      <c r="J74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>239</v>
+      </c>
+      <c r="J75" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="J76" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>241</v>
+      </c>
+      <c r="J77" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>242</v>
+      </c>
+      <c r="J78" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="J79" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>244</v>
+      </c>
+      <c r="J80" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>245</v>
+      </c>
+      <c r="J81" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="J82" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="J83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>246</v>
+      </c>
+      <c r="J84" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="J85" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="J86" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
+++ b/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="4"/>
+    <workbookView xWindow="9768" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1098">
   <si>
     <t>Model</t>
   </si>
@@ -1462,6 +1462,1869 @@
   </si>
   <si>
     <t>using first 33 features</t>
+  </si>
+  <si>
+    <t>[64, 56, 67, 44, 59, 28, 62, 16, 51]</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:56:53.695220 Reading Data</t>
+  </si>
+  <si>
+    <t>((657532, 69</t>
+  </si>
+  <si>
+    <t>, (657532,</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:34.488980 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:34.489358 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:36.888156 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:37.524166 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.991006774829,[[242638, 4031], [404, 246076]],0.999113257396</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:38.092484 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.990795885219,[[80716, 1381], [132, 82154]],0.999014643063</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:41.950347 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.816488217109,[[2352357, 527341], [21019, 87429]],0.880870274816</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:46.853053 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:47.489639 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.990142938544,[[242003, 4685], [176, 246285]],0.999111766269</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:48.057722 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.99013279962,[[80515, 1563], [59, 82246]],0.998988013611</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:51.925135 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.81121237048,[[2337229, 542469], [21656, 86792]],0.881276508627</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:56.869928 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:57.504866 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.990767496233,[[242251, 4223], [330, 246345]],0.999080529269</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:57:58.072604 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.9905464677,[[80860, 1432], [122, 81969]],0.999239289276</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:58:01.933297 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.805401744091,[[2319189, 560509], [20979, 87469]],0.879793760649</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:58:06.970465 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:58:07.607852 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.990706662692,[[242240, 4227], [356, 246326]],0.999104756425</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:58:08.175459 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.990947969072,[[80936, 1363], [125, 81959]],0.99915503557</t>
+  </si>
+  <si>
+    <t>2017-08-09 13:58:12.042914 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.807064648113,[[2324789, 554909], [21610, 86838]],0.881537405411</t>
+  </si>
+  <si>
+    <t>[64, 60, 24, 28, 68, 23, 27, 56, 44, 22, 52, 21, 48, 26, 25, 47, 45, 46, 12, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:00:24.997709 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:05.598823 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:05.599208 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:08.415604 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:09.234120 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989627881229,[[243473, 2928], [2187, 244561]],0.999244698387</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:09.838131 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.989591381104,[[81374, 991], [720, 81298]],0.999250756272</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:14.140056 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.688860584456,[[1958378, 921320], [8410, 100038]],0.929556890793</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:19.581366 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:20.387248 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989396713772,[[243603, 3026], [2203, 244317]],0.99932441029</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:20.981504 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.98927504669,[[81152, 985], [778, 81468]],0.999304392281</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:25.296240 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.572133356268,[[1608857, 1270841], [7687, 100761]],0.931729910804</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:30.714002 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:31.518256 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.990007076969,[[243288, 3366], [1562, 244933]],0.999384876746</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:32.122115 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.989962465705,[[81000, 1112], [538, 81733]],0.99938781164</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:36.379902 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.559313032228,[[1569769, 1309929], [6908, 101540]],0.923359629787</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:41.768937 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:42.582120 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.98923651878,[[243446, 3168], [2140, 244395]],0.999192181209</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:43.185370 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.988867461964,[[81022, 1130], [700, 81531]],0.99919774321</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:01:47.475025 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.692040147971,[[1968166, 911532], [8697, 99751]],0.931672869434</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:05:31.147062 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:10.995718 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:10.995837 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:16.197854 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:16.433726 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989179740809,[[244466, 2061], [3275, 243347]],0.999376090045</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:16.896038 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.989208129794,[[81578, 661], [1113, 81031]],0.999364149155</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:17.337060 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.841438805199,[[2412738, 466960], [6844, 101604]],0.96220274437</t>
+  </si>
+  <si>
+    <t>[[ 2.51124376  1.22991486  2.26267223  2.1936656   0.76920907 -1.69748939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.20053351  0.15177946 -0.00755253 -0.13628534  0.58665177 -0.18752043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15281905 -0.28882161 -0.3391094   0.50213068 -0.09145098 -0.18321954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.1254686   1.25563143  1.75040126 -2.40409683]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:25.253157 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:25.485973 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989303435676,[[244922, 2015], [3260, 242952]],0.999372447763</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:25.948241 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.98878837836,[[81126, 703], [1140, 81414]],0.999367948518</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:26.397402 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.840580748063,[[2410129, 469569], [6799, 101649]],0.962138021669</t>
+  </si>
+  <si>
+    <t>[[ 2.44989635  1.25643493  2.20217627  2.46364598  0.78018296 -1.67746006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.43686665  0.15620423  0.01868344 -0.15775922  0.57540284 -0.20873514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15610068 -0.24765369 -0.30627952  0.54621004 -0.11840929 -0.22114114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.15741008  1.25356649  1.74343419 -2.37031616]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:34.446848 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:34.680332 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.98910268499,[[244283, 2057], [3317, 243492]],0.999369476805</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:35.140261 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.9895122975,[[81754, 672], [1052, 80905]],0.999387948968</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:35.589184 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.84698572292,[[2429386, 450312], [6917, 101531]],0.962346534761</t>
+  </si>
+  <si>
+    <t>[[ 2.53544239  1.23970477  2.28905722  2.2455924   0.77078428 -1.70993718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.24798047  0.1220857   0.01621262 -0.15212555  0.57939315 -0.20395841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.16627446 -0.27419964 -0.32606015  0.29617219 -0.01756241 -0.06610317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.1289858   1.21451736  1.69184583 -2.31632593]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:43.342100 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:43.575493 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.989173657454,[[244458, 2036], [3303, 243352]],0.999370496783</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:44.038089 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.989147296253,[[81590, 682], [1102, 81009]],0.999359635873</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:06:44.485870 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.841553257438,[[2413077, 466621], [6841, 101607]],0.962515154856</t>
+  </si>
+  <si>
+    <t>[[ 2.4133335   1.25683252  2.39639217  2.34948783  0.76433256 -1.78960589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.33102662  0.11036993  0.01505152 -0.13480466  0.56267113 -0.18868728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15744792 -0.27354414 -0.32855457  0.36795731 -0.05101541 -0.11580543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.09757292  1.24397286  1.73355752 -2.37746153]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:17:24.248637 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:04.820806 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:04.820905 Training Logistic Regression classifier, [0.1, 'l1']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:12.912514 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:13.157666 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989025629171,[[244398, 2051], [3361, 243339]],0.999351224197</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:13.712129 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.98909862942,[[81631, 686], [1106, 80960]],0.999389512899</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:14.228938 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.846614924438,[[2428344, 451354], [6983, 101465]],0.961816729832</t>
+  </si>
+  <si>
+    <t>[[  2.43498464e+00   1.24267247e+00   8.17577717e-01   6.97195138e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.52652252e-01  -4.37656914e-01   1.55279169e-01   1.66043458e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.92442176e-02  -3.53337292e-01   5.60763771e-01  -2.16070051e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.08415725e-01  -6.25593128e-01  -2.56173164e-01  -3.64482195e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.27379767e-04   1.53583530e-01  -2.38916636e-01   7.77845586e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.92779962e+00  -2.00287331e+00]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:25.395824 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:25.665048 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989086462712,[[244601, 2030], [3352, 243166]],0.999366629967</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:26.139229 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.988897878734,[[81418, 717], [1108, 81140]],0.999366487848</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:26.583103 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.84556377098,[[2425201, 454497], [6981, 101467]],0.96130517949</t>
+  </si>
+  <si>
+    <t>[[ 2.52238238  1.2394891   0.82410259  0.72207753  0.76805844 -0.41907461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.13125767  0.1388583   0.02955003 -0.34051674  0.57321564 -0.20959891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.21359261 -0.61678659 -0.24703302 -0.01121269  0.          0.15044733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.24086787  0.78586221  1.9312739  -2.00489042]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:58.305762 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:58.573763 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.9891675741,[[244746, 2058], [3284, 243061]],0.999389581483</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:59.047445 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.989110796129,[[81331, 631], [1159, 81262]],0.999311688445</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:18:59.492093 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.851242877691,[[2442230, 437468], [7040, 101408]],0.96234916063</t>
+  </si>
+  <si>
+    <t>[[ 2.49604767  1.23540207  1.71098969  1.3373905   0.75926049 -1.1886306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.43435334  0.13955984  0.00317511 -0.23411103  0.56920261 -0.20920035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.17118168 -0.53860075 -0.24323958  0.19599423  0.          0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.10604239  0.73323758  2.10333532 -2.24458308]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:10.523470 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:10.791358 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.988993184616,[[244354, 2060], [3368, 243367]],0.999351508642</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:11.267199 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.989238546565,[[81652, 700], [1069, 80962]],0.999384819834</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:11.712104 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.845862953149,[[2426049, 453649], [6935, 101513]],0.961815938721</t>
+  </si>
+  <si>
+    <t>[[ 2.46007233  1.23238545  0.81570295  0.6682774   0.76040519 -0.39929583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.17706597  0.14974915  0.00803999 -0.33714503  0.56400927 -0.24376754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.22332764 -0.61804551 -0.28266364 -0.04199759  0.          0.20254824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.24891341  0.77936816  1.91531878 -1.99138803]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:14.942593 Training Logistic Regression classifier, [0.1, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:20.743018 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:21.019841 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989175685239,[[244342, 2034], [3304, 243469]],0.999376897375</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:21.535536 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.989025629171,[[81732, 658], [1146, 80847]],0.999350495622</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:21.980885 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.849221892103,[[2436140, 443558], [6989, 101459]],0.961865053435</t>
+  </si>
+  <si>
+    <t>[[ 2.40523765  1.21564201  1.83448265  1.47350192  0.7427437  -1.35317849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.55503991  0.12286206  0.02733193 -0.18251278  0.56427802 -0.2244609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.22185958 -0.3358282  -0.36230013  0.06786664  0.04889064  0.04589471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.26925066  1.14518445  1.57082198 -2.00578127]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:30.789804 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:31.056675 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989139185114,[[244871, 2017], [3339, 242922]],0.999359166767</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:31.532713 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.989341963585,[[81185, 693], [1059, 81446]],0.999408370207</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:31.977678 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.849485600771,[[2436902, 442796], [6963, 101485]],0.962294361681</t>
+  </si>
+  <si>
+    <t>[[ 2.44681607  1.20104655  1.67493352  1.59785492  0.74176869 -1.18519996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.68005317  0.14782079  0.00977976 -0.18855875  0.56265963 -0.22572905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.18630043 -0.32934333 -0.36046941  0.06068989  0.04040641  0.03721828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.21413868  1.12300097  1.54511357 -2.00136242]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:40.862432 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:41.131015 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.989183796378,[[244473, 2026], [3308, 243342]],0.999370539423</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:41.607026 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.989074296004,[[81585, 682], [1114, 81002]],0.999372693281</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:42.052022 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.850020045875,[[2438546, 441152], [7010, 101438]],0.962051590155</t>
+  </si>
+  <si>
+    <t>[[  2.42570257e+00   1.21439175e+00   1.83304643e+00   1.41144621e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.51250612e-01  -1.31021525e+00  -5.05444060e-01   1.36113202e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.20062893e-03  -1.89553554e-01   5.54932679e-01  -2.30361879e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.73357495e-01  -3.41181408e-01  -3.65851204e-01   1.19572823e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.64313175e-02   4.46686915e-04  -2.24500022e-01   1.15239827e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.58303802e+00  -2.03534905e+00]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:49.653105 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:49.933184 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.989191907517,[[244507, 2028], [3302, 243312]],0.999378441152</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:50.411347 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.989062129296,[[81541, 690], [1108, 81044]],0.999348235751</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:50.869566 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.847079091852,[[2429654, 450044], [6906, 101542]],0.962012038575</t>
+  </si>
+  <si>
+    <t>[[ 2.39087572  1.22116178  1.73171064  1.47166606  0.76558765 -1.24061994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.5648123   0.14622076  0.01890423 -0.1855105   0.55750795 -0.22424135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.18649743 -0.34767451 -0.37470703  0.06813019  0.03328042  0.02784619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.15561494  1.13656957  1.57282375 -2.09150478]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:19:53.850927 Training Logistic Regression classifier, [1, 'l1']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:24.889799 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:25.167771 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989143240684,[[244339, 2048], [3306, 243456]],0.999368472725</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:25.703860 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.989177713024,[[81676, 703], [1076, 80928]],0.999376700593</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:26.292302 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.850851330557,[[2440989, 438709], [6969, 101479]],0.962350493974</t>
+  </si>
+  <si>
+    <t>[[ 2.47354351  1.24055393  1.88041564  1.47114461  0.76052801 -1.36494636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.55104333  0.14756375  0.00960468 -0.2585367   0.58155578 -0.16885367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.17036071 -0.50242041 -0.24668623  0.2258491  -0.0806141   0.06465083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.15492664  0.85841076  2.03142607 -2.25932773]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:38.652710 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:38.921839 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989187851947,[[244503, 2045], [3287, 243314]],0.999368620709</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:39.393760 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.988934378859,[[81543, 675], [1144, 81021]],0.999338168765</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:39.847702 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.847889627883,[[2432172, 447526], [7002, 101446]],0.961876318358</t>
+  </si>
+  <si>
+    <t>[[  2.49945828e+00   1.24891268e+00   9.64579143e-01   7.66641871e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.73357111e-01  -5.46867765e-01   9.56805710e-02   1.64031232e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.23913889e-03  -3.58171087e-01   5.57586225e-01  -2.37016028e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.10594303e-01  -6.42546220e-01  -2.54999261e-01  -1.17703064e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -3.64398173e-02   3.24532073e-01  -2.09847104e-01   8.32001249e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.95271388e+00  -2.10204647e+00]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:51.752107 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:52.019671 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.989084434927,[[244628, 2052], [3331, 243138]],0.999361819088</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:52.488328 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.9889952124,[[81407, 679], [1130, 81167]],0.999366045533</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:20:52.948952 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.847224332412,[[2430175, 449523], [6993, 101455]],0.961722065308</t>
+  </si>
+  <si>
+    <t>[[ 2.4832233   1.25985671  0.91067867  0.7551761   0.75885646 -0.4888742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.10926301  0.15058049  0.01094469 -0.3522916   0.57132578 -0.22424006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.2233011  -0.62873581 -0.2395595  -0.11114298 -0.04023691  0.31661616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.2600279   0.82174401  1.94055369 -2.03372063]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:04.921062 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:05.198310 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.989039823664,[[244616, 2067], [3338, 243128]],0.999359838924</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:05.672160 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.98927504669,[[81406, 677], [1086, 81214]],0.999375587129</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:06.128702 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.845759209891,[[2425751, 453947], [6947, 101501]],0.961658505226</t>
+  </si>
+  <si>
+    <t>[[ 2.46792038  1.25014828  0.96383305  0.73086729  0.7744528  -0.54196089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.12252493  0.12967726  0.03204666 -0.33636681  0.58081546 -0.21165422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.21669311 -0.64666653 -0.25574199 -0.0780297  -0.05604119  0.29403241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.20950026  0.81935901  1.94480374 -2.09710428]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:09.112299 Training Logistic Regression classifier, [1, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:14.445262 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:14.717613 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989333852446,[[244561, 2018], [3242, 243328]],0.999372129401</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:15.189765 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.988764044944,[[81489, 698], [1149, 81047]],0.999382293032</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:15.645364 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.847462941904,[[2430838, 448860], [6943, 101505]],0.962125821117</t>
+  </si>
+  <si>
+    <t>[[ 2.54751646  1.24177698  2.15034382  2.2731936   0.77093184 -1.61157192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.27385497  0.15774372 -0.00300813 -0.1693868   0.57202609 -0.21862716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.17408789 -0.26483891 -0.31753497  0.2983913  -0.02510411 -0.07514665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.15865539  1.22067344  1.69455609 -2.28527714]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:23.916450 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:24.187546 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989195963086,[[244246, 2037], [3291, 243575]],0.999369249747</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:24.661202 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.989177713024,[[81765, 718], [1061, 80839]],0.999378026718</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:25.116615 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.84072933518,[[2410554, 469144], [6780, 101668]],0.962167754544</t>
+  </si>
+  <si>
+    <t>[[ 2.43646188  1.24941833  2.18334462  2.31560459  0.77840859 -1.61348557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.30785787  0.13545657  0.00673191 -0.14875573  0.58084409 -0.19774285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.13760044 -0.27147796 -0.32557378  0.49242005 -0.08545859 -0.17480372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.09445286  1.26661853  1.77108493 -2.46428937]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:33.428648 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:33.699570 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.989135129545,[[244730, 2043], [3315, 243061]],0.999373065162</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:34.171259 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.989323713523,[[81340, 653], [1102, 81288]],0.999360051824</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:34.628079 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.841495362007,[[2412887, 466811], [6824, 101624]],0.962520046451</t>
+  </si>
+  <si>
+    <t>[[ 2.4590819   1.23907433  2.27799382  2.1191644   0.76826117 -1.69071521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.12431723  0.12607271  0.01726    -0.13306099  0.56182166 -0.18405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.16146424 -0.29475333 -0.34223516  0.38593546 -0.05860915 -0.12734824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.13638073  1.22891989  1.70887337 -2.3216495 ]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:42.906117 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:43.177439 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.989127018406,[[244602, 2061], [3301, 243185]],0.999374136007</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:43.650731 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.989335880231,[[81444, 659], [1094, 81186]],0.999362428607</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:44.105571 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.847897659619,[[2432135, 447563], [6941, 101507]],0.962360246716</t>
+  </si>
+  <si>
+    <t>[[ 2.46545781  1.24425399  2.19662435  2.25168644  0.75669504 -1.64747335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.24980458  0.12745731  0.01305283 -0.1576772   0.58489143 -0.20778284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.16985201 -0.27834824 -0.33034424  0.41161668 -0.06551679 -0.13929189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.13632391  1.22582064  1.70560312 -2.32337739]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:47.076758 Training Logistic Regression classifier, [10, 'l1']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:56.381918 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:56.649585 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989049962587,[[244617, 2059], [3341, 243132]],0.999360373735</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:57.116491 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.989238546565,[[81405, 685], [1084, 81209]],0.999369235266</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:21:57.571437 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.845646765586,[[2425451, 454247], [6983, 101465]],0.961375689388</t>
+  </si>
+  <si>
+    <t>[[ 2.47318529  1.2616897   0.96409932  0.72075283  0.77030929 -0.53550867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.13247625  0.15356899 -0.00832151 -0.35990591  0.56437381 -0.23635015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.21976614 -0.63160972 -0.24288869 -0.09335418 -0.06164618  0.32869775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.26174903  0.83771009  1.95263216 -2.05928325]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:09.824895 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:10.092248 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989112823913,[[244432, 2046], [3323, 243348]],0.999360422636</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:10.561510 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.989110796129,[[81597, 691], [1099, 80996]],0.999371844518</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:11.015528 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.845628024869,[[2425378, 454320], [6966, 101482]],0.96154405332</t>
+  </si>
+  <si>
+    <t>[[ 2.46275356  1.26159093  0.98264859  0.74289846  0.77831817 -0.56603239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.11669286  0.13673452  0.03253428 -0.3451245   0.5638268  -0.22097972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.21707331 -0.63755865 -0.24743772 -0.10203261 -0.06199572  0.33537695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.21119949  0.83033734  1.95375708 -2.11387441]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:46.246099 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:46.513708 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.989222324287,[[244591, 2039], [3276, 243243]],0.999376477855</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:46.980056 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.989062129296,[[81459, 677], [1121, 81126]],0.999358196763</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:47.434927 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.848886567122,[[2435098, 444600], [6949, 101499]],0.962543633224</t>
+  </si>
+  <si>
+    <t>[[ 2.51924379  1.2360583   1.94388069  1.72996766  0.75834207 -1.41550563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.78077161  0.15861549  0.00741925 -0.23744081  0.57906686 -0.14716589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15820598 -0.46783748 -0.23967908  0.38502518 -0.22431399  0.0596395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.13194603  0.8660089   2.02006314 -2.29033191]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:58.541673 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:58.813543 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.989118907267,[[244462, 2052], [3314, 243321]],0.999362359315</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:59.288376 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.989116879483,[[81567, 685], [1104, 81027]],0.999354274239</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:22:59.800043 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.850032093479,[[2438564, 441134], [6992, 101456]],0.962217074031</t>
+  </si>
+  <si>
+    <t>[[ 2.46904552  1.24102448  0.88372476  0.71189424  0.76255854 -0.47065745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.14177768  0.14575028  0.02159621 -0.36405464  0.58220165 -0.22089491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.21848949 -0.65628385 -0.26432434 -0.18399778 -0.0448935   0.38169285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.20369206  0.83571887  1.9392724  -2.09571794]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:02.785786 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:07.524213 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:07.796493 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.989031712525,[[244731, 2050], [3359, 243009]],0.999354789186</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:08.268420 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.989548797625,[[81318, 667], [1051, 81347]],0.999416147677</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:08.725750 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.848884559188,[[2435096, 444602], [6953, 101495]],0.962594918715</t>
+  </si>
+  <si>
+    <t>[[  2.45760763e+00   1.22618208e+00   2.15870802e+00   1.84151914e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.68385411e-01  -1.58504823e+00  -8.75888055e-01   1.37904504e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.50699129e-05  -1.64228900e-01   5.66353904e-01  -2.12623386e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.65196067e-01  -3.15607673e-01  -3.53967571e-01   1.91058803e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.98094643e-02  -6.72138821e-03  -1.34675084e-01   1.22465454e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.70271477e+00  -2.31193235e+00]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:17.002829 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:17.276128 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989285185613,[[244527, 2013], [3271, 243338]],0.999383461413</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:17.752143 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.988983045692,[[81505, 721], [1090, 81067]],0.999344895073</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:18.217038 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.841074699831,[[2411617, 468081], [6811, 101637]],0.962344200157</t>
+  </si>
+  <si>
+    <t>[[ 2.53155594  1.23991702  2.19169967  2.3732518   0.77225377 -1.61213945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.35095457  0.12515847  0.0086554  -0.14429791  0.57881085 -0.19317932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.16399693 -0.26211038 -0.31769705  0.46671055 -0.08826538 -0.17406212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.07714428  1.23316822  1.72363658 -2.39428135]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:25.968462 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:26.235765 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.989327769092,[[244498, 2021], [3242, 243388]],0.999382371844</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:26.703383 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.988678877986,[[81535, 712], [1149, 80987]],0.999328753527</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:27.155135 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.850436022872,[[2439767, 439931], [6988, 101460]],0.962304591126</t>
+  </si>
+  <si>
+    <t>[[  2.46682800e+00   1.28469122e+00   2.29210333e+00   1.80981342e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.75398715e-01  -1.73216442e+00  -8.44278435e-01   1.39412374e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.27410133e-05  -1.86188265e-01   5.78948922e-01  -2.39174980e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.74635628e-01  -3.29931618e-01  -3.67316765e-01   2.12790605e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.82495361e-02   8.69738362e-02  -2.08090752e-01   1.23372218e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.70574549e+00  -2.25918520e+00]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:35.531411 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:35.798840 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.989049962587,[[244383, 2075], [3325, 243366]],0.999366177968</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:36.268182 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.989506214146,[[81679, 629], [1096, 80979]],0.999388606713</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:23:36.725115 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.84117442722,[[2411942, 467756], [6838, 101610]],0.961975710063</t>
+  </si>
+  <si>
+    <t>[[ 2.47375322  1.23754366  2.27400573  2.20653488  0.77262086 -1.72607358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.21306482  0.13626417  0.02457848 -0.13337405  0.57682338 -0.185394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.15757801 -0.28882934 -0.33959414  0.5282709  -0.10345206 -0.20110996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.11934711  1.24520532  1.73532245 -2.38016299]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:28:54.729906 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:29:34.545744 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:29:34.546023 Training Random Forest classifier, [0.6, 5, 1, 0.6]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:29:45.506110 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:29:46.130795 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.995987014067,[[245282, 1303], [676, 245888]],0.999918834573</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:29:46.806944 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.996033653115,[[81774, 407], [245, 81957]],0.999914317087</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:29:58.588610 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.919526355138,[[2714294, 165404], [75063, 33385]],0.82028236084</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:11.617544 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:12.092244 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.996021486407,[[245077, 1285], [677, 246110]],0.999920565628</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:12.758118 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.995802485658,[[81957, 447], [243, 81736]],0.999914343309</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:24.120202 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.920142456225,[[2716365, 163333], [75293, 33155]],0.827264485562</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:35.975134 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:36.446575 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.996023514191,[[245109, 1294], [667, 246079]],0.999922478388</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:37.115333 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.995857235846,[[81896, 467], [214, 81806]],0.999903639426</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:30:48.635998 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.914384705433,[[2697755, 181943], [73888, 34560]],0.807396484587</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:31:00.184419 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:31:00.699619 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.996078264379,[[245644, 1304], [630, 245571]],0.999919163933</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:31:01.407628 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.995711235347,[[81351, 467], [238, 82327]],0.999913600547</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:31:13.022139 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.919308828953,[[2714735, 164963], [76154, 32294]],0.820198091357</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:31:52.728768 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:32:33.405854 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:32:33.406110 Training Random Forest classifier, [0.6, 5, 1, 10, 0.6]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:32:44.327491 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:32:44.965127 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.996090431087,[[245332, 1300], [628, 245889]],0.999920529186</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:32:45.665948 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.995899819324,[[81697, 437], [237, 82012]],0.999912518717</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:32:57.896514 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.916305628975,[[2705881, 173817], [76274, 32174]],0.81871428597</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:10.485758 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:11.040925 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.995980930713,[[245219, 1326], [656, 245948]],0.999919523777</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:11.749035 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.99596673622,[[81776, 445], [218, 81944]],0.999918061244</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:23.956176 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.921131698384,[[2721238, 158460], [77210, 31238]],0.825199744273</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:37.348288 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:37.925346 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.996057986531,[[245209, 1296], [648, 245996]],0.999919862331</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:38.647743 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.995814652367,[[81793, 468], [220, 81902]],0.999916230152</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:33:50.736400 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.919470132985,[[2715525, 164173], [76462, 31986]],0.822594457553</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:34:04.035823 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:34:04.634173 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.996102597795,[[245391, 1225], [697, 245836]],0.999923230014</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:34:05.362114 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.995942402803,[[81727, 423], [244, 81989]],0.999905027295</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:34:17.451846 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.916402009808,[[2704468, 175230], [74573, 33875]],0.812789599514</t>
+  </si>
+  <si>
+    <t>[64,56,23,67,48,44,59,28,60,52,62,63,16,27,51]</t>
+  </si>
+  <si>
+    <t>[64, 60, 24, 28, 68, 23, 27, 56, 44, 22, 52]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:07.824437 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:47.569853 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:47.570357 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:50.292309 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:50.426439 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.987318234448,[[244362, 2168], [4086, 242533]],0.999097953582</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:50.878810 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.987523040704,[[81539, 697], [1354, 80793]],0.999100882862</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:51.233875 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.852013255042,[[2444982, 434716], [7490, 100958]],0.955008184708</t>
+  </si>
+  <si>
+    <t>[[ 3.62047718  1.20831295  2.20629254  4.57911067  0.79124634 -1.57054769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3.33700948  0.10798467  0.02058809 -0.46707156  0.54608138]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:56.839179 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:56.966870 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.987393262483,[[244337, 2155], [4062, 242595]],0.999110347732</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:57.416305 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.987334456726,[[81547, 727], [1355, 80754]],0.999057876335</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:44:57.780570 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.856484589441,[[2458442, 421256], [7589, 100859]],0.955608205458</t>
+  </si>
+  <si>
+    <t>[[ 3.63073046  1.19531341  2.29867928  4.55501759  0.77689923 -1.66005731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3.31175349  0.10440731  0.04618319 -0.43695015  0.54156586]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:03.362305 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:03.491938 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.987261456477,[[244258, 2168], [4114, 242609]],0.999086055499</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:03.945590 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.987571707537,[[81633, 707], [1336, 80707]],0.99912078058</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:04.311766 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.856289485186,[[2457863, 421835], [7593, 100855]],0.955504391348</t>
+  </si>
+  <si>
+    <t>[[ 3.55798129  1.21736708  2.16383603  4.60369286  0.76087648 -1.52685406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3.36742411  0.09155144  0.03612445 -0.46854877  0.54343866]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:09.899251 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:10.027434 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.987468290517,[[244702, 2148], [4032, 242267]],0.99909478316</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:10.479112 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.987024205666,[[81168, 748], [1385, 81082]],0.9991079605</t>
+  </si>
+  <si>
+    <t>2017-08-09 14:45:10.844361 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.855773446144,[[2456298, 423400], [7570, 100878]],0.955432066296</t>
+  </si>
+  <si>
+    <t>[[ 3.61093724  1.21322328  2.14594516  4.57714804  0.77266003 -1.51973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3.33403483  0.10684965  0.03973135 -0.45975701  0.55929771]]</t>
+  </si>
+  <si>
+    <t>[64, 60, 24, 28, 16, 32, 54, 55, 36, 42, 43, 0, 8, 67, 59, 63, 35, 4, 51, 30, 6, 40, 18, 15, 3]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:31:27.410240 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:08.129618 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:08.129720 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:12.551569 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:12.820618 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.987533179627,[[244144, 2121], [4027, 242857]],0.999115408521</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:13.302699 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.987279706539,[[81794, 707], [1384, 80498]],0.999069935251</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:13.816874 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.870882814963,[[2501582, 378116], [7705, 100743]],0.960393169581</t>
+  </si>
+  <si>
+    <t>[[ 3.41273956  1.67419221  1.07832553  1.08491287  0.41165687  0.21851361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.1939397   0.03528309  0.32583798 -0.03118353  0.00939568  0.45891481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.08425074  0.00824595  0.0151494   0.69631202 -0.07490557  0.05206064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.08869553  0.08383146  0.05184371  0.09787921  0.07985826  0.16935868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.0106349 ]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:22.098970 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:22.402725 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.987500735072,[[244577, 2121], [4043, 242408]],0.999106666469</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:22.892762 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.987510873995,[[81362, 706], [1347, 80968]],0.999099141383</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:23.356152 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.869390919989,[[2497087, 382611], [7668, 100780]],0.960112789126</t>
+  </si>
+  <si>
+    <t>[[ 3.43215595  1.64214076  1.09921478  1.0894701   0.41388736  0.2094534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.18970382  0.0277471   0.32209943  0.01831984 -0.00985783  0.47003697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.09083581  0.01029813  0.02109382  0.71583942 -0.05397663  0.05169866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.10183458  0.07357975  0.04078175  0.0896045   0.08580474  0.18562032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.00988383]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:32.597270 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:32.896645 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.987423679253,[[244487, 2117], [4085, 242460]],0.999087330419</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:33.368474 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.987735958098,[[81445, 717], [1299, 80922]],0.999157291164</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:33.831390 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.870750291318,[[2501166, 378532], [7685, 100763]],0.960341399808</t>
+  </si>
+  <si>
+    <t>[[ 3.40138008  1.65584935  1.08772306  1.08844261  0.40637176  0.2017713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.21144941  0.0396745   0.31925964  0.0303649  -0.02582634  0.46602422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.10201578  0.01014134  0.01592637  0.69978557 -0.08426087  0.05867879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.09505805  0.07817966  0.03408566  0.10099978  0.08135813  0.17959617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.01161119]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:42.053092 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:42.363652 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.987470318301,[[244607, 2124], [4055, 242363]],0.999111893125</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:42.839232 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.987480457225,[[81341, 694], [1364, 80984]],0.999087803325</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:32:43.309345 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.868742022645,[[2495157, 384541], [7677, 100771]],0.959826488543</t>
+  </si>
+  <si>
+    <t>[[ 3.42585931  1.66937649  1.07923326  1.094371    0.41996882  0.20292829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.22728695  0.03925253  0.31259304  0.00982176 -0.01562969  0.46358982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.08390921  0.01358228  0.01628006  0.70942567 -0.07974443  0.06649098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.10651578  0.07768278  0.04645104  0.10019312  0.08386706  0.18891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.00945298]]</t>
+  </si>
+  <si>
+    <t>[64, 60, 24, 28, 16, 32, 54, 55, 36, 42]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:35:44.890846 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:25.211802 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:25.211923 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:27.458108 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:27.583897 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.985357366638,[[243636, 2717], [4504, 242292]],0.998887560662</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:28.035803 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.985010615453,[[81502, 911], [1553, 80417]],0.99888902484</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:28.392825 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.881147373656,[[2532493, 347205], [7944, 100504]],0.961472465858</t>
+  </si>
+  <si>
+    <t>[[ 3.67879801  1.83629201  1.00590861  1.07184938  0.41152048  0.16677448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.31187336  0.09814851  0.35497318 -0.10793652]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:33.572996 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:33.692362 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.985166754875,[[244091, 2730], [4585, 241743]],0.998882099117</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:34.146273 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.985637200927,[[81032, 913], [1448, 80990]],0.998889745376</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:34.504247 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.881687842562,[[2534093, 345605], [7929, 100519]],0.961784807284</t>
+  </si>
+  <si>
+    <t>[[ 3.64660811  1.81599542  1.00299023  1.07101958  0.40904784  0.16531993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.33326362  0.10583326  0.34775754 -0.10023019]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:39.692209 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:39.811669 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.985229616201,[[243856, 2738], [4546, 242009]],0.998876731816</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:40.264381 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.98558245074,[[81294, 878], [1492, 80719]],0.99891830443</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:40.621353 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.881741052813,[[2534306, 345392], [7983, 100465]],0.961640625355</t>
+  </si>
+  <si>
+    <t>[[ 3.72554327  1.81693826  0.99736069  1.06565152  0.4142381   0.18923349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.34320122  0.09888479  0.35247662 -0.11772635]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:45.800257 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:45.920126 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.985422255748,[[243830, 2700], [4489, 242130]],0.998895946096</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:46.371606 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.985004532099,[[81317, 919], [1546, 80601]],0.998840832396</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:36:46.729749 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.881982339551,[[2534994, 344704], [7950, 100498]],0.961924962819</t>
+  </si>
+  <si>
+    <t>[[ 3.68010702  1.81520248  1.0019511   1.07418672  0.41707796  0.18577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.35737571  0.10541383  0.35206118 -0.11160323]]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:41:30.926727 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:10.719713 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:10.720124 Training Random Forest classifier, [3, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:12.909853 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:13.542549 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.984674003192,[[240437, 6151], [1407, 245154]],0.999033795974</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:14.111065 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.985077532348,[[80213, 1965], [488, 81717]],0.999089933116</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:17.868916 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.462285310022,[[1295351, 1584347], [22423, 86025]],0.840149212899</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:22.607647 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:23.253430 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.985941368633,[[241311, 5523], [1410, 244905]],0.999084563402</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:23.822136 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.985521617199,[[80030, 1902], [478, 81973]],0.999077407961</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:27.541820 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.45878246913,[[1283287, 1596411], [20826, 87622]],0.842474280252</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:32.309397 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:32.940422 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.984505697061,[[240192, 6272], [1369, 245316]],0.999017257551</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:33.509349 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.984292779667,[[80155, 2147], [435, 81646]],0.999020164735</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:37.262835 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.461336895854,[[1292537, 1587161], [22443, 86005]],0.840933570484</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:42.022384 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:42.651608 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.985136338105,[[240484, 5928], [1402, 245335]],0.99906305647</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:43.220826 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.984955865266,[[80342, 2012], [461, 81568]],0.998981137323</t>
+  </si>
+  <si>
+    <t>2017-08-09 15:42:46.972881 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.462876311934,[[1297123, 1582575], [22429, 86019]],0.839982411603</t>
   </si>
 </sst>
 </file>
@@ -12712,263 +14575,356 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:S569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329:D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
       <c r="J1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>173</v>
       </c>
       <c r="J2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>174</v>
       </c>
       <c r="J3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>175</v>
       </c>
       <c r="J4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="J5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>177</v>
       </c>
       <c r="J6" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>178</v>
       </c>
       <c r="J7" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>179</v>
       </c>
       <c r="J8" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>180</v>
       </c>
       <c r="J9" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>181</v>
       </c>
       <c r="J10" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
       <c r="J11" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>183</v>
       </c>
       <c r="J12" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>184</v>
       </c>
       <c r="J13" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>185</v>
       </c>
       <c r="J14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>186</v>
       </c>
       <c r="J15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>187</v>
       </c>
       <c r="J16" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>188</v>
       </c>
       <c r="J17" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>189</v>
       </c>
       <c r="J18" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>190</v>
       </c>
       <c r="J19" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>191</v>
       </c>
       <c r="J20" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>192</v>
       </c>
       <c r="J21" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>193</v>
       </c>
       <c r="J22" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>194</v>
       </c>
       <c r="J23" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>195</v>
       </c>
       <c r="J24" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>196</v>
       </c>
       <c r="J25" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>197</v>
       </c>
       <c r="J26" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>198</v>
       </c>
       <c r="J27" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>199</v>
       </c>
       <c r="J28" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>200</v>
       </c>
       <c r="J29" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>201</v>
       </c>
       <c r="J30" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S30" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>195</v>
       </c>
       <c r="J31" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -12976,7 +14932,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>203</v>
       </c>
@@ -12984,7 +14940,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -12992,263 +14948,359 @@
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>205</v>
       </c>
       <c r="J35" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>206</v>
       </c>
       <c r="J36" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S36" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>207</v>
       </c>
       <c r="J37" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S37" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>208</v>
       </c>
       <c r="J38" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S38" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>209</v>
       </c>
       <c r="J39" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S39" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>210</v>
       </c>
       <c r="J40" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S40" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>211</v>
       </c>
       <c r="J41" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>212</v>
       </c>
       <c r="J42" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S42" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>213</v>
       </c>
       <c r="J43" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S43" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>214</v>
       </c>
       <c r="J44" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S44" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>215</v>
       </c>
       <c r="J45" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S45" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>216</v>
       </c>
       <c r="J46" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S46" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>183</v>
       </c>
       <c r="J47" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S47" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>184</v>
       </c>
       <c r="J48" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S48" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>217</v>
       </c>
       <c r="J49" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S49" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>218</v>
       </c>
       <c r="J50" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>187</v>
       </c>
       <c r="J51" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>219</v>
       </c>
       <c r="J52" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>220</v>
       </c>
       <c r="J53" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>190</v>
       </c>
       <c r="J54" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S54" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>221</v>
       </c>
       <c r="J55" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S55" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>222</v>
       </c>
       <c r="J56" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>223</v>
       </c>
       <c r="J57" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S57" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>224</v>
       </c>
       <c r="J58" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S58" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>225</v>
       </c>
       <c r="J59" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>226</v>
       </c>
       <c r="J60" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S60" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>227</v>
       </c>
       <c r="J61" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S61" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>228</v>
       </c>
       <c r="J62" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>229</v>
       </c>
       <c r="J63" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S63" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>230</v>
       </c>
       <c r="J64" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>231</v>
       </c>
       <c r="J65" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>195</v>
       </c>
       <c r="J66" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S66" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -13256,7 +15308,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>232</v>
       </c>
@@ -13264,7 +15316,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>233</v>
       </c>
@@ -13272,7 +15324,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -13280,7 +15332,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>235</v>
       </c>
@@ -13288,7 +15340,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -13296,7 +15348,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>237</v>
       </c>
@@ -13304,7 +15356,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -13312,7 +15364,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>239</v>
       </c>
@@ -13320,7 +15372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>240</v>
       </c>
@@ -13328,7 +15380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>241</v>
       </c>
@@ -13336,7 +15388,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>242</v>
       </c>
@@ -13344,7 +15396,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>243</v>
       </c>
@@ -13352,7 +15404,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -13360,7 +15412,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -13368,7 +15420,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -13376,7 +15428,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -13384,7 +15436,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -13392,7 +15444,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>247</v>
       </c>
@@ -13400,7 +15452,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -13408,794 +15460,3149 @@
         <v>411</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>479</v>
+      </c>
+      <c r="K91" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J129" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J130" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J131" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J132" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J133" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J134" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J135" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J136" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J137" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J141" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J142" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J143" t="s">
+        <v>479</v>
+      </c>
+      <c r="K143" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J144" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J145" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J146" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J147" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J148" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J149" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J150" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J151" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J152" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J153" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J154" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J155" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J156" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J157" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J158" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J159" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J160" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J161" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J162" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J163" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J164" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J165" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J166" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J167" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J168" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J169" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J170" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J171" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J172" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J173" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J174" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J175" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J176" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J177" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J178" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J179" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J180" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J181" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J182" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J183" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J184" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J185" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J186" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J187" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J188" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J189" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J190" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J191" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J192" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J193" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J194" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J195" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J196" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J197" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J198" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J199" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J200" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J201" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J202" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J203" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J204" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J205" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J206" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J207" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J208" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J209" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J210" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J211" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J212" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J213" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J214" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J215" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J216" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J219" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J220" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J221" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J222" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J223" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J224" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J225" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J226" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J227" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J228" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J229" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J230" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J231" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J232" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J233" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J234" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J235" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J236" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J237" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J238" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J239" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J240" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J241" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J242" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J243" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J244" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J245" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J246" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J247" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J248" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J249" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J250" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J251" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J252" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J253" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="J254" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>475</v>
+      </c>
+      <c r="J255" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J256" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J257" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>477</v>
+      </c>
+      <c r="J258" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>478</v>
+      </c>
+      <c r="J259" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>479</v>
+      </c>
+      <c r="B260" t="s">
+        <v>480</v>
+      </c>
+      <c r="J260" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>481</v>
+      </c>
+      <c r="J261" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>482</v>
+      </c>
+      <c r="J262" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>483</v>
+      </c>
+      <c r="J263" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>484</v>
+      </c>
+      <c r="J264" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>485</v>
+      </c>
+      <c r="J265" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>486</v>
+      </c>
+      <c r="J266" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>487</v>
+      </c>
+      <c r="J267" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>488</v>
+      </c>
+      <c r="J268" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>489</v>
+      </c>
+      <c r="J269" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>490</v>
+      </c>
+      <c r="J270" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>491</v>
+      </c>
+      <c r="J271" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>492</v>
+      </c>
+      <c r="J272" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>493</v>
+      </c>
+      <c r="J273" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>494</v>
+      </c>
+      <c r="J274" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>495</v>
+      </c>
+      <c r="J275" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>496</v>
+      </c>
+      <c r="J276" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>497</v>
+      </c>
+      <c r="J277" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>498</v>
+      </c>
+      <c r="J278" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>499</v>
+      </c>
+      <c r="J279" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>500</v>
+      </c>
+      <c r="J280" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>501</v>
+      </c>
+      <c r="J281" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>502</v>
+      </c>
+      <c r="J282" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>503</v>
+      </c>
+      <c r="J283" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>504</v>
+      </c>
+      <c r="J284" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>505</v>
+      </c>
+      <c r="J285" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>506</v>
+      </c>
+      <c r="J286" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>507</v>
+      </c>
+      <c r="J287" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>508</v>
+      </c>
+      <c r="J288" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>509</v>
+      </c>
+      <c r="J289" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>510</v>
+      </c>
+      <c r="J290" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J291" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J292" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>511</v>
+      </c>
+      <c r="J293" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>512</v>
+      </c>
+      <c r="J294" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>479</v>
+      </c>
+      <c r="B295" t="s">
+        <v>480</v>
+      </c>
+      <c r="J295" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>513</v>
+      </c>
+      <c r="J296" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>514</v>
+      </c>
+      <c r="J297" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>515</v>
+      </c>
+      <c r="J298" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>516</v>
+      </c>
+      <c r="J299" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>517</v>
+      </c>
+      <c r="J300" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>518</v>
+      </c>
+      <c r="J301" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>519</v>
+      </c>
+      <c r="J302" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>520</v>
+      </c>
+      <c r="J303" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>521</v>
+      </c>
+      <c r="J304" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>522</v>
+      </c>
+      <c r="J305" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>523</v>
+      </c>
+      <c r="J306" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>524</v>
+      </c>
+      <c r="J307" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>525</v>
+      </c>
+      <c r="J308" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>526</v>
+      </c>
+      <c r="J309" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>527</v>
+      </c>
+      <c r="J310" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>528</v>
+      </c>
+      <c r="J311" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>529</v>
+      </c>
+      <c r="J312" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>530</v>
+      </c>
+      <c r="J313" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>531</v>
+      </c>
+      <c r="J314" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>532</v>
+      </c>
+      <c r="J315" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>533</v>
+      </c>
+      <c r="J316" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>534</v>
+      </c>
+      <c r="J317" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>535</v>
+      </c>
+      <c r="J318" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>536</v>
+      </c>
+      <c r="J319" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>537</v>
+      </c>
+      <c r="J320" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>538</v>
+      </c>
+      <c r="J321" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>539</v>
+      </c>
+      <c r="J322" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>540</v>
+      </c>
+      <c r="J323" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>541</v>
+      </c>
+      <c r="J324" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>542</v>
+      </c>
+      <c r="J325" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J326" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J327" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J328" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J329" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J330" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>479</v>
+      </c>
+      <c r="B331" t="s">
+        <v>480</v>
+      </c>
+      <c r="J331" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J332" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J333" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J334" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J335" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J336" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J337" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J338" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J339" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J340" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J341" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J342" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J343" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J344" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J345" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J346" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J347" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J348" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J349" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J350" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J351" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J352" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J353" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J354" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J355" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J356" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J357" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J358" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J359" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J360" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J361" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J362" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J363" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J364" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J365" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J366" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J367" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J368" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="369" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J369" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="370" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J370" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="371" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J371" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="372" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J372" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="373" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J373" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="374" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J374" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="375" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J375" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="376" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J376" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="377" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J377" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="378" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J378" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="379" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J379" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="380" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J380" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="381" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J381" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="382" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J382" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="383" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J383" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="384" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J384" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="385" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J385" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="386" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J386" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="387" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J387" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="388" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J388" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="389" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J389" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="390" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J390" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="391" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J391" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="392" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J392" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="393" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J393" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="394" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J394" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="395" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J395" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="396" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J396" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="397" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J397" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="398" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J398" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="399" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J399" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="400" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J400" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="401" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J401" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="402" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J402" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="403" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J403" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="404" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J404" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="405" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J405" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="406" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J406" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="407" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J407" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="408" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J408" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="409" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J409" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="410" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J410" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="411" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J411" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="412" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J412" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="413" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J413" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="414" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J414" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="415" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J415" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="416" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J416" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="417" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J417" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="418" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J418" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="419" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J419" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="420" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J420" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="421" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J421" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="422" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J422" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="423" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J423" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="424" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J424" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="429" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J429" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="430" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J430" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="431" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J431" t="s">
+        <v>479</v>
+      </c>
+      <c r="K431" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="432" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J432" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="433" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J433" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="434" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J434" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="435" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J435" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="436" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J436" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="437" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J437" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="438" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J438" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="439" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J439" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="440" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J440" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="441" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J441" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="442" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J442" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="443" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J443" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="444" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J444" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="445" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J445" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="446" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J446" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="447" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J447" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="448" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J448" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="449" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J449" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="450" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J450" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="451" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J451" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="452" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J452" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="453" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J453" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="454" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J454" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="455" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J455" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="456" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J456" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="457" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J457" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="458" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J458" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="459" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J459" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="460" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J460" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="461" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J461" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="462" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J462" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="463" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J463" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="464" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J464" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="465" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J465" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="466" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J466" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="467" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J467" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="468" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J468" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="469" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J469" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="473" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J473" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="474" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J474" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="475" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J475" t="s">
+        <v>479</v>
+      </c>
+      <c r="K475" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="476" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J476" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="477" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J477" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="478" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J478" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="479" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J479" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="480" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J480" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="481" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J481" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="482" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J482" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="483" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J483" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="484" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J484" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="485" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J485" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="486" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J486" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="487" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J487" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="488" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J488" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="489" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J489" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="490" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J490" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="491" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J491" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="492" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J492" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="493" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J493" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="494" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J494" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="495" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J495" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="496" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J496" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="497" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J497" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="498" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J498" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="499" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J499" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="500" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J500" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="501" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J501" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="502" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J502" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="503" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J503" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="504" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J504" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="505" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J505" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="506" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J506" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="507" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J507" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="508" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J508" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="509" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J509" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="510" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J510" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="511" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J511" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="512" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J512" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="513" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J513" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="514" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J514" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="515" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J515" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="516" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J516" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="517" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J517" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="518" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J518" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="519" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J519" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="520" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J520" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="521" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J521" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="522" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J522" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="523" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J523" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="524" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J524" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="525" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J525" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="529" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J529" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="530" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J530" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="531" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J531" t="s">
+        <v>479</v>
+      </c>
+      <c r="K531" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="532" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J532" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="533" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J533" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="534" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J534" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="535" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J535" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="536" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J536" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="537" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J537" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="538" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J538" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="539" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J539" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="540" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J540" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="541" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J541" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="542" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J542" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="543" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J543" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="544" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J544" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="545" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J545" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="546" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J546" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="547" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J547" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="548" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J548" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="549" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J549" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="550" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J550" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="551" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J551" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="552" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J552" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="553" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J553" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="554" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J554" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="555" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J555" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="556" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J556" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="557" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J557" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="558" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J558" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="559" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J559" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="560" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J560" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="561" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J561" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="562" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J562" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="563" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J563" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="564" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J564" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="565" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J565" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="566" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J566" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="567" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J567" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="568" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J568" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="569" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J569" t="s">
+        <v>1066</v>
       </c>
     </row>
   </sheetData>

--- a/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
+++ b/hackerearth_ml3_adclick/analysis_graphs/model_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9768" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="4"/>
+    <workbookView xWindow="13320" yWindow="0" windowWidth="18312" windowHeight="7224" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$W$4:$Y$220</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="2048">
   <si>
     <t>Model</t>
   </si>
@@ -3325,6 +3326,2856 @@
   </si>
   <si>
     <t>3,Unseen,0.462876311934,[[1297123, 1582575], [22429, 86019]],0.839982411603</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:21:07.349172 Reading Data</t>
+  </si>
+  <si>
+    <t>((657532, 73), (657532,))</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:21:49.076152 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:21:49.076628 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:21:53.802151 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:21:55.064172 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.991248081209,[[242550, 4066], [250, 246283]],0.999425064423</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:21:55.688688 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.991069636155,[[80783, 1367], [101, 82132]],0.999414658047</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:00.499061 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.755368044266,[[2174742, 704956], [26040, 82408]],0.888887685256</t>
+  </si>
+  <si>
+    <t>[  0.00000000e+00   3.30070692e-03   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.57114942e-06   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   3.50525904e-05   2.13851624e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.22298740e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   4.14466648e-03   1.61682759e-03   2.41217784e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.57257978e-03   4.64305740e-03   3.19503633e-03   4.52700189e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.15607407e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   0.00000000e+00   2.62347094e-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.33939413e-02   0.00000000e+00   0.00000000e+00   2.33768673e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.03704300e-02   0.00000000e+00   2.43517832e-03   5.35151002e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.58444372e-01   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.81264611e-07   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.12012044e-03   0.00000000e+00   2.60911397e-04   1.35006581e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.93555374e-01   0.00000000e+00   1.12769534e-02   2.37839170e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.27190694e-02   1.50512833e-05   1.88408748e-03   9.93440930e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.37319364e-01]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:08.051995 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:09.320165 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.990947969072,[[242303, 4199], [265, 246382]],0.999354428162</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:09.943984 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.990595134533,[[80813, 1451], [95, 82024]],0.999216589589</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:14.760320 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.731752062985,[[2093546, 786152], [15412, 93036]],0.896324342386</t>
+  </si>
+  <si>
+    <t>[  0.00000000e+00   3.09535976e-03   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.95035960e-06   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.27200138e-03   0.00000000e+00   2.97209050e-05   2.17062143e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.69589904e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   4.17139335e-03   1.53406937e-03   1.72737792e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.08582109e-03   6.98157611e-03   2.61868361e-03   4.37323699e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.83592869e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.33942823e-02   0.00000000e+00   0.00000000e+00   2.38367809e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.09718304e-02   0.00000000e+00   2.56533120e-03   5.23281728e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.58558831e-01   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.24177536e-04   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.20717850e-03   2.06770688e-07   2.59964000e-04   1.28185985e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.95861958e-01   2.43550310e-07   1.05065662e-02   2.13032466e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.08251622e-02   1.19414973e-05   1.87190150e-03   9.13617455e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.38285991e-01]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:22.453782 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:23.726928 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.990810079712,[[242603, 4274], [258, 246014]],0.999418477113</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:24.363121 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.991081802863,[[80504, 1385], [81, 82413]],0.999451146371</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:29.232289 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.744283244527,[[2131236, 748462], [15657, 92791]],0.892540178404</t>
+  </si>
+  <si>
+    <t>[  0.00000000e+00   3.19740797e-03   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.50242684e-05   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   3.53468562e-05   2.17504997e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.37808493e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   3.95810054e-03   1.55223314e-03   3.71984485e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.49320401e-03   4.68795961e-03   2.65278751e-03   4.45887211e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.03339195e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.75426096e-04   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   6.87256701e-09   1.30554011e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.32063087e-02   0.00000000e+00   0.00000000e+00   2.40690177e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.08892062e-02   0.00000000e+00   2.37264107e-03   5.30171722e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.57999220e-01   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.09476352e-03   0.00000000e+00   2.95858093e-04   1.32858581e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.93851064e-01   1.68978189e-08   1.12156247e-02   2.38760212e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.27614424e-02   6.60275792e-06   1.97170804e-03   9.92048141e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.37950483e-01]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:36.437639 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:37.700698 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.992529641143,[[242935, 3368], [316, 246530]],0.9993463991</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:38.324943 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.992626974809,[[81336, 1127], [85, 81835]],0.999417881684</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:22:43.124299 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.770319120953,[[2219268, 660430], [25890, 82558]],0.895280785343</t>
+  </si>
+  <si>
+    <t>[  0.00000000e+00   4.37214916e-03   8.43853309e-08   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.33985266e-05   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   2.18760563e-05   2.08134389e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.04378203e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   4.11779530e-03   8.61112001e-04   1.17088498e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.70282612e-05   4.44439953e-03   2.72200834e-03   6.90253521e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.15148925e-03   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000000e+00   0.00000000e+00   0.00000000e+00   1.23352971e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.31227528e-02   0.00000000e+00   0.00000000e+00   2.49000803e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.03179883e-02   0.00000000e+00   1.98927123e-03   5.24257723e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.60374630e-01   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.10408541e-02   0.00000000e+00   0.00000000e+00   0.00000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.77463738e-04   0.00000000e+00   2.63499923e-04   1.27691391e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.94425862e-01   2.12630562e-06   1.09096297e-02   2.10416489e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.21247492e-02   1.00650315e-05   2.05211716e-03   9.13755753e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.37642385e-01]</t>
+  </si>
+  <si>
+    <t>[68, 64, 24, 60, 28, 72, 23, 27, 59, 56, 44, 22, 52, 21, 48, 58, 26, 57, 25, 47, 45, 46, 12, 9, 10, 11, 16, 32, 54, 55]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:49:57.334607 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:39.745090 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:39.745194 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:47.461604 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:47.772589 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.98909862942,[[244101, 2063], [3313, 243672]],0.999369493589</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:48.235329 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.989372380356,[[81975, 627], [1120, 80661]],0.999400088893</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:48.724363 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.84923527833,[[2436124, 443574], [6933, 101515]],0.9627489907</t>
+  </si>
+  <si>
+    <t>[[ 2.39851835  1.25200896  1.11230669  1.25510474  3.46611399  0.75866074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.59606623 -2.38024511 -0.15367816  0.07971253  0.0036793  -0.20075455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.54396901 -0.25001488  0.15721054  0.05351116 -0.11003692  0.04986859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.20237145  0.47368853 -0.0846947  -0.17102313 -0.1500043   1.24155565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.72633629 -2.34473482  0.0794437   0.1923499   0.06889409  0.04680646]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:59.151674 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:59.439090 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.989218268718,[[244417, 2032], [3285, 243415]],0.999379791277</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:50:59.904727 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.98917162967,[[81600, 717], [1063, 81003]],0.999369240975</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:00.397161 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.846724691498,[[2428502, 451196], [6813, 101635]],0.962862857869</t>
+  </si>
+  <si>
+    <t>[[ 2.43697042  1.24244768  1.07588642  1.22471171  3.15077329  0.77092697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.57294765 -2.09649749 -0.1337475   0.1260035  -0.01687415 -0.16887388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.54688406 -0.21698717  0.14863035  0.00694668 -0.17101089  0.00328008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.2535185   0.46126854 -0.07107061 -0.15338413 -0.08962257  1.25782956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.76056776 -2.46011914  0.08489056  0.13407261  0.07153815  0.03186254]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:10.870808 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:11.164202 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.989307491245,[[245122, 2001], [3272, 242754]],0.99938694206</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:11.627378 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.988903962089,[[80930, 713], [1111, 81629]],0.999351558025</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:12.117266 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.849557217084,[[2437011, 442687], [6858, 101590]],0.963060854627</t>
+  </si>
+  <si>
+    <t>[[ 2.43326296  1.24153782  1.15840677  1.27349876  3.17736643  0.77116101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.63570516 -2.11419805 -0.16058144  0.09676462 -0.01244279 -0.21123601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.53281947 -0.26180197  0.12460166  0.07203835 -0.15651919  0.06843415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.23946956  0.66606531 -0.15843959 -0.28587149 -0.06577474  1.26500869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.77226199 -2.48616641  0.10704888  0.14049059  0.05576171  0.04749357]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:22.136380 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:22.427613 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.989193935302,[[244501, 2061], [3268, 243319]],0.999376352258</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:22.888228 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.989220296503,[[81534, 670], [1102, 81077]],0.999383927997</t>
+  </si>
+  <si>
+    <t>2017-08-10 06:51:23.376918 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.848201861623,[[2432958, 446740], [6855, 101593]],0.962843641737</t>
+  </si>
+  <si>
+    <t>[[ 2.45665185  1.23576725  0.89893441  1.03924678  2.93365619  0.76523318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.25104384 -1.88254179 -0.12844252  0.09484344  0.01024517 -0.24643609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.54104263 -0.28638065  0.15846055  0.06562045 -0.17375285  0.06283782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.24816192  0.5642323  -0.12393956 -0.23031038 -0.1891453   1.25072863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.73549197 -2.33580216  0.09333058  0.13395531  0.06887914  0.04494069]]</t>
+  </si>
+  <si>
+    <t>[44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:51:59.631622 Reading Data</t>
+  </si>
+  <si>
+    <t>((657532</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (657532</t>
+  </si>
+  <si>
+    <t>))</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:40.742882 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:40.742998 Training Logistic Regression classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:42.871996 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:42.966144 KF_Index</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Confusion_Matrix</t>
+  </si>
+  <si>
+    <t>[[240695</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5620]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8610</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 238224]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:43.420706 KF_Index</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>[[80588</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1863]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2815</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79117]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:43.751344 KF_Index</t>
+  </si>
+  <si>
+    <t>Unseen</t>
+  </si>
+  <si>
+    <t>[[2714814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 164884]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [17184</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91264]]</t>
+  </si>
+  <si>
+    <t>[[ 0.49708417  1.06888776  0.76835575  0.4041706   6.23987256 -0.76106284]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:50.381314 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:50.476741 KF_Index</t>
+  </si>
+  <si>
+    <t>[[240998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5676]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8687</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 237788]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:50.993203 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1834]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2894</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79397]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:51.465530 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2717242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 162456]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [17364</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91084]]</t>
+  </si>
+  <si>
+    <t>[[ 0.49325856  1.06456584  0.76753329  0.4063453   5.98884618 -0.74969943]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:56.855341 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:56.947421 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5561]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 237865]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:57.407191 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1901]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79524]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:52:57.740203 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2714406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 165292]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [17178</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91270]]</t>
+  </si>
+  <si>
+    <t>[[ 0.50490802  1.06646131  0.76544235  0.40571507  6.29355566 -0.73308166]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:53:03.001993 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:53:03.086275 KF_Index</t>
+  </si>
+  <si>
+    <t>[[240977</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5559]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 238064]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:53:03.533285 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80363</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1867]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2872</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79281]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:53:03.951377 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2715494</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 164204]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [17263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91185]]</t>
+  </si>
+  <si>
+    <t>[[ 0.49483474  1.0672975   0.76346247  0.40683262  6.30009267 -0.74359981]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:53:47.343363 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:28.456255 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:28.456371 Training Logistic Regression classifier</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:30.839133 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:30.951790 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5217]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 239483]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:31.414593 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1744]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79786]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:31.781630 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2724928</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 154770]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [14873</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93575]]</t>
+  </si>
+  <si>
+    <t>[[ 0.47037687  0.79476038  0.80269753  0.41377331  6.12216647 -0.73090389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04471007 -0.86991253]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:37.662028 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:37.764725 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5218]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 239132]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:38.269118 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1726]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2530</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79903]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:38.746527 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2727640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 152058]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [15078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93370]]</t>
+  </si>
+  <si>
+    <t>[[ 0.48750836  0.80303063  0.79597198  0.41677304  5.96246402 -0.72836592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04165204 -0.86322915]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:43.986958 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:44.089353 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5200]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 239605]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:44.598869 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1794]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79708]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:45.069389 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2724464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 155234]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [14862</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93586]]</t>
+  </si>
+  <si>
+    <t>[[ 0.48521866  0.79619925  0.80549897  0.41353786  6.15021714 -0.71379774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04204305 -0.858996  ]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:50.317887 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:50.421594 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241298</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5250]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7163</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 239438]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:50.925829 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1703]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79829]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:54:51.262793 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2724611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 155087]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [14808</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93640]]</t>
+  </si>
+  <si>
+    <t>[[ 0.48203933  0.78953224  0.78796099  0.4141348   6.13573855 -0.71951299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04735543 -0.86832596]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:07:59.280301 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:41.258309 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:41.258422 Training Logistic Regression classifier</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:46.200115 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:46.414958 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241095</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5221]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241461]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:46.892115 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80739</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1711]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80131]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:47.356781 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2715401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 164297]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96695]]</t>
+  </si>
+  <si>
+    <t>[[  1.26979082e-01   1.27409046e-01   1.01824087e+00   8.48846019e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.44041991e+00  -1.51667378e-01   2.13378842e+00  -1.21007844e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.91589366e-01   3.92834554e-01   5.36380406e+00  -8.89758218e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.32052760e-01   1.24790593e-04   3.30598333e-01   1.89350394e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.70356136e-01  -4.13020155e-03  -3.20713029e-01   9.21417576e-01]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:56.315350 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:56.541891 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241140</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5228]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241414]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:57.002424 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80590</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1808]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1791</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80194]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:08:57.442857 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2712604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 167094]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11639</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96809]]</t>
+  </si>
+  <si>
+    <t>[[ 0.12913459  0.10985914  1.07591617  0.86574432 -1.50683084 -0.1412665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.16214925 -1.22775918  0.60227711  0.40226772  5.29755974 -0.07610301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.12091203 -0.00683527  0.31994461  0.01612406 -0.27191261 -0.01088556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.32296715  0.92799972]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:05.450902 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:05.667882 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241764</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5231]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5413</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 240741]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:06.131855 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1743]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80820]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:06.572730 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2714392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 165306]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11721</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96727]]</t>
+  </si>
+  <si>
+    <t>[[  1.35101369e-01   1.07622517e-01   1.19569213e+00   9.61089269e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.69717508e+00  -1.58112896e-01   1.89541731e+00  -9.90786644e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.98075059e-01   3.99571660e-01   5.30989408e+00  -7.21914086e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.22458371e-01   6.72853998e-03   3.27161306e-01   2.61593168e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.98828688e-01   2.37538851e-03  -3.41293845e-01   9.18164015e-01]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:14.944482 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:15.160576 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5190]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241107]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:15.621480 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80453</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1694]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1833</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80403]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 07:09:16.046657 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2718154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 161544]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11913</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96535]]</t>
+  </si>
+  <si>
+    <t>[[ 0.13061128  0.10556216  1.07263222  0.84246099 -1.47554997 -0.1469192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.19024378 -1.25036882  0.59857145  0.39882129  5.35543159 -0.07553123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.11942513 -0.01983104  0.33690475  0.02053413 -0.26218232 -0.02420279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.31394229  0.91236594]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:00:53.742476 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:35.087235 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:35.087352 Training Logistic Regression classifier</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:37.688849 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:37.811608 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241440</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5225]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 240870]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:38.278472 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1785]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80348]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:38.681872 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2699481</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 180217]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96864]]</t>
+  </si>
+  <si>
+    <t>[[ 0.2970577   0.79417236  0.72765509  0.39999338  5.68714359 -0.49744289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04149912 -0.86216718  0.96763306]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:44.800649 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:44.918443 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5303]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5724</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241016]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:45.382168 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80208]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:45.760073 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2697030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 182668]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96879]]</t>
+  </si>
+  <si>
+    <t>[[ 0.30569095  0.79644869  0.72988513  0.39114476  5.60226506 -0.47927835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.03180043 -0.84960894  0.97860761]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:51.786738 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:51.902806 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5271]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5647</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241007]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:52.366300 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1877</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80235]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:52.726644 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2697933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 181765]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11563</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96885]]</t>
+  </si>
+  <si>
+    <t>[[ 0.30204204  0.79633773  0.73551806  0.39403735  5.62285984 -0.48390899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.03897734 -0.85870172  0.97543339]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:58.263017 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:58.375785 KF_Index</t>
+  </si>
+  <si>
+    <t>[[241365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5364]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5736</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 240684]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:58.826707 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1750]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1932</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80414]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:01:59.177107 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2698002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 181696]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11780</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96668]]</t>
+  </si>
+  <si>
+    <t>[[ 0.30419611  0.80215737  0.75217193  0.39870164  5.44072085 -0.46334086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.04007364 -0.85455736  0.97354215]]</t>
+  </si>
+  <si>
+    <t>[0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:02:33.876317 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:16.015326 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:16.015608 Training Random Forest classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:20.153225 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:22.061975 KF_Index</t>
+  </si>
+  <si>
+    <t>[[242558</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3900]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [379</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 246312]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:22.989457 KF_Index</t>
+  </si>
+  <si>
+    <t>[[81057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1251]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81950]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:33.692422 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2111490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 768208]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [21701</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86747]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:40.513151 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:42.422911 KF_Index</t>
+  </si>
+  <si>
+    <t>[[242837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3749]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 246223]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:43.451360 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80873</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1307]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82078]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:03:54.352008 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2124787</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 754911]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [21738</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86710]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:01.096553 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:02.973150 KF_Index</t>
+  </si>
+  <si>
+    <t>[[242847</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3699]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [481</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 246122]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:03.901318 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80989</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1231]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82015]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:14.619456 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2116038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 763660]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [21756</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86692]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:21.464295 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:23.374856 KF_Index</t>
+  </si>
+  <si>
+    <t>[[242868</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3840]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 246154]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:24.338476 KF_Index</t>
+  </si>
+  <si>
+    <t>[[80768</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1290]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82217]]</t>
+  </si>
+  <si>
+    <t>2017-08-10 08:04:35.277048 KF_Index</t>
+  </si>
+  <si>
+    <t>[[2112083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 767615]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [21697</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86751]]</t>
+  </si>
+  <si>
+    <t>[76, 80, 92, 96, 24, 23, 95, 72, 68, 28, 71, 27, 67, 88, 75, 52, 64, 36, 104, 22]</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:23:07.048437 Reading Data</t>
+  </si>
+  <si>
+    <t>((657532, 109), (657532,))</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:13.843996 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:13.844124 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:18.926176 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:19.143859 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.975102859379,[[241414, 5117], [7161, 239457]],0.997058978915</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:19.595640 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.975605749986,[[80545, 1690], [2320, 79828]],0.997030856734</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:20.016111 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.949576760975,[[2744900, 134798], [15874, 92574]],0.970437324598</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:27.983633 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:28.195737 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.975188026337,[[241712, 5126], [7110, 239201]],0.99702420932</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:28.649127 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.975185998552,[[80215, 1713], [2366, 80089]],0.997073074307</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:29.080187 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.949772869197,[[2745556, 134142], [15944, 92504]],0.970422448191</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:37.099890 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:37.311867 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.975196137476,[[241190, 5086], [7146, 239727]],0.99704306078</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:37.765066 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.975173831844,[[80779, 1711], [2370, 79523]],0.997040726693</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:38.185862 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.949899703696,[[2745905, 133793], [15914, 92534]],0.97049187268</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:46.173995 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:46.386410 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.975303610065,[[241525, 5128], [7051, 239445]],0.997053602853</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:46.838518 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.974802747243,[[80408, 1705], [2437, 79833]],0.997025145826</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:24:47.261147 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.949122633231,[[2743446, 136252], [15777, 92671]],0.970388160976</t>
+  </si>
+  <si>
+    <t>[76]</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:40:35.647415 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:39.175169 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:39.175271 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:40.486947 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:40.526031 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.853995445596,[[221782, 25166], [46836, 199365]],0.914343807893</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:40.974041 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.853421582524,[[73407, 8411], [15684, 66881]],0.91459541408</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:41.284153 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.895699875441,[[2588968, 290730], [20934, 87514]],0.91488102859</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:45.547690 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:45.581220 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.853579749731,[[221105, 25301], [46906, 199837]],0.914220932653</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:46.018048 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.854668670118,[[74084, 8276], [15614, 66409]],0.914966104418</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:46.328864 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.895699875441,[[2588968, 290730], [20934, 87514]],0.91488102859</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:50.623126 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:50.658417 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.853890000791,[[221410, 25147], [46907, 199685]],0.91435138538</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:51.096389 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.853737916938,[[73779, 8430], [15613, 66561]],0.914574243664</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:51.407530 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.895699875441,[[2588968, 290730], [20934, 87514]],0.91488102859</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:55.642860 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:55.676672 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.853942723193,[[221270, 25117], [46911, 199851]],0.914713706498</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:56.113409 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.853579749731,[[73919, 8460], [15609, 66395]],0.913488391172</t>
+  </si>
+  <si>
+    <t>2017-08-10 14:41:56.419853 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.895699875441,[[2588968, 290730], [20934, 87514]],0.91488102859</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:03.150034 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:03.150141 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:04.624438 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:04.670934 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.889619567311,[[219008, 27422], [27012, 219707]],0.962401527924</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:05.146396 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.888875370324,[[72963, 9373], [8894, 73153]],0.961545450973</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:05.475308 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.888232368833,[[2557594, 322104], [11874, 96574]],0.962473173048</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:10.092728 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:10.143214 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.889059898732,[[218811, 27626], [27084, 219628]],0.962058338673</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:10.606933 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.890067707731,[[73326, 9003], [9068, 72986]],0.962563556224</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:10.932289 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.888744392008,[[2559197, 320501], [11947, 96501]],0.962468138477</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:15.698462 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:15.741327 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.889554678201,[[219097, 27488], [26978, 219586]],0.962175410369</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:16.207084 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.888759786596,[[73100, 9081], [9205, 72997]],0.962212276301</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:16.534884 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.888918747611,[[2559743, 319955], [11972, 96476]],0.962464345088</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:21.143853 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:21.183802 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.889209954801,[[219382, 27464], [27172, 219131]],0.962105781202</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:21.645990 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.889897373816,[[72721, 9199], [8900, 73563]],0.962419919474</t>
+  </si>
+  <si>
+    <t>2017-08-10 15:30:21.954753 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.888634624948,[[2558848, 320850], [11926, 96522]],0.962467334458</t>
+  </si>
+  <si>
+    <t>[76, 92]</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:37:04.945169 Reading Data</t>
+  </si>
+  <si>
+    <t>((1315064, 109), (1315064,))</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:23.579567 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:23.579694 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:26.546193 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:26.613333 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.913318287171,[[712897, 26942], [58552, 187907]],0.962085917893</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:27.575595 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.912886369028,[[237419, 9040], [19600, 62707]],0.961698802629</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:28.050209 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.958323321551,[[2781432, 98266], [26270, 82178]],0.962475616296</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:35.142136 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:35.202337 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.913123619839,[[712819, 27074], [58612, 187793]],0.961952397521</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:36.166016 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.913449079284,[[237476, 8929], [19526, 62835]],0.962097958234</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:36.652196 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.958304246178,[[2781372, 98326], [26267, 82181]],0.962474858909</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:42.485304 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:42.544662 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.91325745363,[[712439, 27040], [58514, 188305]],0.962004482023</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:43.505724 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.912935035861,[[237828, 8991], [19633, 62314]],0.961936080858</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:43.978571 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.958290525296,[[2781341, 98357], [26277, 82171]],0.962470329808</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:49.825618 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:49.883669 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.91309827253,[[712679, 27004], [58707, 187908]],0.961912278494</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:50.846093 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.913552496304,[[237565, 9050], [19371, 62780]],0.962221956262</t>
+  </si>
+  <si>
+    <t>2017-08-10 16:38:51.327537 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.958254717139,[[2781204, 98494], [26247, 82201]],0.962476840785</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:28:38.824133 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:29:57.370219 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:29:57.370345 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 492840, 164692)</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:00.362138 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:00.428951 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.889409691594,[[438328, 55130], [53945, 438895]],0.962413454883</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:01.333049 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.888583369327,[[145663, 18411], [18219, 146473]],0.961979357364</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:01.798153 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.888457592099,[[2558318, 321380], [11925, 96523]],0.962475071421</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493003, 164529)</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:07.519539 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:07.577773 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.888882467571,[[438000, 55295], [54300, 438703]],0.962144843073</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:08.486133 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.889988624128,[[146087, 18150], [18018, 146511]],0.962786587792</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:08.949029 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.888532554969,[[2558567, 321131], [11950, 96498]],0.962477354478</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493162, 164370)</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:14.659694 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:14.718060 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.889315399605,[[438015, 55121], [54047, 439115]],0.96233975428</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:15.628061 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.88897270399,[[145881, 18515], [17987, 146383]],0.962204971516</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:16.087017 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.888252448174,[[2557684, 322014], [11904, 96544]],0.962478571955</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493591, 163941)</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:21.818261 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:21.877756 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.889245441033,[[437539, 55168], [54069, 439522]],0.962324027169</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:22.793055 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.889285996727,[[146327, 18498], [17901, 146040]],0.962250256222</t>
+  </si>
+  <si>
+    <t>2017-08-10 23:30:23.259212 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.888226345031,[[2557599, 322099], [11897, 96551]],0.962477868507</t>
+  </si>
+  <si>
+    <t>[76, 80, 92, 96, 24, 95, 72, 68, 28, 36]</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:09:32.342679 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:10:49.190144 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:10:49.190969 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493430, 164102)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:10:58.503372 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:10:58.660926 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.899674337776,[[431211, 61657], [37294, 456136]],0.966847032312</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:10:59.607599 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.899028488347,[[143846, 20818], [12378, 151724]],0.966928218189</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:00.119051 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.877837629085,[[2523272, 356426], [8613, 99835]],0.966063768779</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493142, 164390)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:11.933004 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:12.079636 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.899547601232,[[431276, 61880], [37196, 455946]],0.967059502399</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:13.029966 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.899402614626,[[143983, 20393], [12680, 151710]],0.966278985021</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:13.542327 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.878070214775,[[2523989, 355709], [8635, 99813]],0.966057294756</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493149, 164383)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:27.319002 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:29.119729 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.899530365062,[[431752, 61397], [37696, 455453]],0.966769251868</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:30.074877 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.900102200349,[[143856, 20527], [12316, 152067]],0.96717424453</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:30.598981 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.878806122592,[[2526229, 353469], [8676, 99772]],0.966070034948</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 492875, 164657)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:42.645842 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:42.803377 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.899574976326,[[431903, 61520], [37529, 455346]],0.966802699067</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:43.755998 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.89980107432,[[143704, 20405], [12537, 152120]],0.967081482164</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:11:44.269361 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.878694682254,[[2525896, 353802], [8676, 99772]],0.966078636356</t>
+  </si>
+  <si>
+    <t>[76, 92, 24, 95, 68, 28, 27, 67, 16]</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:24:58.089058 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:15.182161 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:15.182277 Training Logistic Regression classifier, [10, 'l2']</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493079, 164453)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:19.961007 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:20.107945 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.930136733523,[[465844, 27375], [41531, 451548]],0.980142196912</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:21.040794 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.93036384541,[[155242, 9071], [13823, 150630]],0.980356083346</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:21.549252 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.939255645474,[[2713515, 166183], [15330, 93118]],0.967772589242</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 492914, 164618)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:29.277788 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:29.417253 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.930213789342,[[466102, 27282], [41548, 451366]],0.98022167807</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:30.373093 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.930093136152,[[155001, 9147], [13836, 150782]],0.980114449165</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:30.891447 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.93933629749,[[2713760, 165938], [15334, 93114]],0.967806932996</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493398, 164134)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:38.691284 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:38.829489 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.930310109115,[[465594, 27306], [41429, 451969]],0.980210057299</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:39.767843 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.929755509998,[[155431, 9201], [13893, 150241]],0.980162608213</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:40.268752 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.939191726241,[[2713291, 166407], [15297, 93151]],0.967868597293</t>
+  </si>
+  <si>
+    <t>(986298, 328766, 493205, 164327)</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:47.969755 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:48.104414 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.930144844662,[[465674, 27419], [41479, 451726]],0.980212929477</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:49.047980 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.930668013116,[[155410, 9029], [13765, 150562]],0.980144464534</t>
+  </si>
+  <si>
+    <t>2017-08-11 00:26:49.557950 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.939314210216,[[2713692, 166006], [15332, 93116]],0.967762929722</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:07:59.802726 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:18.003596 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:18.004037 Training Random Forest classifier, [4, 10, 10, 10]</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:24.131327 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:25.463161 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.910351638146,[[447365, 45375], [43045, 450513]],0.969540767827</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:26.696012 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.909662191346,[[149407, 15385], [14315, 149659]],0.968985882394</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:30.688148 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.906969070454,[[2611476, 268222], [9768, 98680]],0.968615782872</t>
+  </si>
+  <si>
+    <t>[ 0.31759177  0.32399663  0.14786706  0.08917403  0.02038547  0.00136941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00835446  0.02800716  0.04656993  0.01668408]</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:39.296323 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:40.616124 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.910177248661,[[448376, 44807], [43785, 449330]],0.969352827058</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:41.817108 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.910571652786,[[149463, 14886], [14515, 149902]],0.96939928947</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:45.833154 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.909325046367,[[2618849, 260849], [10101, 98347]],0.968586550299</t>
+  </si>
+  <si>
+    <t>[ 0.31855214  0.32449804  0.14778693  0.08881786  0.02067631  0.00140337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00769127  0.02813755  0.04651672  0.01591981]</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:54.819324 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:56.136771 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.910362790962,[[449009, 44281], [44128, 448880]],0.969472354566</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:09:57.332195 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.910154943029,[[149550, 14692], [14846, 149678]],0.969580253891</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:10:01.327357 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.910634219345,[[2622867, 256831], [10207, 98241]],0.9687062387</t>
+  </si>
+  <si>
+    <t>[ 0.31836929  0.32397147  0.14749465  0.08884139  0.02034865  0.00134346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00823844  0.02805868  0.04650639  0.0168276 ]</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:10:09.881175 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:10:11.227482 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.910430721749,[[450370, 43013], [45329, 447586]],0.969331506921</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:10:12.453433 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.910729819994,[[149983, 14166], [15183, 149434]],0.9695825823</t>
+  </si>
+  <si>
+    <t>2017-08-11 01:10:16.507281 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.912375767449,[[2628274, 251424], [10410, 98038]],0.968649628876</t>
+  </si>
+  <si>
+    <t>[ 0.31728762  0.3247855   0.14739389  0.08816121  0.02114566  0.0013352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00848186  0.02797328  0.04689859  0.01653721]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:08:30.920761 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:09:49.237940 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:09:49.238832 Training Random Forest classifier, [4, 10, 10, 50]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:10:13.698981 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:10:19.777121 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.910441874565,[[454809, 38326], [50005, 443158]],0.970181474536</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:10:22.612045 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.909394523765,[[151704, 12693], [17095, 147274]],0.969502122142</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:10:40.855741 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.921103921964,[[2655487, 224211], [11542, 96906]],0.969267648796</t>
+  </si>
+  <si>
+    <t>[ 0.28819152  0.24255259  0.18953675  0.02306329  0.07663404  0.04577375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04433701  0.0316803   0.04813474  0.01009601]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:11:08.291057 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:11:14.357555 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.910365832639,[[454687, 38442], [49964, 443205]],0.969965969419</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:11:17.161376 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.91023706831,[[151526, 12877], [16634, 147729]],0.970176521842</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:11:35.394464 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.921202980042,[[2655756, 223942], [11515, 96933]],0.969319343259</t>
+  </si>
+  <si>
+    <t>[ 0.28796396  0.24264109  0.18902471  0.02258078  0.07718999  0.0456729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04518365  0.03170551  0.04783759  0.01019983]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:12:06.314732 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:12:12.512774 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.910311082452,[[455398, 37874], [50586, 442440]],0.970210109283</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:12:15.366332 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.910279651789,[[151535, 12725], [16772, 147734]],0.969919612025</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:12:33.938667 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.921894043999,[[2657870, 221828], [11564, 96884]],0.969419555216</t>
+  </si>
+  <si>
+    <t>[ 0.28749738  0.24261841  0.18907061  0.02452129  0.07524172  0.04565923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04508928  0.03117496  0.04869365  0.01043348]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:13:00.049531 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:13:06.164974 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.910210707109,[[454495, 38565], [49994, 443244]],0.969995776744</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:13:09.004818 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.911000529252,[[151638, 12834], [16426, 147868]],0.970502078257</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:13:27.231746 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.920468076192,[[2653423, 226275], [11378, 97070]],0.969396280215</t>
+  </si>
+  <si>
+    <t>[ 0.28930193  0.24309469  0.18979962  0.0226219   0.07742722  0.04575034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04298166  0.03113447  0.04779089  0.01009728]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:24:53.072950 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:26:11.586795 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:26:11.587195 Training Random Forest classifier, [4, 10, 10, 100]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:26:59.631462 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:27:11.781648 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.909957234021,[[455137, 38151], [50658, 442352]],0.970210474557</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:27:16.644511 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.911040071054,[[151677, 12567], [16680, 147842]],0.970741234192</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:27:52.790701 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.921487772016,[[2656645, 223053], [11553, 96895]],0.969649989088</t>
+  </si>
+  <si>
+    <t>[ 0.32939573  0.1871284   0.15214191  0.05572128  0.11161566  0.03730845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04899692  0.0288197   0.03932515  0.00954681]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:28:43.876004 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:28:55.894494 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.910529069308,[[455787, 37446], [50799, 442266]],0.970557834806</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:29:00.699874 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.910352652038,[[151707, 12592], [16881, 147586]],0.969960769529</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:29:36.764678 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.922480026076,[[2659706, 219992], [11649, 96799]],0.969708328502</t>
+  </si>
+  <si>
+    <t>[ 0.32988395  0.18714111  0.15232292  0.05561132  0.111944    0.03740618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04871146  0.02862294  0.03903186  0.00932425]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:30:39.763424 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:30:52.312717 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.910344540899,[[455538, 37734], [50693, 442333]],0.970361955666</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:30:57.295181 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.909786900105,[[151718, 12542], [17117, 147389]],0.970273856737</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:31:34.786022 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.922186198399,[[2658835, 220863], [11656, 96792]],0.969627681577</t>
+  </si>
+  <si>
+    <t>[ 0.33022067  0.18707614  0.14541621  0.06327117  0.11099578  0.03742922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04780255  0.02881278  0.03959545  0.00938004]</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:32:26.690274 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:32:39.439258 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.910405374441,[[455766, 37037], [51330, 442165]],0.970359128119</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:32:44.455817 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.909902483833,[[152274, 12455], [17166, 146871]],0.970333695828</t>
+  </si>
+  <si>
+    <t>2017-08-11 02:33:21.103229 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.923715909464,[[2663588, 216110], [11838, 96610]],0.969622709368</t>
+  </si>
+  <si>
+    <t>[ 0.32911779  0.18737741  0.1523472   0.05571812  0.11191868  0.03743542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04913009  0.02862159  0.03904915  0.00928455]</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:13:06.192402 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:14:32.185388 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:14:32.185509 Training Gradient Boosted classifier, [1, 4, 50]</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:16:17.869883 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:16:19.965734 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.914759028204,[[452534, 40319], [43754, 449691]],0.973694765734</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:16:21.507641 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.913430829222,[[150928, 13751], [14710, 149377]],0.973091146653</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:16:27.920512 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.919938650923,[[2651658, 228040], [11195, 97253]],0.970829039531</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:18:21.393387 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:18:23.447140 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.914842167377,[[453654, 39806], [44185, 448653]],0.973757336918</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:18:24.965062 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.913522079534,[[150524, 13548], [14883, 149811]],0.972765529502</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:18:31.166216 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.921220382137,[[2655596, 224102], [11303, 97145]],0.970834862588</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:20:17.805871 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:20:19.883907 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.914755986527,[[453755, 39694], [44382, 448467]],0.9736623158</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:20:21.402296 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.913217911828,[[150602, 13481], [15050, 149633]],0.972931765832</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:20:27.504707 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.919172958751,[[2649252, 230446], [11077, 97371]],0.970774653735</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:22:19.623850 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:22:21.702265 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.914544083026,[[454031, 38803], [45482, 447982]],0.973434292964</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:22:23.214518 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.913640704939,[[151756, 12942], [15450, 148618]],0.973290550569</t>
+  </si>
+  <si>
+    <t>2017-08-11 06:22:29.544102 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.922933819164,[[2661082, 218616], [11669, 96779]],0.970757393131</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:00:13.637884 Reading Data</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:01:38.929290 Reading Data Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:01:38.929789 Training Gradient Boosted classifier, [1, 3, 20]</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:10.687142 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:11.574852 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Train,0.911626100834,[[454296, 38914], [48249, 444839]],0.971846108166</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:12.681126 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Test,0.912205033367,[[151351, 12971], [15893, 148551]],0.972278014484</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:15.314172 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>0,Unseen,0.922998073053,[[2661138, 218560], [11533, 96915]],0.970692867849</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:51.159377 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:52.051684 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Train,0.911796434749,[[454746, 38579], [48416, 444557]],0.971962569889</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:53.144484 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Test,0.911356405468,[[151430, 12777], [16366, 148193]],0.971813390511</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:02:55.787629 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>1,Unseen,0.924696785231,[[2666386, 213312], [11705, 96743]],0.970750304602</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:03:30.768237 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:03:31.630951 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Train,0.912594368031,[[453155, 39453], [46755, 446935]],0.972402684522</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:03:32.716667 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Test,0.911137404719,[[151544, 13380], [15835, 148007]],0.971556030826</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:03:35.295974 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>2,Unseen,0.920915510822,[[2654668, 225030], [11286, 97162]],0.970847902613</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:04:10.039332 Model Training Complete</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:04:10.892293 KF_Index,Train,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Train,0.912051935622,[[452194, 41259], [45484, 447361]],0.972021165489</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:04:11.985082 KF_Index,Test,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Test,0.911794406964,[[150320, 13759], [15240, 149447]],0.972047503069</t>
+  </si>
+  <si>
+    <t>2017-08-11 07:04:14.580464 KF_Index,Unseen,Accuracy,Confusion_Matrix,AUC</t>
+  </si>
+  <si>
+    <t>3,Unseen,0.921017246145,[[2654897, 224801], [11211, 97237]],0.970812379328</t>
   </si>
 </sst>
 </file>
@@ -13874,7 +16725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -14575,10 +17426,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S569"/>
+  <dimension ref="A1:CM1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329:D361"/>
+    <sheetView tabSelected="1" topLeftCell="D969" workbookViewId="0">
+      <selection activeCell="S973" sqref="S973:S1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15278,7 +18129,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>231</v>
       </c>
@@ -15289,7 +18140,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -15300,7 +18151,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -15308,7 +18159,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>232</v>
       </c>
@@ -15316,7 +18167,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>233</v>
       </c>
@@ -15324,7 +18175,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -15332,161 +18183,662 @@
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>235</v>
       </c>
       <c r="J71" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S71" t="s">
+        <v>1564</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+      <c r="W71">
+        <v>4</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>6</v>
+      </c>
+      <c r="Z71">
+        <v>7</v>
+      </c>
+      <c r="AA71">
+        <v>8</v>
+      </c>
+      <c r="AB71">
+        <v>9</v>
+      </c>
+      <c r="AC71">
+        <v>10</v>
+      </c>
+      <c r="AD71">
+        <v>11</v>
+      </c>
+      <c r="AE71">
+        <v>12</v>
+      </c>
+      <c r="AF71">
+        <v>13</v>
+      </c>
+      <c r="AG71">
+        <v>14</v>
+      </c>
+      <c r="AH71">
+        <v>15</v>
+      </c>
+      <c r="AI71">
+        <v>16</v>
+      </c>
+      <c r="AJ71">
+        <v>17</v>
+      </c>
+      <c r="AK71">
+        <v>18</v>
+      </c>
+      <c r="AL71">
+        <v>19</v>
+      </c>
+      <c r="AM71">
+        <v>20</v>
+      </c>
+      <c r="AN71">
+        <v>21</v>
+      </c>
+      <c r="AO71">
+        <v>22</v>
+      </c>
+      <c r="AP71">
+        <v>23</v>
+      </c>
+      <c r="AQ71">
+        <v>24</v>
+      </c>
+      <c r="AR71">
+        <v>25</v>
+      </c>
+      <c r="AS71">
+        <v>26</v>
+      </c>
+      <c r="AT71">
+        <v>27</v>
+      </c>
+      <c r="AU71">
+        <v>28</v>
+      </c>
+      <c r="AV71">
+        <v>29</v>
+      </c>
+      <c r="AW71">
+        <v>30</v>
+      </c>
+      <c r="AX71">
+        <v>31</v>
+      </c>
+      <c r="AY71">
+        <v>32</v>
+      </c>
+      <c r="AZ71">
+        <v>33</v>
+      </c>
+      <c r="BA71">
+        <v>34</v>
+      </c>
+      <c r="BB71">
+        <v>35</v>
+      </c>
+      <c r="BC71">
+        <v>36</v>
+      </c>
+      <c r="BD71">
+        <v>37</v>
+      </c>
+      <c r="BE71">
+        <v>38</v>
+      </c>
+      <c r="BF71">
+        <v>39</v>
+      </c>
+      <c r="BG71">
+        <v>40</v>
+      </c>
+      <c r="BH71">
+        <v>41</v>
+      </c>
+      <c r="BI71">
+        <v>42</v>
+      </c>
+      <c r="BJ71">
+        <v>43</v>
+      </c>
+      <c r="BK71">
+        <v>44</v>
+      </c>
+      <c r="BL71">
+        <v>45</v>
+      </c>
+      <c r="BM71">
+        <v>46</v>
+      </c>
+      <c r="BN71">
+        <v>47</v>
+      </c>
+      <c r="BO71">
+        <v>48</v>
+      </c>
+      <c r="BP71">
+        <v>49</v>
+      </c>
+      <c r="BQ71">
+        <v>50</v>
+      </c>
+      <c r="BR71">
+        <v>51</v>
+      </c>
+      <c r="BS71">
+        <v>52</v>
+      </c>
+      <c r="BT71">
+        <v>53</v>
+      </c>
+      <c r="BU71">
+        <v>54</v>
+      </c>
+      <c r="BV71">
+        <v>55</v>
+      </c>
+      <c r="BW71">
+        <v>56</v>
+      </c>
+      <c r="BX71">
+        <v>57</v>
+      </c>
+      <c r="BY71">
+        <v>58</v>
+      </c>
+      <c r="BZ71">
+        <v>59</v>
+      </c>
+      <c r="CA71">
+        <v>60</v>
+      </c>
+      <c r="CB71">
+        <v>61</v>
+      </c>
+      <c r="CC71">
+        <v>62</v>
+      </c>
+      <c r="CD71">
+        <v>63</v>
+      </c>
+      <c r="CE71">
+        <v>64</v>
+      </c>
+      <c r="CF71">
+        <v>65</v>
+      </c>
+      <c r="CG71">
+        <v>66</v>
+      </c>
+      <c r="CH71">
+        <v>67</v>
+      </c>
+      <c r="CI71">
+        <v>68</v>
+      </c>
+      <c r="CJ71">
+        <v>69</v>
+      </c>
+      <c r="CK71">
+        <v>70</v>
+      </c>
+      <c r="CL71">
+        <v>71</v>
+      </c>
+      <c r="CM71" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>236</v>
       </c>
       <c r="J72" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S72" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>237</v>
       </c>
       <c r="J73" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S73" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>238</v>
       </c>
       <c r="J74" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S74" t="s">
+        <v>1568</v>
+      </c>
+      <c r="T74" t="s">
+        <v>1569</v>
+      </c>
+      <c r="U74">
+        <v>4</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>10</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>239</v>
       </c>
       <c r="J75" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S75" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="76" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>240</v>
       </c>
       <c r="J76" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S76" t="s">
+        <v>1572</v>
+      </c>
+      <c r="T76" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U76" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>241</v>
       </c>
       <c r="J77" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U77">
+        <v>0.99132310924300004</v>
+      </c>
+      <c r="V77" t="s">
+        <v>1573</v>
+      </c>
+      <c r="W77" t="s">
+        <v>1574</v>
+      </c>
+      <c r="X77" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Z77">
+        <v>0.99887217611599999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>242</v>
       </c>
       <c r="J78" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S78" t="s">
+        <v>1577</v>
+      </c>
+      <c r="T78" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U78" t="s">
+        <v>5</v>
+      </c>
+      <c r="V78" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>243</v>
       </c>
       <c r="J79" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U79">
+        <v>0.99162930473300004</v>
+      </c>
+      <c r="V79" t="s">
+        <v>1578</v>
+      </c>
+      <c r="W79" t="s">
+        <v>1579</v>
+      </c>
+      <c r="X79" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>1581</v>
+      </c>
+      <c r="Z79">
+        <v>0.99892095085400001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>244</v>
       </c>
       <c r="J80" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S80" t="s">
+        <v>1582</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U80" t="s">
+        <v>5</v>
+      </c>
+      <c r="V80" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>245</v>
       </c>
       <c r="J81" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U81">
+        <v>0.73565247481200002</v>
+      </c>
+      <c r="V81" t="s">
+        <v>1583</v>
+      </c>
+      <c r="W81" t="s">
+        <v>1584</v>
+      </c>
+      <c r="X81" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>1586</v>
+      </c>
+      <c r="Z81">
+        <v>0.853315159707</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>183</v>
       </c>
       <c r="J82" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S82" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>184</v>
       </c>
       <c r="J83" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S83" t="s">
+        <v>1588</v>
+      </c>
+      <c r="T83" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U83" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>246</v>
       </c>
       <c r="J84" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U84">
+        <v>0.99170838833700004</v>
+      </c>
+      <c r="V84" t="s">
+        <v>1589</v>
+      </c>
+      <c r="W84" t="s">
+        <v>1590</v>
+      </c>
+      <c r="X84" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>1592</v>
+      </c>
+      <c r="Z84">
+        <v>0.99889774893100003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>247</v>
       </c>
       <c r="J85" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>1593</v>
+      </c>
+      <c r="T85" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U85" t="s">
+        <v>5</v>
+      </c>
+      <c r="V85" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>187</v>
       </c>
       <c r="J86" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U86">
+        <v>0.99128863690299995</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1594</v>
+      </c>
+      <c r="W86" t="s">
+        <v>1595</v>
+      </c>
+      <c r="X86" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Z86">
+        <v>0.99892704112899999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>1597</v>
+      </c>
+      <c r="T87" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U87" t="s">
+        <v>5</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U88">
+        <v>0.74009000898900001</v>
+      </c>
+      <c r="V88" t="s">
+        <v>1598</v>
+      </c>
+      <c r="W88" t="s">
+        <v>1599</v>
+      </c>
+      <c r="X88" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>1601</v>
+      </c>
+      <c r="Z88">
+        <v>0.85349098141500002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>190</v>
       </c>
       <c r="J89" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S89" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>250</v>
       </c>
       <c r="J90" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S90" t="s">
+        <v>1603</v>
+      </c>
+      <c r="T90" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U90" t="s">
+        <v>5</v>
+      </c>
+      <c r="V90" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -15496,96 +18848,318 @@
       <c r="K91" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S91">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U91">
+        <v>0.99152385992900005</v>
+      </c>
+      <c r="V91" t="s">
+        <v>1604</v>
+      </c>
+      <c r="W91" t="s">
+        <v>1605</v>
+      </c>
+      <c r="X91" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="Z91">
+        <v>0.99910261487800001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>252</v>
       </c>
       <c r="J92" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S92" t="s">
+        <v>1608</v>
+      </c>
+      <c r="T92" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U92" t="s">
+        <v>5</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>253</v>
       </c>
       <c r="J93" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U93">
+        <v>0.99161105467099997</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1609</v>
+      </c>
+      <c r="W93" t="s">
+        <v>1610</v>
+      </c>
+      <c r="X93" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>1612</v>
+      </c>
+      <c r="Z93">
+        <v>0.99906901567200002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>195</v>
       </c>
       <c r="J94" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S94" t="s">
+        <v>1613</v>
+      </c>
+      <c r="T94" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U94" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
       <c r="J95" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U95">
+        <v>0.737156082735</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1614</v>
+      </c>
+      <c r="W95" t="s">
+        <v>1615</v>
+      </c>
+      <c r="X95" t="s">
+        <v>1616</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>1617</v>
+      </c>
+      <c r="Z95">
+        <v>0.85142928132999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
       <c r="J96" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S96" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
       <c r="J97" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S97" t="s">
+        <v>1619</v>
+      </c>
+      <c r="T97" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U97" t="s">
+        <v>5</v>
+      </c>
+      <c r="V97" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
       <c r="J98" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S98">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U98">
+        <v>0.99163133251799995</v>
+      </c>
+      <c r="V98" t="s">
+        <v>1620</v>
+      </c>
+      <c r="W98" t="s">
+        <v>1621</v>
+      </c>
+      <c r="X98" t="s">
+        <v>1622</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Z98">
+        <v>0.99888084059299997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
       <c r="J99" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S99" t="s">
+        <v>1624</v>
+      </c>
+      <c r="T99" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U99" t="s">
+        <v>5</v>
+      </c>
+      <c r="V99" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>195</v>
       </c>
       <c r="J100" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U100">
+        <v>0.99149547094299995</v>
+      </c>
+      <c r="V100" t="s">
+        <v>1625</v>
+      </c>
+      <c r="W100" t="s">
+        <v>1626</v>
+      </c>
+      <c r="X100" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Z100">
+        <v>0.99881586026400004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>195</v>
       </c>
       <c r="J101" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S101" t="s">
+        <v>1629</v>
+      </c>
+      <c r="T101" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U101" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>195</v>
       </c>
       <c r="J102" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U102">
+        <v>0.73585226424700001</v>
+      </c>
+      <c r="V102" t="s">
+        <v>1630</v>
+      </c>
+      <c r="W102" t="s">
+        <v>1631</v>
+      </c>
+      <c r="X102" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>1633</v>
+      </c>
+      <c r="Z102">
+        <v>0.85314919267099998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>259</v>
       </c>
@@ -15593,7 +19167,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>260</v>
       </c>
@@ -15601,7 +19175,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>261</v>
       </c>
@@ -15609,7 +19183,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>262</v>
       </c>
@@ -15617,7 +19191,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -15625,7 +19199,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -15633,7 +19207,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>265</v>
       </c>
@@ -15641,7 +19215,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>266</v>
       </c>
@@ -15649,7 +19223,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>267</v>
       </c>
@@ -15657,7 +19231,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>268</v>
       </c>
@@ -17622,316 +21196,525 @@
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1098</v>
+      </c>
       <c r="J365" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1099</v>
+      </c>
       <c r="J366" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1100</v>
+      </c>
       <c r="J367" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1101</v>
+      </c>
       <c r="J368" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="369" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1102</v>
+      </c>
       <c r="J369" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="370" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1103</v>
+      </c>
       <c r="J370" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="371" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1104</v>
+      </c>
       <c r="J371" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="372" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1105</v>
+      </c>
       <c r="J372" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="373" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1106</v>
+      </c>
       <c r="J373" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="374" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1107</v>
+      </c>
       <c r="J374" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="375" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1108</v>
+      </c>
       <c r="J375" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="376" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1109</v>
+      </c>
       <c r="J376" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="377" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1110</v>
+      </c>
       <c r="J377" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="378" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>195</v>
+      </c>
       <c r="J378" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="379" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1111</v>
+      </c>
       <c r="J379" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="380" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1112</v>
+      </c>
       <c r="J380" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="381" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1113</v>
+      </c>
       <c r="J381" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="382" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1114</v>
+      </c>
       <c r="J382" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="383" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1115</v>
+      </c>
       <c r="J383" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="384" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1116</v>
+      </c>
       <c r="J384" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="385" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>195</v>
+      </c>
       <c r="J385" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="386" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>195</v>
+      </c>
       <c r="J386" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="387" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1117</v>
+      </c>
       <c r="J387" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="388" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1118</v>
+      </c>
       <c r="J388" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="389" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1119</v>
+      </c>
       <c r="J389" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="390" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1120</v>
+      </c>
       <c r="J390" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="391" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1121</v>
+      </c>
       <c r="J391" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="392" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1122</v>
+      </c>
       <c r="J392" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="393" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1123</v>
+      </c>
       <c r="J393" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="394" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1124</v>
+      </c>
       <c r="J394" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="395" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1125</v>
+      </c>
       <c r="J395" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="396" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1126</v>
+      </c>
       <c r="J396" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="397" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1127</v>
+      </c>
       <c r="J397" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="398" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1128</v>
+      </c>
       <c r="J398" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="399" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1129</v>
+      </c>
       <c r="J399" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="400" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1130</v>
+      </c>
       <c r="J400" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1131</v>
+      </c>
       <c r="J401" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="402" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1132</v>
+      </c>
       <c r="J402" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="403" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1133</v>
+      </c>
       <c r="J403" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="404" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>195</v>
+      </c>
       <c r="J404" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="405" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1134</v>
+      </c>
       <c r="J405" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="406" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1135</v>
+      </c>
       <c r="J406" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="407" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1136</v>
+      </c>
       <c r="J407" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="408" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1137</v>
+      </c>
       <c r="J408" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="409" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1138</v>
+      </c>
       <c r="J409" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="410" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1139</v>
+      </c>
       <c r="J410" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="411" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>195</v>
+      </c>
       <c r="J411" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="412" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>195</v>
+      </c>
       <c r="J412" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="413" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>195</v>
+      </c>
       <c r="J413" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="414" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1140</v>
+      </c>
       <c r="J414" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="415" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>1141</v>
+      </c>
       <c r="J415" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="416" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1142</v>
+      </c>
       <c r="J416" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="417" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>1143</v>
+      </c>
       <c r="J417" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="418" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>1144</v>
+      </c>
       <c r="J418" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="419" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>1145</v>
+      </c>
       <c r="J419" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="420" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>1146</v>
+      </c>
       <c r="J420" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="421" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>1147</v>
+      </c>
       <c r="J421" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="422" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>1148</v>
+      </c>
       <c r="J422" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="423" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>1149</v>
+      </c>
       <c r="J423" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="424" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>1150</v>
+      </c>
       <c r="J424" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="429" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>1155</v>
+      </c>
       <c r="J429" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="430" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>195</v>
+      </c>
       <c r="J430" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="431" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>1156</v>
+      </c>
       <c r="J431" t="s">
         <v>479</v>
       </c>
@@ -17939,207 +21722,339 @@
         <v>480</v>
       </c>
     </row>
-    <row r="432" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>1157</v>
+      </c>
       <c r="J432" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="433" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>1158</v>
+      </c>
       <c r="J433" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="434" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>1159</v>
+      </c>
       <c r="J434" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="435" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1160</v>
+      </c>
       <c r="J435" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="436" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>1161</v>
+      </c>
       <c r="J436" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="437" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>1162</v>
+      </c>
       <c r="J437" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="438" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>195</v>
+      </c>
       <c r="J438" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="439" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1163</v>
+      </c>
       <c r="J439" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="440" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1164</v>
+      </c>
       <c r="J440" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="441" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1165</v>
+      </c>
       <c r="J441" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="442" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1166</v>
+      </c>
       <c r="J442" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="443" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>195</v>
+      </c>
       <c r="J443" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="444" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1167</v>
+      </c>
       <c r="J444" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="445" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1168</v>
+      </c>
       <c r="J445" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="446" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>1169</v>
+      </c>
       <c r="J446" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="447" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1170</v>
+      </c>
       <c r="J447" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="448" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1171</v>
+      </c>
       <c r="J448" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="449" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>1172</v>
+      </c>
       <c r="J449" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="450" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>1173</v>
+      </c>
       <c r="J450" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="451" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1174</v>
+      </c>
       <c r="J451" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="452" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1175</v>
+      </c>
       <c r="J452" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="453" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1176</v>
+      </c>
       <c r="J453" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="454" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1177</v>
+      </c>
       <c r="J454" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="455" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1178</v>
+      </c>
       <c r="J455" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="456" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>195</v>
+      </c>
       <c r="J456" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="457" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1179</v>
+      </c>
       <c r="J457" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="458" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1180</v>
+      </c>
       <c r="J458" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="459" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1181</v>
+      </c>
       <c r="J459" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="460" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1182</v>
+      </c>
       <c r="J460" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="461" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1183</v>
+      </c>
       <c r="J461" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="462" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1184</v>
+      </c>
       <c r="J462" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="463" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>195</v>
+      </c>
       <c r="J463" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="464" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>195</v>
+      </c>
       <c r="J464" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="465" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1185</v>
+      </c>
       <c r="J465" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="466" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1186</v>
+      </c>
       <c r="J466" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="467" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1187</v>
+      </c>
       <c r="J467" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="468" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1188</v>
+      </c>
       <c r="J468" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="469" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>1189</v>
+      </c>
       <c r="J469" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="473" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1193</v>
+      </c>
       <c r="J473" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="474" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J474" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="475" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J475" t="s">
         <v>479</v>
       </c>
@@ -18147,27 +22062,27 @@
         <v>480</v>
       </c>
     </row>
-    <row r="476" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J476" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="477" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J477" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="478" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J478" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="479" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J479" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="480" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J480" t="s">
         <v>981</v>
       </c>
@@ -18560,49 +22475,4812 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="561" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J561" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="562" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J562" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="563" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J563" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="564" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J564" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="565" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J565" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="566" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J566" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="567" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J567" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="568" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J568" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="569" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J569" t="s">
         <v>1066</v>
+      </c>
+    </row>
+    <row r="574" spans="10:29" x14ac:dyDescent="0.3">
+      <c r="J574" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K574">
+        <v>56</v>
+      </c>
+      <c r="L574">
+        <v>60</v>
+      </c>
+      <c r="M574">
+        <v>24</v>
+      </c>
+      <c r="N574">
+        <v>23</v>
+      </c>
+      <c r="O574">
+        <v>59</v>
+      </c>
+      <c r="P574">
+        <v>28</v>
+      </c>
+      <c r="Q574">
+        <v>27</v>
+      </c>
+      <c r="R574">
+        <v>52</v>
+      </c>
+      <c r="S574">
+        <v>36</v>
+      </c>
+      <c r="T574">
+        <v>68</v>
+      </c>
+      <c r="U574">
+        <v>22</v>
+      </c>
+      <c r="V574">
+        <v>21</v>
+      </c>
+      <c r="W574">
+        <v>58</v>
+      </c>
+      <c r="X574">
+        <v>16</v>
+      </c>
+      <c r="Y574">
+        <v>55</v>
+      </c>
+      <c r="Z574">
+        <v>26</v>
+      </c>
+      <c r="AA574">
+        <v>57</v>
+      </c>
+      <c r="AB574">
+        <v>25</v>
+      </c>
+      <c r="AC574" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="575" spans="10:29" x14ac:dyDescent="0.3">
+      <c r="J575" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="576" spans="10:29" x14ac:dyDescent="0.3">
+      <c r="J576" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K576" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L576" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="577" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J577" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="578" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J578" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K578" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L578" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="579" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J579" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="580" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J580" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K580" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L580" t="s">
+        <v>5</v>
+      </c>
+      <c r="M580" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N580" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J581">
+        <v>0</v>
+      </c>
+      <c r="K581" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L581">
+        <v>0.97851967660899997</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1411</v>
+      </c>
+      <c r="N581" t="s">
+        <v>1412</v>
+      </c>
+      <c r="O581" t="s">
+        <v>1413</v>
+      </c>
+      <c r="P581" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Q581">
+        <v>0.99752926661600005</v>
+      </c>
+    </row>
+    <row r="582" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J582" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K582" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L582" t="s">
+        <v>5</v>
+      </c>
+      <c r="M582" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N582" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J583">
+        <v>0</v>
+      </c>
+      <c r="K583" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L583">
+        <v>0.978629176983</v>
+      </c>
+      <c r="M583" t="s">
+        <v>1416</v>
+      </c>
+      <c r="N583" t="s">
+        <v>1417</v>
+      </c>
+      <c r="O583" t="s">
+        <v>1418</v>
+      </c>
+      <c r="P583" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q583">
+        <v>0.99754314972699998</v>
+      </c>
+    </row>
+    <row r="584" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J584" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K584" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L584" t="s">
+        <v>5</v>
+      </c>
+      <c r="M584" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N584" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J585">
+        <v>0</v>
+      </c>
+      <c r="K585" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L585">
+        <v>0.94108386939599997</v>
+      </c>
+      <c r="M585" t="s">
+        <v>1421</v>
+      </c>
+      <c r="N585" t="s">
+        <v>1422</v>
+      </c>
+      <c r="O585" t="s">
+        <v>1423</v>
+      </c>
+      <c r="P585" t="s">
+        <v>1424</v>
+      </c>
+      <c r="Q585">
+        <v>0.97346321692100002</v>
+      </c>
+    </row>
+    <row r="586" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J586" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="587" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J587" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="588" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J588" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="589" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J589" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="590" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J590" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="591" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J591" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="592" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J592" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K592" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L592" t="s">
+        <v>5</v>
+      </c>
+      <c r="M592" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N592" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J593">
+        <v>1</v>
+      </c>
+      <c r="K593" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L593">
+        <v>0.97851562103900003</v>
+      </c>
+      <c r="M593" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N593" t="s">
+        <v>1433</v>
+      </c>
+      <c r="O593" t="s">
+        <v>1434</v>
+      </c>
+      <c r="P593" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q593">
+        <v>0.99750977209500002</v>
+      </c>
+    </row>
+    <row r="594" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J594" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K594" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L594" t="s">
+        <v>5</v>
+      </c>
+      <c r="M594" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N594" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J595">
+        <v>1</v>
+      </c>
+      <c r="K595" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L595">
+        <v>0.97810600852899998</v>
+      </c>
+      <c r="M595" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N595" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O595" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P595" t="s">
+        <v>1440</v>
+      </c>
+      <c r="Q595">
+        <v>0.99756657793400005</v>
+      </c>
+    </row>
+    <row r="596" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J596" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K596" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L596" t="s">
+        <v>5</v>
+      </c>
+      <c r="M596" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N596" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J597">
+        <v>1</v>
+      </c>
+      <c r="K597" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L597">
+        <v>0.94018598823499999</v>
+      </c>
+      <c r="M597" t="s">
+        <v>1442</v>
+      </c>
+      <c r="N597" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O597" t="s">
+        <v>1444</v>
+      </c>
+      <c r="P597" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q597">
+        <v>0.97344817633199998</v>
+      </c>
+    </row>
+    <row r="598" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J598" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="599" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J599" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="600" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J600" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="601" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J601" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="602" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J602" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="603" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J603" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K603" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L603" t="s">
+        <v>5</v>
+      </c>
+      <c r="M603" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N603" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J604">
+        <v>2</v>
+      </c>
+      <c r="K604" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L604">
+        <v>0.97841625958900003</v>
+      </c>
+      <c r="M604" t="s">
+        <v>1452</v>
+      </c>
+      <c r="N604" t="s">
+        <v>1453</v>
+      </c>
+      <c r="O604" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P604" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Q604">
+        <v>0.997532618067</v>
+      </c>
+    </row>
+    <row r="605" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J605" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K605" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L605" t="s">
+        <v>5</v>
+      </c>
+      <c r="M605" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N605" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J606">
+        <v>2</v>
+      </c>
+      <c r="K606" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L606">
+        <v>0.97849534319200004</v>
+      </c>
+      <c r="M606" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N606" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O606" t="s">
+        <v>1459</v>
+      </c>
+      <c r="P606" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Q606">
+        <v>0.997510236552</v>
+      </c>
+    </row>
+    <row r="607" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J607" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K607" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L607" t="s">
+        <v>5</v>
+      </c>
+      <c r="M607" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N607" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J608">
+        <v>2</v>
+      </c>
+      <c r="K608" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L608">
+        <v>0.94075691080699997</v>
+      </c>
+      <c r="M608" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N608" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O608" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P608" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q608">
+        <v>0.97342548671600004</v>
+      </c>
+    </row>
+    <row r="609" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J609" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="610" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J610" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="611" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J611" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="612" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J612" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="613" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J613" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="614" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J614" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="615" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J615" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K615" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L615" t="s">
+        <v>5</v>
+      </c>
+      <c r="M615" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N615" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J616">
+        <v>3</v>
+      </c>
+      <c r="K616" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L616">
+        <v>0.978479120915</v>
+      </c>
+      <c r="M616" t="s">
+        <v>1473</v>
+      </c>
+      <c r="N616" t="s">
+        <v>1474</v>
+      </c>
+      <c r="O616" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P616" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Q616">
+        <v>0.99754513250200005</v>
+      </c>
+    </row>
+    <row r="617" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J617" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K617" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L617" t="s">
+        <v>5</v>
+      </c>
+      <c r="M617" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N617" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J618">
+        <v>3</v>
+      </c>
+      <c r="K618" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L618">
+        <v>0.97854401002500002</v>
+      </c>
+      <c r="M618" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N618" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O618" t="s">
+        <v>1480</v>
+      </c>
+      <c r="P618" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Q618">
+        <v>0.99748907447000001</v>
+      </c>
+    </row>
+    <row r="619" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J619" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K619" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L619" t="s">
+        <v>5</v>
+      </c>
+      <c r="M619" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N619" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J620">
+        <v>3</v>
+      </c>
+      <c r="K620" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L620">
+        <v>0.94195163154700001</v>
+      </c>
+      <c r="M620" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N620" t="s">
+        <v>1484</v>
+      </c>
+      <c r="O620" t="s">
+        <v>1485</v>
+      </c>
+      <c r="P620" t="s">
+        <v>1486</v>
+      </c>
+      <c r="Q620">
+        <v>0.97350536063299997</v>
+      </c>
+    </row>
+    <row r="621" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J621" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="622" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J622" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="623" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J623" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="624" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J624" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="628" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J628" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K628">
+        <v>28</v>
+      </c>
+      <c r="L628">
+        <v>52</v>
+      </c>
+      <c r="M628">
+        <v>36</v>
+      </c>
+      <c r="N628">
+        <v>68</v>
+      </c>
+      <c r="O628" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="629" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J629" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="630" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J630" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K630" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L630" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M630" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="631" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J631" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="632" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J632" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K632" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L632" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="633" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J633" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="634" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J634" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K634" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L634" t="s">
+        <v>5</v>
+      </c>
+      <c r="M634" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N634" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="635" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J635">
+        <v>0</v>
+      </c>
+      <c r="K635" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L635">
+        <v>0.97114462363300003</v>
+      </c>
+      <c r="M635" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N635" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O635" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P635" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q635">
+        <v>0.99659921794399997</v>
+      </c>
+    </row>
+    <row r="636" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J636" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K636" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L636" t="s">
+        <v>5</v>
+      </c>
+      <c r="M636" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N636" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J637">
+        <v>0</v>
+      </c>
+      <c r="K637" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L637">
+        <v>0.97154206943499999</v>
+      </c>
+      <c r="M637" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N637" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O637" t="s">
+        <v>1269</v>
+      </c>
+      <c r="P637" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q637">
+        <v>0.99654582123799995</v>
+      </c>
+    </row>
+    <row r="638" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J638" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K638" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L638" t="s">
+        <v>5</v>
+      </c>
+      <c r="M638" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N638" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J639">
+        <v>0</v>
+      </c>
+      <c r="K639" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L639">
+        <v>0.93906991157700004</v>
+      </c>
+      <c r="M639" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N639" t="s">
+        <v>1274</v>
+      </c>
+      <c r="O639" t="s">
+        <v>1275</v>
+      </c>
+      <c r="P639" t="s">
+        <v>1276</v>
+      </c>
+      <c r="Q639">
+        <v>0.96599858205699995</v>
+      </c>
+    </row>
+    <row r="640" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J640" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="641" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J641" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="642" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J642" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K642" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L642" t="s">
+        <v>5</v>
+      </c>
+      <c r="M642" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N642" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="643" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J643">
+        <v>1</v>
+      </c>
+      <c r="K643" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L643">
+        <v>0.97087492826699995</v>
+      </c>
+      <c r="M643" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N643" t="s">
+        <v>1281</v>
+      </c>
+      <c r="O643" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P643" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Q643">
+        <v>0.99652239281199995</v>
+      </c>
+    </row>
+    <row r="644" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J644" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K644" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L644" t="s">
+        <v>5</v>
+      </c>
+      <c r="M644" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N644" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J645">
+        <v>1</v>
+      </c>
+      <c r="K645" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L645">
+        <v>0.97123790172900004</v>
+      </c>
+      <c r="M645" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N645" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O645" t="s">
+        <v>1287</v>
+      </c>
+      <c r="P645" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q645">
+        <v>0.99664483205400001</v>
+      </c>
+    </row>
+    <row r="646" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J646" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K646" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L646" t="s">
+        <v>5</v>
+      </c>
+      <c r="M646" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N646" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J647">
+        <v>1</v>
+      </c>
+      <c r="K647" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L647">
+        <v>0.93982221752200001</v>
+      </c>
+      <c r="M647" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N647" t="s">
+        <v>1291</v>
+      </c>
+      <c r="O647" t="s">
+        <v>1292</v>
+      </c>
+      <c r="P647" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q647">
+        <v>0.96612539469500003</v>
+      </c>
+    </row>
+    <row r="648" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J648" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="649" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J649" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="650" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J650" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K650" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L650" t="s">
+        <v>5</v>
+      </c>
+      <c r="M650" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N650" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J651">
+        <v>2</v>
+      </c>
+      <c r="K651" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L651">
+        <v>0.97146501361699999</v>
+      </c>
+      <c r="M651" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N651" t="s">
+        <v>1298</v>
+      </c>
+      <c r="O651" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P651" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Q651">
+        <v>0.99662079993800001</v>
+      </c>
+    </row>
+    <row r="652" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J652" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K652" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L652" t="s">
+        <v>5</v>
+      </c>
+      <c r="M652" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N652" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J653">
+        <v>2</v>
+      </c>
+      <c r="K653" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L653">
+        <v>0.97100065091900001</v>
+      </c>
+      <c r="M653" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N653" t="s">
+        <v>1303</v>
+      </c>
+      <c r="O653" t="s">
+        <v>1304</v>
+      </c>
+      <c r="P653" t="s">
+        <v>1305</v>
+      </c>
+      <c r="Q653">
+        <v>0.99654340102799999</v>
+      </c>
+    </row>
+    <row r="654" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J654" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K654" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L654" t="s">
+        <v>5</v>
+      </c>
+      <c r="M654" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N654" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J655">
+        <v>2</v>
+      </c>
+      <c r="K655" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L655">
+        <v>0.93893537999800003</v>
+      </c>
+      <c r="M655" t="s">
+        <v>1307</v>
+      </c>
+      <c r="N655" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O655" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P655" t="s">
+        <v>1310</v>
+      </c>
+      <c r="Q655">
+        <v>0.96593211721399996</v>
+      </c>
+    </row>
+    <row r="656" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J656" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="657" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J657" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="658" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J658" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K658" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L658" t="s">
+        <v>5</v>
+      </c>
+      <c r="M658" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N658" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="659" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J659">
+        <v>3</v>
+      </c>
+      <c r="K659" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L659">
+        <v>0.97139201336699998</v>
+      </c>
+      <c r="M659" t="s">
+        <v>1314</v>
+      </c>
+      <c r="N659" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O659" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P659" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q659">
+        <v>0.996602650945</v>
+      </c>
+    </row>
+    <row r="660" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J660" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K660" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L660" t="s">
+        <v>5</v>
+      </c>
+      <c r="M660" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N660" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J661">
+        <v>3</v>
+      </c>
+      <c r="K661" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L661">
+        <v>0.971170984834</v>
+      </c>
+      <c r="M661" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N661" t="s">
+        <v>1320</v>
+      </c>
+      <c r="O661" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P661" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Q661">
+        <v>0.99660304614399997</v>
+      </c>
+    </row>
+    <row r="662" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J662" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K662" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L662" t="s">
+        <v>5</v>
+      </c>
+      <c r="M662" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N662" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J663">
+        <v>3</v>
+      </c>
+      <c r="K663" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L663">
+        <v>0.93927103963500003</v>
+      </c>
+      <c r="M663" t="s">
+        <v>1324</v>
+      </c>
+      <c r="N663" t="s">
+        <v>1325</v>
+      </c>
+      <c r="O663" t="s">
+        <v>1326</v>
+      </c>
+      <c r="P663" t="s">
+        <v>1327</v>
+      </c>
+      <c r="Q663">
+        <v>0.96591471789700001</v>
+      </c>
+    </row>
+    <row r="664" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J664" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="668" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J668" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K668">
+        <v>28</v>
+      </c>
+      <c r="L668">
+        <v>52</v>
+      </c>
+      <c r="M668">
+        <v>36</v>
+      </c>
+      <c r="N668">
+        <v>68</v>
+      </c>
+      <c r="O668">
+        <v>22</v>
+      </c>
+      <c r="P668">
+        <v>55</v>
+      </c>
+      <c r="Q668" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="669" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J669" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="670" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J670" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K670" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L670" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M670" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="671" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J671" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="672" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J672" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K672" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L672" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="673" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J673" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="674" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J674" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K674" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L674" t="s">
+        <v>5</v>
+      </c>
+      <c r="M674" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N674" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J675">
+        <v>0</v>
+      </c>
+      <c r="K675" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L675">
+        <v>0.97489399755399997</v>
+      </c>
+      <c r="M675" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N675" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O675" t="s">
+        <v>1337</v>
+      </c>
+      <c r="P675" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Q675">
+        <v>0.99676679105599997</v>
+      </c>
+    </row>
+    <row r="676" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J676" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K676" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L676" t="s">
+        <v>5</v>
+      </c>
+      <c r="M676" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N676" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J677">
+        <v>0</v>
+      </c>
+      <c r="K677" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L677">
+        <v>0.97519816526000003</v>
+      </c>
+      <c r="M677" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N677" t="s">
+        <v>1341</v>
+      </c>
+      <c r="O677" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P677" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q677">
+        <v>0.99681446327199996</v>
+      </c>
+    </row>
+    <row r="678" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J678" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K678" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L678" t="s">
+        <v>5</v>
+      </c>
+      <c r="M678" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N678" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="679" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J679">
+        <v>0</v>
+      </c>
+      <c r="K679" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L679">
+        <v>0.94322800826999997</v>
+      </c>
+      <c r="M679" t="s">
+        <v>1345</v>
+      </c>
+      <c r="N679" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O679" t="s">
+        <v>1347</v>
+      </c>
+      <c r="P679" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Q679">
+        <v>0.96893430504900002</v>
+      </c>
+    </row>
+    <row r="680" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J680" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="681" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J681" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="682" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J682" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="683" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J683" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K683" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L683" t="s">
+        <v>5</v>
+      </c>
+      <c r="M683" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N683" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J684">
+        <v>1</v>
+      </c>
+      <c r="K684" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L684">
+        <v>0.97481694173599998</v>
+      </c>
+      <c r="M684" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N684" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O684" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P684" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Q684">
+        <v>0.99677135087299995</v>
+      </c>
+    </row>
+    <row r="685" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J685" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K685" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L685" t="s">
+        <v>5</v>
+      </c>
+      <c r="M685" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N685" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="686" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J686">
+        <v>1</v>
+      </c>
+      <c r="K686" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L686">
+        <v>0.97410924487299999</v>
+      </c>
+      <c r="M686" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N686" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O686" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P686" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q686">
+        <v>0.99668916447400002</v>
+      </c>
+    </row>
+    <row r="687" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J687" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K687" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L687" t="s">
+        <v>5</v>
+      </c>
+      <c r="M687" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N687" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J688">
+        <v>1</v>
+      </c>
+      <c r="K688" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L688">
+        <v>0.94406699003299999</v>
+      </c>
+      <c r="M688" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N688" t="s">
+        <v>1364</v>
+      </c>
+      <c r="O688" t="s">
+        <v>1365</v>
+      </c>
+      <c r="P688" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Q688">
+        <v>0.96916379109600004</v>
+      </c>
+    </row>
+    <row r="689" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J689" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="690" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J690" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="691" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J691" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="692" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J692" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K692" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L692" t="s">
+        <v>5</v>
+      </c>
+      <c r="M692" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N692" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J693">
+        <v>2</v>
+      </c>
+      <c r="K693" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L693">
+        <v>0.97503391469900003</v>
+      </c>
+      <c r="M693" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N693" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O693" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P693" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q693">
+        <v>0.996793991386</v>
+      </c>
+    </row>
+    <row r="694" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J694" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K694" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L694" t="s">
+        <v>5</v>
+      </c>
+      <c r="M694" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N694" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J695">
+        <v>2</v>
+      </c>
+      <c r="K695" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L695">
+        <v>0.97484533072199997</v>
+      </c>
+      <c r="M695" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N695" t="s">
+        <v>1377</v>
+      </c>
+      <c r="O695" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P695" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Q695">
+        <v>0.996770421919</v>
+      </c>
+    </row>
+    <row r="696" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J696" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K696" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L696" t="s">
+        <v>5</v>
+      </c>
+      <c r="M696" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N696" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J697">
+        <v>2</v>
+      </c>
+      <c r="K697" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L697">
+        <v>0.94307640925199998</v>
+      </c>
+      <c r="M697" t="s">
+        <v>1381</v>
+      </c>
+      <c r="N697" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O697" t="s">
+        <v>1383</v>
+      </c>
+      <c r="P697" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q697">
+        <v>0.96896566648100002</v>
+      </c>
+    </row>
+    <row r="698" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J698" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="699" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J699" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="700" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J700" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="701" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J701" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K701" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L701" t="s">
+        <v>5</v>
+      </c>
+      <c r="M701" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N701" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="702" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J702">
+        <v>3</v>
+      </c>
+      <c r="K702" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L702">
+        <v>0.97482910844399995</v>
+      </c>
+      <c r="M702" t="s">
+        <v>1389</v>
+      </c>
+      <c r="N702" t="s">
+        <v>1390</v>
+      </c>
+      <c r="O702" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P702" t="s">
+        <v>1392</v>
+      </c>
+      <c r="Q702">
+        <v>0.99676941989500001</v>
+      </c>
+    </row>
+    <row r="703" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J703" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K703" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L703" t="s">
+        <v>5</v>
+      </c>
+      <c r="M703" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N703" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="704" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J704">
+        <v>3</v>
+      </c>
+      <c r="K704" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L704">
+        <v>0.97542933271700005</v>
+      </c>
+      <c r="M704" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N704" t="s">
+        <v>1395</v>
+      </c>
+      <c r="O704" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P704" t="s">
+        <v>1397</v>
+      </c>
+      <c r="Q704">
+        <v>0.99682085915399998</v>
+      </c>
+    </row>
+    <row r="705" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J705" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K705" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L705" t="s">
+        <v>5</v>
+      </c>
+      <c r="M705" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N705" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="706" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J706">
+        <v>3</v>
+      </c>
+      <c r="K706" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L706">
+        <v>0.94314367504100005</v>
+      </c>
+      <c r="M706" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N706" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O706" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P706" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Q706">
+        <v>0.96901877579200002</v>
+      </c>
+    </row>
+    <row r="707" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J707" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="708" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J708" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="711" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J711" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K711">
+        <v>28</v>
+      </c>
+      <c r="L711">
+        <v>52</v>
+      </c>
+      <c r="M711">
+        <v>36</v>
+      </c>
+      <c r="N711">
+        <v>68</v>
+      </c>
+      <c r="O711">
+        <v>22</v>
+      </c>
+      <c r="P711">
+        <v>55</v>
+      </c>
+      <c r="Q711">
+        <v>26</v>
+      </c>
+      <c r="R711" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="712" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J712" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="713" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J713" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K713" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L713" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M713" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="714" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J714" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="715" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J715" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K715" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L715" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="716" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J716" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="717" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J717" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K717" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L717" t="s">
+        <v>5</v>
+      </c>
+      <c r="M717" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N717" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="718" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J718">
+        <v>0</v>
+      </c>
+      <c r="K718" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L718">
+        <v>0.978020841571</v>
+      </c>
+      <c r="M718" t="s">
+        <v>1496</v>
+      </c>
+      <c r="N718" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O718" t="s">
+        <v>1498</v>
+      </c>
+      <c r="P718" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Q718">
+        <v>0.99742273818299998</v>
+      </c>
+    </row>
+    <row r="719" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J719" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K719" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L719" t="s">
+        <v>5</v>
+      </c>
+      <c r="M719" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N719" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="720" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J720">
+        <v>0</v>
+      </c>
+      <c r="K720" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L720">
+        <v>0.97737600603499997</v>
+      </c>
+      <c r="M720" t="s">
+        <v>1501</v>
+      </c>
+      <c r="N720" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O720" t="s">
+        <v>1503</v>
+      </c>
+      <c r="P720" t="s">
+        <v>1504</v>
+      </c>
+      <c r="Q720">
+        <v>0.99733598193499995</v>
+      </c>
+    </row>
+    <row r="721" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J721" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K721" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L721" t="s">
+        <v>5</v>
+      </c>
+      <c r="M721" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N721" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J722">
+        <v>0</v>
+      </c>
+      <c r="K722" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L722">
+        <v>0.935812707947</v>
+      </c>
+      <c r="M722" t="s">
+        <v>1506</v>
+      </c>
+      <c r="N722" t="s">
+        <v>1507</v>
+      </c>
+      <c r="O722" t="s">
+        <v>1508</v>
+      </c>
+      <c r="P722" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q722">
+        <v>0.97165593403299999</v>
+      </c>
+    </row>
+    <row r="723" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J723" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="724" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J724" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="725" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J725" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="726" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J726" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K726" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L726" t="s">
+        <v>5</v>
+      </c>
+      <c r="M726" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N726" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="727" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J727">
+        <v>1</v>
+      </c>
+      <c r="K727" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L727">
+        <v>0.97763961804599997</v>
+      </c>
+      <c r="M727" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N727" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O727" t="s">
+        <v>1516</v>
+      </c>
+      <c r="P727" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q727">
+        <v>0.99738527467000004</v>
+      </c>
+    </row>
+    <row r="728" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J728" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K728" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L728" t="s">
+        <v>5</v>
+      </c>
+      <c r="M728" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N728" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="729" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J729">
+        <v>1</v>
+      </c>
+      <c r="K729" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L729">
+        <v>0.97833717598500003</v>
+      </c>
+      <c r="M729" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N729" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O729" t="s">
+        <v>1520</v>
+      </c>
+      <c r="P729" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Q729">
+        <v>0.99742547877900001</v>
+      </c>
+    </row>
+    <row r="730" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J730" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K730" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L730" t="s">
+        <v>5</v>
+      </c>
+      <c r="M730" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N730" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="731" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J731">
+        <v>1</v>
+      </c>
+      <c r="K731" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L731">
+        <v>0.93499748673600003</v>
+      </c>
+      <c r="M731" t="s">
+        <v>1523</v>
+      </c>
+      <c r="N731" t="s">
+        <v>1524</v>
+      </c>
+      <c r="O731" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P731" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q731">
+        <v>0.97162130760999998</v>
+      </c>
+    </row>
+    <row r="732" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J732" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="733" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J733" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="734" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J734" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="735" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J735" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K735" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L735" t="s">
+        <v>5</v>
+      </c>
+      <c r="M735" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N735" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J736">
+        <v>2</v>
+      </c>
+      <c r="K736" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L736">
+        <v>0.97786064657899996</v>
+      </c>
+      <c r="M736" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N736" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O736" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P736" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q736">
+        <v>0.99739125948499996</v>
+      </c>
+    </row>
+    <row r="737" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J737" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K737" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L737" t="s">
+        <v>5</v>
+      </c>
+      <c r="M737" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N737" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J738">
+        <v>2</v>
+      </c>
+      <c r="K738" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L738">
+        <v>0.97772275721900004</v>
+      </c>
+      <c r="M738" t="s">
+        <v>1536</v>
+      </c>
+      <c r="N738" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O738" t="s">
+        <v>1537</v>
+      </c>
+      <c r="P738" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q738">
+        <v>0.99741088604999995</v>
+      </c>
+    </row>
+    <row r="739" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J739" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K739" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L739" t="s">
+        <v>5</v>
+      </c>
+      <c r="M739" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N739" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="740" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J740">
+        <v>2</v>
+      </c>
+      <c r="K740" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L740">
+        <v>0.93530168873899999</v>
+      </c>
+      <c r="M740" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N740" t="s">
+        <v>1541</v>
+      </c>
+      <c r="O740" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P740" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Q740">
+        <v>0.97162077576200001</v>
+      </c>
+    </row>
+    <row r="741" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J741" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="742" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J742" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="743" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J743" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="744" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J744" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K744" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L744" t="s">
+        <v>5</v>
+      </c>
+      <c r="M744" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N744" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="745" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J745">
+        <v>3</v>
+      </c>
+      <c r="K745" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L745">
+        <v>0.97749158976299999</v>
+      </c>
+      <c r="M745" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N745" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O745" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P745" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q745">
+        <v>0.99737852449200004</v>
+      </c>
+    </row>
+    <row r="746" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J746" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K746" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L746" t="s">
+        <v>5</v>
+      </c>
+      <c r="M746" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N746" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="747" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J747">
+        <v>3</v>
+      </c>
+      <c r="K747" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L747">
+        <v>0.97760109013700003</v>
+      </c>
+      <c r="M747" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N747" t="s">
+        <v>1554</v>
+      </c>
+      <c r="O747" t="s">
+        <v>1555</v>
+      </c>
+      <c r="P747" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q747">
+        <v>0.99739502094300003</v>
+      </c>
+    </row>
+    <row r="748" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J748" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K748" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L748" t="s">
+        <v>5</v>
+      </c>
+      <c r="M748" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N748" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="749" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J749">
+        <v>3</v>
+      </c>
+      <c r="K749" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L749">
+        <v>0.93525215969999997</v>
+      </c>
+      <c r="M749" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N749" t="s">
+        <v>1559</v>
+      </c>
+      <c r="O749" t="s">
+        <v>1560</v>
+      </c>
+      <c r="P749" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Q749">
+        <v>0.971619955009</v>
+      </c>
+    </row>
+    <row r="750" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J750" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="751" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J751" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="755" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J755" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="756" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J756" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="757" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J757" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="758" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J758" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="759" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J759" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="760" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J760" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="761" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J761" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="762" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J762" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="763" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J763" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="764" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J764" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="765" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J765" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="766" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J766" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="767" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J767" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="768" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J768" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="769" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J769" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="770" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J770" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="771" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J771" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="772" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J772" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="773" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J773" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="774" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J774" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="775" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J775" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="776" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J776" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="777" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J777" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="778" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J778" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="779" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J779" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="780" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J780" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="781" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J781" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="782" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J782" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="783" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J783" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="784" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J784" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="785" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J785" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="786" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J786" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="787" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J787" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="792" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J792" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="793" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J793" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="794" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J794" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="795" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J795" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="796" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J796" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="797" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J797" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="798" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J798" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="799" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J799" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="800" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J800" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="801" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J801" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="802" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J802" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="803" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J803" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="804" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J804" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="805" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J805" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="806" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J806" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="807" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J807" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="808" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J808" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="809" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J809" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="810" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J810" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="811" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J811" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="812" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J812" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="813" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J813" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="814" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J814" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="815" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J815" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="816" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J816" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="817" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J817" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="818" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J818" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="819" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J819" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="820" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J820" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="821" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J821" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="822" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J822" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="823" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J823" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="824" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J824" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="828" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J828" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="829" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J829" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="830" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J830" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="831" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J831" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="832" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J832" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="833" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J833" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="834" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J834" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="835" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J835" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="836" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J836" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="837" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J837" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="838" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J838" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="839" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J839" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="840" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J840" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="841" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J841" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="842" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J842" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="843" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J843" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="844" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J844" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="845" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J845" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="846" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J846" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="847" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J847" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="848" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J848" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="849" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J849" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="850" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J850" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="851" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J851" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="852" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J852" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="853" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J853" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="854" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J854" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="855" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J855" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="856" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J856" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="857" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J857" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="858" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J858" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="862" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J862" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="863" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J863" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="864" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J864" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="865" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J865" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="866" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J866" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="867" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J867" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="868" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J868" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="869" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J869" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="870" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J870" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="871" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J871" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="872" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J872" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="873" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J873" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="874" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J874" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="875" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J875" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="876" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J876" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="877" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J877" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="878" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J878" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="879" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J879" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="880" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J880" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="881" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J881" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="882" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J882" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="883" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J883" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="884" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J884" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="885" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J885" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="886" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J886" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="887" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J887" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="888" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J888" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="889" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J889" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="890" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J890" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="891" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J891" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="892" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J892" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="893" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J893" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="894" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J894" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="898" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J898" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="899" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J899" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="900" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J900" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="901" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J901" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="902" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J902" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="903" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J903" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="904" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J904" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="905" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J905" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="906" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J906" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="907" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J907" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="908" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J908" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="909" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J909" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="910" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J910" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="911" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J911" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="912" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J912" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="913" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J913" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="914" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J914" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="915" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J915" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="916" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J916" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="917" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J917" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="918" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J918" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="919" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J919" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="920" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J920" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="921" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J921" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="922" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J922" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="923" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J923" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="924" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J924" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="925" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J925" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="926" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J926" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="927" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J927" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="928" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J928" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="929" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J929" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="930" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J930" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="931" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J931" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="932" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J932" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="933" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J933" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="934" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J934" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="938" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J938" t="s">
+        <v>1797</v>
+      </c>
+      <c r="S938" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="939" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J939" t="s">
+        <v>1798</v>
+      </c>
+      <c r="S939" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="940" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J940" t="s">
+        <v>1731</v>
+      </c>
+      <c r="S940" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="941" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J941" t="s">
+        <v>1799</v>
+      </c>
+      <c r="S941" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="942" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J942" t="s">
+        <v>1800</v>
+      </c>
+      <c r="S942" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="943" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J943" t="s">
+        <v>1801</v>
+      </c>
+      <c r="S943" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="944" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J944" t="s">
+        <v>1802</v>
+      </c>
+      <c r="S944" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="945" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J945" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S945" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="946" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J946" t="s">
+        <v>1804</v>
+      </c>
+      <c r="S946" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="947" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J947" t="s">
+        <v>1805</v>
+      </c>
+      <c r="S947" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="948" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J948" t="s">
+        <v>1806</v>
+      </c>
+      <c r="S948" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="949" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J949" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S949" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="950" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J950" t="s">
+        <v>1808</v>
+      </c>
+      <c r="S950" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="951" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J951" t="s">
+        <v>1809</v>
+      </c>
+      <c r="S951" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="952" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J952" t="s">
+        <v>1810</v>
+      </c>
+      <c r="S952" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="953" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J953" t="s">
+        <v>1811</v>
+      </c>
+      <c r="S953" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="954" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J954" t="s">
+        <v>1812</v>
+      </c>
+      <c r="S954" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="955" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>1884</v>
+      </c>
+      <c r="J955" t="s">
+        <v>1813</v>
+      </c>
+      <c r="S955" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="956" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J956" t="s">
+        <v>1814</v>
+      </c>
+      <c r="S956" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="957" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J957" t="s">
+        <v>1815</v>
+      </c>
+      <c r="S957" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="958" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J958" t="s">
+        <v>1816</v>
+      </c>
+      <c r="S958" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="959" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>1888</v>
+      </c>
+      <c r="J959" t="s">
+        <v>1817</v>
+      </c>
+      <c r="S959" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="960" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J960" t="s">
+        <v>1818</v>
+      </c>
+      <c r="S960" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="961" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>1890</v>
+      </c>
+      <c r="J961" t="s">
+        <v>1819</v>
+      </c>
+      <c r="S961" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="962" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J962" t="s">
+        <v>1820</v>
+      </c>
+      <c r="S962" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="963" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>1892</v>
+      </c>
+      <c r="J963" t="s">
+        <v>1821</v>
+      </c>
+      <c r="S963" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="964" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J964" t="s">
+        <v>1822</v>
+      </c>
+      <c r="S964" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="965" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>1894</v>
+      </c>
+      <c r="J965" t="s">
+        <v>1823</v>
+      </c>
+      <c r="S965" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="966" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J966" t="s">
+        <v>1824</v>
+      </c>
+      <c r="S966" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="967" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J967" t="s">
+        <v>1825</v>
+      </c>
+      <c r="S967" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="968" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J968" t="s">
+        <v>1826</v>
+      </c>
+      <c r="S968" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="969" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J969" t="s">
+        <v>1827</v>
+      </c>
+      <c r="S969" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="970" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J970" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="971" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J971" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="972" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J972" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="973" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J973" t="s">
+        <v>1831</v>
+      </c>
+      <c r="S973" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="974" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>1903</v>
+      </c>
+      <c r="J974" t="s">
+        <v>1832</v>
+      </c>
+      <c r="S974" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="975" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>1904</v>
+      </c>
+      <c r="S975" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="976" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>1905</v>
+      </c>
+      <c r="S976" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="977" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S977" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="978" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>1907</v>
+      </c>
+      <c r="S978" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="979" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S979" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="980" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S980" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="981" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S981" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="982" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S982" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="983" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I983" t="s">
+        <v>1833</v>
+      </c>
+      <c r="S983" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="984" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I984" t="s">
+        <v>1834</v>
+      </c>
+      <c r="S984" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="985" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I985" t="s">
+        <v>1731</v>
+      </c>
+      <c r="S985" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="986" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I986" t="s">
+        <v>1835</v>
+      </c>
+      <c r="S986" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="987" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I987" t="s">
+        <v>1836</v>
+      </c>
+      <c r="S987" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="988" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>1911</v>
+      </c>
+      <c r="I988" t="s">
+        <v>1837</v>
+      </c>
+      <c r="S988" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="989" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I989" t="s">
+        <v>1838</v>
+      </c>
+      <c r="S989" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="990" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I990" t="s">
+        <v>1839</v>
+      </c>
+      <c r="S990" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="991" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>1914</v>
+      </c>
+      <c r="I991" t="s">
+        <v>1840</v>
+      </c>
+      <c r="S991" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="992" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I992" t="s">
+        <v>1841</v>
+      </c>
+      <c r="S992" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="993" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I993" t="s">
+        <v>1842</v>
+      </c>
+      <c r="S993" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="994" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I994" t="s">
+        <v>1843</v>
+      </c>
+      <c r="S994" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="995" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I995" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S995" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="996" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I996" t="s">
+        <v>1845</v>
+      </c>
+      <c r="S996" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="997" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I997" t="s">
+        <v>1846</v>
+      </c>
+      <c r="S997" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="998" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I998" t="s">
+        <v>1847</v>
+      </c>
+      <c r="S998" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="999" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I999" t="s">
+        <v>1848</v>
+      </c>
+      <c r="S999" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I1000" t="s">
+        <v>1849</v>
+      </c>
+      <c r="S1000" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I1001" t="s">
+        <v>1850</v>
+      </c>
+      <c r="S1001" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I1002" t="s">
+        <v>1851</v>
+      </c>
+      <c r="S1002" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>1852</v>
+      </c>
+      <c r="S1003" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I1004" t="s">
+        <v>1853</v>
+      </c>
+      <c r="S1004" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>1928</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I1008" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I1010" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I1011" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I1012" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>1937</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I1016" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I1017" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>1941</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>1942</v>
+      </c>
+      <c r="I1019" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
